--- a/scripts/output/202004/全家/全家整体收益估算.xlsx
+++ b/scripts/output/202004/全家/全家整体收益估算.xlsx
@@ -581,31 +581,31 @@
         <v>3899.26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>5076.84</v>
+        <v>5084.64</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-472.2</v>
+        <v>-464.4</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.302</v>
+        <v>1.304</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.2968</v>
+        <v>1.3033</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.004</v>
+        <v>-0.0067</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-20.28</v>
+        <v>-2.73</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -650,31 +650,31 @@
         <v>3303.75</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>4998.57</v>
+        <v>5041.52</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-453.27</v>
+        <v>-410.33</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.513</v>
+        <v>1.526</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.5085</v>
+        <v>1.5263</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K3" s="8" t="n">
-        <v>-14.87</v>
+        <v>-0.005</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0.99</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -719,31 +719,31 @@
         <v>4586.65</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4232.56</v>
+        <v>4298.15</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-80.27</v>
+        <v>-14.68</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.9228</v>
+        <v>0.9371</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9254</v>
+        <v>0.9371</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0029</v>
+        <v>-0.0038</v>
       </c>
       <c r="K4" s="9" t="n">
-        <v>11.93</v>
+        <v>0</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -788,31 +788,31 @@
         <v>2489.89</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3215.44</v>
+        <v>3258.52</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-121.26</v>
+        <v>-78.18000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.2914</v>
+        <v>1.3087</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.281</v>
+        <v>1.3088</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0081</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>-25.89</v>
+        <v>-0.0018</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0.25</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 16:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -857,31 +857,31 @@
         <v>1220.14</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2493.97</v>
+        <v>2502.63</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-107.98</v>
+        <v>-99.31999999999999</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>2.044</v>
+        <v>2.0511</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.0341</v>
+        <v>2.0507</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0048</v>
+        <v>-0.0083</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-12.08</v>
+        <v>-0.49</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -926,31 +926,31 @@
         <v>1363.37</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2410.44</v>
+        <v>2426.39</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-41.86</v>
+        <v>-25.9</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>1.768</v>
+        <v>1.7797</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>1.7611</v>
+        <v>1.7797</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0039</v>
-      </c>
-      <c r="K7" s="8" t="n">
-        <v>-9.41</v>
+        <v>-0.007900000000000001</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -995,31 +995,31 @@
         <v>1443.38</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1564.34</v>
+        <v>1564.05</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-140.87</v>
+        <v>-141.16</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.0838</v>
+        <v>1.0836</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.0809</v>
+        <v>1.0836</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0027</v>
-      </c>
-      <c r="K8" s="8" t="n">
-        <v>-4.19</v>
+        <v>-0.0063</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1064,31 +1064,31 @@
         <v>1067.42</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1040.31</v>
+        <v>1055.14</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16.76</v>
+        <v>31.6</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9746</v>
+        <v>0.9885</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9674</v>
+        <v>0.9886</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0074</v>
-      </c>
-      <c r="K9" s="8" t="n">
-        <v>-7.69</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0.11</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1133,17 +1133,17 @@
         <v>929.23</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1005.89</v>
+        <v>998.09</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-73.78</v>
+        <v>-81.59</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1.0825</v>
+        <v>1.0741</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
@@ -1202,31 +1202,31 @@
         <v>500.24</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>640.8099999999999</v>
+        <v>639.3099999999999</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41.27</v>
+        <v>39.77</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.281</v>
+        <v>1.278</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.2405</v>
+        <v>1.2484</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0316</v>
+        <v>-0.0123</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-20.26</v>
+        <v>-14.81</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1271,31 +1271,31 @@
         <v>253.87</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>634.67</v>
+        <v>621.98</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52.3</v>
+        <v>39.6</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>2.3953</v>
+        <v>2.3613</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0419</v>
+        <v>-0.0145</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-26.58</v>
+        <v>-22.52</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1354,17 +1354,17 @@
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.2151</v>
+        <v>1.2128</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>-0.0024</v>
+        <v>-0.0043</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-0.72</v>
+        <v>-1.29</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1409,31 +1409,31 @@
         <v>300.61</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>264.72</v>
+        <v>267.51</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14.85</v>
+        <v>17.65</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>0.8806</v>
+        <v>0.8899</v>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I14" s="4" t="n">
-        <v>0.88</v>
+        <v>0.8898</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>-0.0007</v>
+        <v>-0.0025</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-0.18</v>
+        <v>-0.03</v>
       </c>
       <c r="L14" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
@@ -1478,31 +1478,31 @@
         <v>136.17</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>220.75</v>
+        <v>216.1</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-10.43</v>
+        <v>-15.07</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>1.6211</v>
+        <v>1.587</v>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>1.5529</v>
+        <v>1.5224</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>-0.0421</v>
+        <v>-0.0164</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-9.289999999999999</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M15" s="6" t="inlineStr">
@@ -1547,31 +1547,31 @@
         <v>64.5</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79.38</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-13.33</v>
+        <v>-13.2</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>1.2307</v>
+        <v>1.2327</v>
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I16" s="4" t="n">
-        <v>1.2258</v>
+        <v>1.2325</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>-0.004</v>
+        <v>-0.0067</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>-0.32</v>
+        <v>-0.01</v>
       </c>
       <c r="L16" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M16" s="6" t="inlineStr">
@@ -1622,25 +1622,25 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>0.8527</v>
+        <v>0.8715000000000001</v>
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I17" s="4" t="n">
-        <v>0.8452</v>
+        <v>0.8716</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>-0.008800000000000001</v>
+        <v>0.0105</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L17" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M17" s="6" t="inlineStr">
@@ -1691,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>1.2734</v>
+        <v>1.2736</v>
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I18" s="4" t="n">
         <v>1.2735</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L18" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M18" s="6" t="inlineStr">
@@ -1760,25 +1760,25 @@
         <v>-0</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>0.9112</v>
+        <v>0.9191</v>
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.9098000000000001</v>
+        <v>0.9164</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>-0.0015</v>
+        <v>-0.0057</v>
       </c>
       <c r="K19" s="9" t="n">
         <v>-0</v>
       </c>
       <c r="L19" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M19" s="6" t="inlineStr">
@@ -1823,31 +1823,31 @@
         <v>47862</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58425.14</v>
+        <v>58429.93</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>421.19</v>
+        <v>425.97</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>1.2207</v>
+        <v>1.2208</v>
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I20" s="4" t="n">
-        <v>1.2207</v>
+        <v>1.2206</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>-9.57</v>
       </c>
       <c r="L20" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1892,31 +1892,31 @@
         <v>36337.6</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>38946.64</v>
+        <v>39008.41</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>363.38</v>
+        <v>425.15</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>1.0718</v>
+        <v>1.0735</v>
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I21" s="4" t="n">
-        <v>1.0717</v>
+        <v>1.073</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>-0.0001</v>
+        <v>-0.0005</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-3.63</v>
+        <v>-18.17</v>
       </c>
       <c r="L21" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M21" s="6" t="inlineStr">
@@ -1961,31 +1961,31 @@
         <v>12644.87</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19561.61</v>
+        <v>19574.26</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-83.45999999999999</v>
+        <v>-70.81</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>1.547</v>
+        <v>1.548</v>
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I22" s="4" t="n">
-        <v>1.547</v>
+        <v>1.5517</v>
       </c>
       <c r="J22" s="7" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>0</v>
+        <v>46.79</v>
       </c>
       <c r="L22" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M22" s="6" t="inlineStr">
@@ -2030,31 +2030,31 @@
         <v>18000.52</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>19519.76</v>
+        <v>19546.76</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.8</v>
+        <v>28.8</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>1.0844</v>
+        <v>1.0859</v>
       </c>
       <c r="H23" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I23" s="4" t="n">
-        <v>1.084</v>
+        <v>1.0859</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="K23" s="8" t="n">
-        <v>-7.2</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L23" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M23" s="6" t="inlineStr">
@@ -2099,31 +2099,31 @@
         <v>14459.61</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19472.76</v>
+        <v>19482.88</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>40.49</v>
+        <v>50.61</v>
       </c>
       <c r="G24" s="4" t="n">
+        <v>1.3474</v>
+      </c>
+      <c r="H24" s="6" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="n">
         <v>1.3467</v>
       </c>
-      <c r="H24" s="6" t="inlineStr">
-        <is>
-          <t>2020-04-01</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="n">
-        <v>1.3466</v>
-      </c>
       <c r="J24" s="7" t="n">
-        <v>-0.0001</v>
+        <v>-0.0004</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>-1.45</v>
+        <v>-10.12</v>
       </c>
       <c r="L24" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M24" s="6" t="inlineStr">
@@ -2168,31 +2168,31 @@
         <v>16731.88</v>
       </c>
       <c r="E25" s="13" t="n">
-        <v>9314.639999999999</v>
+        <v>9420.049999999999</v>
       </c>
       <c r="F25" s="13" t="n">
-        <v>-2685.47</v>
+        <v>-2580.06</v>
       </c>
       <c r="G25" s="12" t="n">
-        <v>0.5567</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H25" s="14" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I25" s="12" t="n">
-        <v>0.5586</v>
+        <v>0.5628</v>
       </c>
       <c r="J25" s="15" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <v>31.79</v>
+        <v>-0.0124</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>-3.35</v>
       </c>
       <c r="L25" s="14" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M25" s="14" t="inlineStr">
@@ -2237,31 +2237,31 @@
         <v>13896</v>
       </c>
       <c r="E26" s="19" t="n">
-        <v>9616.030000000001</v>
+        <v>10519.27</v>
       </c>
       <c r="F26" s="19" t="n">
-        <v>1167.26</v>
+        <v>2070.5</v>
       </c>
       <c r="G26" s="18" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.757</v>
       </c>
       <c r="H26" s="20" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I26" s="18" t="n">
-        <v>0.702</v>
+        <v>0.777</v>
       </c>
       <c r="J26" s="21" t="n">
-        <v>0.0145</v>
+        <v>0.0264</v>
       </c>
       <c r="K26" s="9" t="n">
-        <v>138.96</v>
+        <v>277.92</v>
       </c>
       <c r="L26" s="20" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:04</t>
         </is>
       </c>
       <c r="M26" s="20" t="inlineStr">
@@ -2306,31 +2306,31 @@
         <v>3000</v>
       </c>
       <c r="E27" s="19" t="n">
-        <v>2754</v>
+        <v>2793</v>
       </c>
       <c r="F27" s="19" t="n">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="G27" s="18" t="n">
-        <v>0.918</v>
+        <v>0.931</v>
       </c>
       <c r="H27" s="20" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I27" s="18" t="n">
-        <v>0.917</v>
+        <v>0.929</v>
       </c>
       <c r="J27" s="21" t="n">
-        <v>-0.0011</v>
+        <v>-0.0021</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="L27" s="20" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M27" s="20" t="inlineStr">
@@ -2375,31 +2375,31 @@
         <v>9600</v>
       </c>
       <c r="E28" s="19" t="n">
-        <v>12364.8</v>
+        <v>12480</v>
       </c>
       <c r="F28" s="19" t="n">
-        <v>-134.4</v>
+        <v>-19.2</v>
       </c>
       <c r="G28" s="18" t="n">
-        <v>1.288</v>
+        <v>1.3</v>
       </c>
       <c r="H28" s="20" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I28" s="18" t="n">
-        <v>1.287</v>
+        <v>1.293</v>
       </c>
       <c r="J28" s="21" t="n">
-        <v>-0.0008</v>
+        <v>-0.0054</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>-9.6</v>
+        <v>-67.2</v>
       </c>
       <c r="L28" s="20" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:04</t>
         </is>
       </c>
       <c r="M28" s="20" t="inlineStr">
@@ -2444,31 +2444,31 @@
         <v>12000</v>
       </c>
       <c r="E29" s="19" t="n">
-        <v>10464</v>
+        <v>10536</v>
       </c>
       <c r="F29" s="19" t="n">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="G29" s="18" t="n">
-        <v>0.872</v>
+        <v>0.878</v>
       </c>
       <c r="H29" s="20" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I29" s="18" t="n">
-        <v>0.875</v>
+        <v>0.868</v>
       </c>
       <c r="J29" s="21" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K29" s="9" t="n">
-        <v>36</v>
+        <v>-0.0114</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>-120</v>
       </c>
       <c r="L29" s="20" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M29" s="20" t="inlineStr">
@@ -2513,31 +2513,31 @@
         <v>2700</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>7211.7</v>
+        <v>7306.2</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>901.8</v>
+        <v>996.3</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>2.671</v>
+        <v>2.706</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>2.67</v>
+        <v>2.694</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0004</v>
+        <v>-0.0044</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-2.7</v>
+        <v>-32.4</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2582,31 +2582,31 @@
         <v>9100</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>33424.3</v>
+        <v>33879.3</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>2056.6</v>
+        <v>2511.6</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>3.673</v>
+        <v>3.723</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>3.663</v>
+        <v>3.697</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-0.0027</v>
+        <v>-0.007</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>-91</v>
+        <v>-236.6</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2651,31 +2651,31 @@
         <v>37600</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>204092.8</v>
+        <v>210146.4</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>-5752.8</v>
+        <v>300.8</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>5.428</v>
+        <v>5.589</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>5.454</v>
+        <v>5.522</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="K32" s="9" t="n">
-        <v>977.6</v>
+        <v>-0.012</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>-2519.2</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2720,31 +2720,31 @@
         <v>33800</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>24978.2</v>
+        <v>25654.2</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>-4664.4</v>
+        <v>-3988.4</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>0.739</v>
+        <v>0.759</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>0.742</v>
+        <v>0.751</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>101.4</v>
+        <v>-0.0105</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>-270.4</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2789,31 +2789,31 @@
         <v>32700</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>30149.4</v>
+        <v>30738</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>4545.3</v>
+        <v>5133.9</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>0.922</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
         <v>0.926</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="K34" s="9" t="n">
-        <v>130.8</v>
+        <v>-0.0149</v>
+      </c>
+      <c r="K34" s="8" t="n">
+        <v>-457.8</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2858,31 +2858,31 @@
         <v>34100</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>26768.5</v>
+        <v>27450.5</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>-2864.4</v>
+        <v>-2182.4</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>0.785</v>
+        <v>0.805</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>0.788</v>
+        <v>0.797</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="K35" s="9" t="n">
-        <v>102.3</v>
+        <v>-0.009900000000000001</v>
+      </c>
+      <c r="K35" s="8" t="n">
+        <v>-272.8</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
@@ -2927,31 +2927,31 @@
         <v>2300</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>8114.4</v>
+        <v>8148.9</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>2895.7</v>
+        <v>2930.2</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>3.528</v>
+        <v>3.543</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>3.535</v>
+        <v>3.575</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>0.002</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K36" s="9" t="n">
-        <v>16.1</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2996,31 +2996,31 @@
         <v>9200</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>16486.4</v>
+        <v>16964.8</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>9457.6</v>
+        <v>9936</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.792</v>
+        <v>1.844</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.794</v>
+        <v>1.834</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>18.4</v>
+        <v>-0.0054</v>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>-92</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:04</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3065,31 +3065,31 @@
         <v>9600</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>14102.4</v>
+        <v>14256</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>2889.6</v>
+        <v>3043.2</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.469</v>
+        <v>1.485</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.458</v>
+        <v>1.503</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.0075</v>
-      </c>
-      <c r="K38" s="8" t="n">
-        <v>-105.6</v>
+        <v>0.0121</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>172.8</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:04</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3134,31 +3134,31 @@
         <v>4157.52</v>
       </c>
       <c r="E39" s="31" t="n">
-        <v>8032.74</v>
+        <v>8178.67</v>
       </c>
       <c r="F39" s="31" t="n">
-        <v>28.69</v>
+        <v>174.62</v>
       </c>
       <c r="G39" s="30" t="n">
-        <v>1.9321</v>
+        <v>1.9672</v>
       </c>
       <c r="H39" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I39" s="30" t="n">
-        <v>1.9371</v>
+        <v>1.9653</v>
       </c>
       <c r="J39" s="33" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>20.79</v>
+        <v>-0.0074</v>
+      </c>
+      <c r="K39" s="8" t="n">
+        <v>-7.9</v>
       </c>
       <c r="L39" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M39" s="32" t="inlineStr">
@@ -3203,31 +3203,31 @@
         <v>9722</v>
       </c>
       <c r="E40" s="31" t="n">
-        <v>5412.24</v>
+        <v>5473.49</v>
       </c>
       <c r="F40" s="31" t="n">
-        <v>75.83</v>
+        <v>137.08</v>
       </c>
       <c r="G40" s="30" t="n">
-        <v>0.5567</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H40" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I40" s="30" t="n">
-        <v>0.5586</v>
+        <v>0.5628</v>
       </c>
       <c r="J40" s="33" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>18.47</v>
+        <v>-0.0124</v>
+      </c>
+      <c r="K40" s="8" t="n">
+        <v>-1.94</v>
       </c>
       <c r="L40" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M40" s="32" t="inlineStr">
@@ -3272,31 +3272,31 @@
         <v>4943.96</v>
       </c>
       <c r="E41" s="31" t="n">
-        <v>4818.38</v>
+        <v>4887.1</v>
       </c>
       <c r="F41" s="31" t="n">
-        <v>149.31</v>
+        <v>218.03</v>
       </c>
       <c r="G41" s="30" t="n">
-        <v>0.9746</v>
+        <v>0.9885</v>
       </c>
       <c r="H41" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I41" s="30" t="n">
-        <v>0.9674</v>
+        <v>0.9886</v>
       </c>
       <c r="J41" s="33" t="n">
-        <v>-0.0074</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>-35.6</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>0.49</v>
       </c>
       <c r="L41" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M41" s="32" t="inlineStr">
@@ -3341,31 +3341,31 @@
         <v>7379.54</v>
       </c>
       <c r="E42" s="31" t="n">
-        <v>4105.24</v>
+        <v>4173.87</v>
       </c>
       <c r="F42" s="31" t="n">
-        <v>103.31</v>
+        <v>171.94</v>
       </c>
       <c r="G42" s="30" t="n">
-        <v>0.5563</v>
+        <v>0.5656</v>
       </c>
       <c r="H42" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I42" s="30" t="n">
-        <v>0.5577</v>
+        <v>0.5656</v>
       </c>
       <c r="J42" s="33" t="n">
-        <v>0.0026</v>
+        <v>-0.0073</v>
       </c>
       <c r="K42" s="9" t="n">
-        <v>10.33</v>
+        <v>0</v>
       </c>
       <c r="L42" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M42" s="32" t="inlineStr">
@@ -3410,31 +3410,31 @@
         <v>4074.72</v>
       </c>
       <c r="E43" s="31" t="n">
-        <v>3822.09</v>
+        <v>3850.61</v>
       </c>
       <c r="F43" s="31" t="n">
-        <v>-180.1</v>
+        <v>-151.58</v>
       </c>
       <c r="G43" s="30" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.945</v>
       </c>
       <c r="H43" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I43" s="30" t="n">
-        <v>0.9352</v>
+        <v>0.9452</v>
       </c>
       <c r="J43" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K43" s="8" t="n">
-        <v>-11.41</v>
+        <v>-0.005</v>
+      </c>
+      <c r="K43" s="9" t="n">
+        <v>0.8100000000000001</v>
       </c>
       <c r="L43" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M43" s="32" t="inlineStr">
@@ -3479,31 +3479,31 @@
         <v>4550.55</v>
       </c>
       <c r="E44" s="31" t="n">
-        <v>3562.17</v>
+        <v>3602.22</v>
       </c>
       <c r="F44" s="31" t="n">
-        <v>227.07</v>
+        <v>267.12</v>
       </c>
       <c r="G44" s="30" t="n">
-        <v>0.7828000000000001</v>
+        <v>0.7916</v>
       </c>
       <c r="H44" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I44" s="30" t="n">
-        <v>0.7838000000000001</v>
+        <v>0.7913</v>
       </c>
       <c r="J44" s="33" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="K44" s="9" t="n">
-        <v>4.55</v>
+        <v>-0.0103</v>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>-1.37</v>
       </c>
       <c r="L44" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:03</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M44" s="32" t="inlineStr">
@@ -3548,31 +3548,31 @@
         <v>809.28</v>
       </c>
       <c r="E45" s="31" t="n">
-        <v>736.4400000000001</v>
+        <v>752.95</v>
       </c>
       <c r="F45" s="31" t="n">
-        <v>69.44</v>
+        <v>85.95</v>
       </c>
       <c r="G45" s="30" t="n">
-        <v>0.91</v>
+        <v>0.9304</v>
       </c>
       <c r="H45" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I45" s="30" t="n">
-        <v>0.9029</v>
+        <v>0.9306</v>
       </c>
       <c r="J45" s="33" t="n">
-        <v>-0.0078</v>
-      </c>
-      <c r="K45" s="8" t="n">
-        <v>-5.75</v>
+        <v>0.01</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>0.16</v>
       </c>
       <c r="L45" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M45" s="32" t="inlineStr">
@@ -3617,31 +3617,31 @@
         <v>611.53</v>
       </c>
       <c r="E46" s="31" t="n">
-        <v>605.41</v>
+        <v>606.58</v>
       </c>
       <c r="F46" s="31" t="n">
-        <v>-61.58</v>
+        <v>-60.42</v>
       </c>
       <c r="G46" s="30" t="n">
-        <v>0.99</v>
+        <v>0.9919</v>
       </c>
       <c r="H46" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>0.988</v>
+        <v>0.9916</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>-0.002</v>
+        <v>-0.008399999999999999</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>-1.22</v>
+        <v>-0.18</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3686,31 +3686,31 @@
         <v>473.85</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>475.75</v>
+        <v>477.5</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>8.859999999999999</v>
+        <v>10.61</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>1.004</v>
+        <v>1.0077</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
         <v>1.0074</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K47" s="9" t="n">
-        <v>1.61</v>
+        <v>-0.0147</v>
+      </c>
+      <c r="K47" s="8" t="n">
+        <v>-0.14</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3761,25 +3761,25 @@
         <v>0</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>1.9035</v>
+        <v>1.9439</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.9053</v>
+        <v>1.9436</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.001</v>
+        <v>-0.0051</v>
       </c>
       <c r="K48" s="9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3830,25 +3830,25 @@
         <v>0</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>1.0275</v>
+        <v>1.0492</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>1.0288</v>
+        <v>1.049</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0012</v>
+        <v>-0.0051</v>
       </c>
       <c r="K49" s="9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3893,17 +3893,17 @@
         <v>4147.87</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>4135.43</v>
+        <v>3969.51</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>133.56</v>
+        <v>-32.35</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>0.997</v>
+        <v>0.957</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
@@ -3962,31 +3962,31 @@
         <v>342.8</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>717.21</v>
+        <v>703.49</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>50.22</v>
+        <v>36.51</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>2.0922</v>
+        <v>2.0522</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>2.0895</v>
+        <v>1.9999</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>-0.0013</v>
+        <v>-0.0005</v>
       </c>
       <c r="K51" s="8" t="n">
-        <v>-0.93</v>
+        <v>-17.93</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4031,31 +4031,31 @@
         <v>1483.88</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>1964.21</v>
+        <v>1986.17</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>-36.8</v>
+        <v>-14.84</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.3237</v>
+        <v>1.3385</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.3133</v>
+        <v>1.3367</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.007900000000000001</v>
+        <v>-0.0018</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>-15.43</v>
+        <v>-2.67</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 16:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4100,31 +4100,31 @@
         <v>576.8</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>738.88</v>
+        <v>737.15</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>71.87</v>
+        <v>70.14</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.281</v>
+        <v>1.278</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.2405</v>
+        <v>1.2484</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0316</v>
+        <v>-0.0123</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-23.36</v>
+        <v>-17.07</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4169,31 +4169,31 @@
         <v>5299.96</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>1303.79</v>
+        <v>1367.39</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>-696.9400000000001</v>
+        <v>-633.35</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>0.246</v>
+        <v>0.258</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>0.247</v>
+        <v>0.254</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="K54" s="9" t="n">
-        <v>5.3</v>
+        <v>-0.0155</v>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>-21.2</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:04</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4238,31 +4238,31 @@
         <v>1026.5</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>710.34</v>
+        <v>777.0599999999999</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>43.32</v>
+        <v>110.04</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.757</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>0.702</v>
+        <v>0.777</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.0145</v>
+        <v>0.0264</v>
       </c>
       <c r="K55" s="9" t="n">
-        <v>10.27</v>
+        <v>20.53</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:04</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4307,31 +4307,31 @@
         <v>930.1900000000001</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>733.92</v>
+        <v>772.0599999999999</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>66.88</v>
+        <v>105.02</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>0.789</v>
+        <v>0.83</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0.798</v>
+        <v>0.826</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="K56" s="9" t="n">
-        <v>8.369999999999999</v>
+        <v>-0.0048</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>-3.72</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4376,31 +4376,31 @@
         <v>1564.33</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>3022.44</v>
+        <v>3077.35</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>22.37</v>
+        <v>77.28</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.9321</v>
+        <v>1.9672</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.9371</v>
+        <v>1.9653</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K57" s="9" t="n">
-        <v>7.82</v>
+        <v>-0.0074</v>
+      </c>
+      <c r="K57" s="8" t="n">
+        <v>-2.97</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4445,31 +4445,31 @@
         <v>3083.26</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>2892.1</v>
+        <v>2913.68</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>-107.91</v>
+        <v>-86.33</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.945</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>0.9352</v>
+        <v>0.9452</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K58" s="8" t="n">
-        <v>-8.630000000000001</v>
+        <v>-0.005</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>0.62</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4514,31 +4514,31 @@
         <v>1812.7</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>1008.41</v>
+        <v>1025.26</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>8.34</v>
+        <v>25.2</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>0.5563</v>
+        <v>0.5656</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>0.5577</v>
+        <v>0.5656</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>0.0026</v>
+        <v>-0.0073</v>
       </c>
       <c r="K59" s="9" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
@@ -4583,31 +4583,31 @@
         <v>1059.17</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>976.66</v>
+        <v>985.66</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>-23.3</v>
+        <v>-14.3</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>0.9221</v>
+        <v>0.9306</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.9209000000000001</v>
+        <v>0.9305</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0013</v>
+        <v>-0.0039</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>-1.27</v>
+        <v>-0.11</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4652,31 +4652,31 @@
         <v>916.83</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>907.66</v>
+        <v>909.4</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>-92.31999999999999</v>
+        <v>-90.58</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.99</v>
+        <v>0.9919</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.988</v>
+        <v>0.9916</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.002</v>
+        <v>-0.008399999999999999</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>-1.83</v>
+        <v>-0.28</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4721,31 +4721,31 @@
         <v>822.11</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>643.55</v>
+        <v>650.78</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-26.47</v>
+        <v>-19.24</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.7828000000000001</v>
+        <v>0.7916</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.7838000000000001</v>
+        <v>0.7913</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="K62" s="9" t="n">
-        <v>0.82</v>
+        <v>-0.0103</v>
+      </c>
+      <c r="K62" s="8" t="n">
+        <v>-0.25</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:03</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4790,31 +4790,31 @@
         <v>1423.86</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>1884.76</v>
+        <v>1905.84</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>-115.19</v>
+        <v>-94.12</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>1.3237</v>
+        <v>1.3385</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>1.3133</v>
+        <v>1.3367</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.007900000000000001</v>
+        <v>-0.0018</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>-14.81</v>
+        <v>-2.56</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 16:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4859,31 +4859,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>1152.67</v>
+        <v>1149.97</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>152.7</v>
+        <v>150</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>1.281</v>
+        <v>1.278</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>1.2405</v>
+        <v>1.2484</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0316</v>
+        <v>-0.0123</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-36.44</v>
+        <v>-26.63</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4928,17 +4928,17 @@
         <v>2047.94</v>
       </c>
       <c r="E65" s="31" t="n">
-        <v>2041.8</v>
+        <v>1959.88</v>
       </c>
       <c r="F65" s="31" t="n">
-        <v>41.78</v>
+        <v>-40.14</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>0.997</v>
+        <v>0.957</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
@@ -4997,31 +4997,31 @@
         <v>438.17</v>
       </c>
       <c r="E66" s="31" t="n">
-        <v>916.74</v>
+        <v>899.21</v>
       </c>
       <c r="F66" s="31" t="n">
-        <v>-83.25</v>
+        <v>-100.78</v>
       </c>
       <c r="G66" s="30" t="n">
-        <v>2.0922</v>
+        <v>2.0522</v>
       </c>
       <c r="H66" s="32" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I66" s="30" t="n">
-        <v>2.0895</v>
+        <v>1.9999</v>
       </c>
       <c r="J66" s="33" t="n">
-        <v>-0.0013</v>
+        <v>-0.0005</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>-1.18</v>
+        <v>-22.92</v>
       </c>
       <c r="L66" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M66" s="32" t="inlineStr">
@@ -5066,31 +5066,31 @@
         <v>7734.05</v>
       </c>
       <c r="E67" s="31" t="n">
-        <v>1902.58</v>
+        <v>1995.38</v>
       </c>
       <c r="F67" s="31" t="n">
-        <v>-1097.46</v>
+        <v>-1004.65</v>
       </c>
       <c r="G67" s="30" t="n">
-        <v>0.246</v>
+        <v>0.258</v>
       </c>
       <c r="H67" s="32" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I67" s="30" t="n">
-        <v>0.247</v>
+        <v>0.254</v>
       </c>
       <c r="J67" s="33" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="K67" s="9" t="n">
-        <v>7.73</v>
+        <v>-0.0155</v>
+      </c>
+      <c r="K67" s="8" t="n">
+        <v>-30.94</v>
       </c>
       <c r="L67" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:04</t>
         </is>
       </c>
       <c r="M67" s="32" t="inlineStr">
@@ -5135,31 +5135,31 @@
         <v>1394.58</v>
       </c>
       <c r="E68" s="31" t="n">
-        <v>1100.32</v>
+        <v>1157.5</v>
       </c>
       <c r="F68" s="31" t="n">
-        <v>100.27</v>
+        <v>157.45</v>
       </c>
       <c r="G68" s="30" t="n">
-        <v>0.789</v>
+        <v>0.83</v>
       </c>
       <c r="H68" s="32" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="I68" s="30" t="n">
-        <v>0.798</v>
+        <v>0.826</v>
       </c>
       <c r="J68" s="33" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="K68" s="9" t="n">
-        <v>12.55</v>
+        <v>-0.0048</v>
+      </c>
+      <c r="K68" s="8" t="n">
+        <v>-5.58</v>
       </c>
       <c r="L68" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M68" s="32" t="inlineStr">
@@ -5204,31 +5204,31 @@
         <v>917.23</v>
       </c>
       <c r="E69" s="31" t="n">
-        <v>1207.53</v>
+        <v>1216.52</v>
       </c>
       <c r="F69" s="31" t="n">
-        <v>207.57</v>
+        <v>216.56</v>
       </c>
       <c r="G69" s="30" t="n">
-        <v>1.3165</v>
+        <v>1.3263</v>
       </c>
       <c r="H69" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I69" s="30" t="n">
-        <v>1.3125</v>
+        <v>1.3255</v>
       </c>
       <c r="J69" s="33" t="n">
-        <v>-0.0031</v>
+        <v>0.0055</v>
       </c>
       <c r="K69" s="8" t="n">
-        <v>-3.67</v>
+        <v>-0.73</v>
       </c>
       <c r="L69" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:30</t>
         </is>
       </c>
       <c r="M69" s="32" t="inlineStr">
@@ -5273,31 +5273,31 @@
         <v>595.47</v>
       </c>
       <c r="E70" s="31" t="n">
-        <v>1039.69</v>
+        <v>1044.45</v>
       </c>
       <c r="F70" s="31" t="n">
-        <v>39.72</v>
+        <v>44.48</v>
       </c>
       <c r="G70" s="30" t="n">
-        <v>1.746</v>
+        <v>1.754</v>
       </c>
       <c r="H70" s="32" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I70" s="30" t="n">
-        <v>1.7496</v>
+        <v>1.7539</v>
       </c>
       <c r="J70" s="33" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="K70" s="9" t="n">
-        <v>2.14</v>
+        <v>-0.0018</v>
+      </c>
+      <c r="K70" s="8" t="n">
+        <v>-0.06</v>
       </c>
       <c r="L70" s="32" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M70" s="32" t="inlineStr">
@@ -5342,31 +5342,31 @@
         <v>72337.78999999999</v>
       </c>
       <c r="E71" s="37" t="n">
-        <v>67852.85000000001</v>
+        <v>68359.21000000001</v>
       </c>
       <c r="F71" s="37" t="n">
-        <v>1526.33</v>
+        <v>2032.69</v>
       </c>
       <c r="G71" s="36" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.945</v>
       </c>
       <c r="H71" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I71" s="36" t="n">
-        <v>0.9352</v>
+        <v>0.9452</v>
       </c>
       <c r="J71" s="39" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K71" s="8" t="n">
-        <v>-202.55</v>
+        <v>-0.005</v>
+      </c>
+      <c r="K71" s="9" t="n">
+        <v>14.47</v>
       </c>
       <c r="L71" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M71" s="38" t="inlineStr">
@@ -5411,31 +5411,31 @@
         <v>63490</v>
       </c>
       <c r="E72" s="37" t="n">
-        <v>61877.35</v>
+        <v>62759.87</v>
       </c>
       <c r="F72" s="37" t="n">
-        <v>3676.07</v>
+        <v>4558.58</v>
       </c>
       <c r="G72" s="36" t="n">
-        <v>0.9746</v>
+        <v>0.9885</v>
       </c>
       <c r="H72" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I72" s="36" t="n">
-        <v>0.9674</v>
+        <v>0.9886</v>
       </c>
       <c r="J72" s="39" t="n">
-        <v>-0.0074</v>
-      </c>
-      <c r="K72" s="8" t="n">
-        <v>-457.13</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K72" s="9" t="n">
+        <v>6.35</v>
       </c>
       <c r="L72" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M72" s="38" t="inlineStr">
@@ -5480,17 +5480,17 @@
         <v>41627.14</v>
       </c>
       <c r="E73" s="37" t="n">
-        <v>41502.26</v>
+        <v>39837.17</v>
       </c>
       <c r="F73" s="37" t="n">
-        <v>-299.72</v>
+        <v>-1964.8</v>
       </c>
       <c r="G73" s="36" t="n">
-        <v>0.997</v>
+        <v>0.957</v>
       </c>
       <c r="H73" s="38" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I73" s="36" t="n">
@@ -5549,31 +5549,31 @@
         <v>32370.29</v>
       </c>
       <c r="E74" s="37" t="n">
-        <v>38970.59</v>
+        <v>39061.23</v>
       </c>
       <c r="F74" s="37" t="n">
-        <v>6969.32</v>
+        <v>7059.96</v>
       </c>
       <c r="G74" s="36" t="n">
-        <v>1.2039</v>
+        <v>1.2067</v>
       </c>
       <c r="H74" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I74" s="36" t="n">
-        <v>1.204</v>
+        <v>1.2103</v>
       </c>
       <c r="J74" s="39" t="n">
-        <v>0.0001</v>
+        <v>-0.0013</v>
       </c>
       <c r="K74" s="9" t="n">
-        <v>3.24</v>
+        <v>116.53</v>
       </c>
       <c r="L74" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M74" s="38" t="inlineStr">
@@ -5618,31 +5618,31 @@
         <v>41014.88</v>
       </c>
       <c r="E75" s="37" t="n">
-        <v>37323.54</v>
+        <v>38160.24</v>
       </c>
       <c r="F75" s="37" t="n">
-        <v>6763.35</v>
+        <v>7600.06</v>
       </c>
       <c r="G75" s="36" t="n">
-        <v>0.91</v>
+        <v>0.9304</v>
       </c>
       <c r="H75" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I75" s="36" t="n">
-        <v>0.9029</v>
+        <v>0.9306</v>
       </c>
       <c r="J75" s="39" t="n">
-        <v>-0.0078</v>
-      </c>
-      <c r="K75" s="8" t="n">
-        <v>-291.21</v>
+        <v>0.01</v>
+      </c>
+      <c r="K75" s="9" t="n">
+        <v>8.199999999999999</v>
       </c>
       <c r="L75" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M75" s="38" t="inlineStr">
@@ -5687,31 +5687,31 @@
         <v>20086.63</v>
       </c>
       <c r="E76" s="37" t="n">
-        <v>35071.26</v>
+        <v>35231.95</v>
       </c>
       <c r="F76" s="37" t="n">
-        <v>3071.25</v>
+        <v>3231.94</v>
       </c>
       <c r="G76" s="36" t="n">
-        <v>1.746</v>
+        <v>1.754</v>
       </c>
       <c r="H76" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I76" s="36" t="n">
-        <v>1.7496</v>
+        <v>1.7539</v>
       </c>
       <c r="J76" s="39" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="K76" s="9" t="n">
-        <v>72.31</v>
+        <v>-0.0018</v>
+      </c>
+      <c r="K76" s="8" t="n">
+        <v>-2.01</v>
       </c>
       <c r="L76" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M76" s="38" t="inlineStr">
@@ -5756,31 +5756,31 @@
         <v>27031.68</v>
       </c>
       <c r="E77" s="37" t="n">
-        <v>26761.36</v>
+        <v>26812.72</v>
       </c>
       <c r="F77" s="37" t="n">
-        <v>1159.66</v>
+        <v>1211.02</v>
       </c>
       <c r="G77" s="36" t="n">
-        <v>0.99</v>
+        <v>0.9919</v>
       </c>
       <c r="H77" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I77" s="36" t="n">
-        <v>0.988</v>
+        <v>0.9916</v>
       </c>
       <c r="J77" s="39" t="n">
-        <v>-0.002</v>
+        <v>-0.008399999999999999</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>-54.06</v>
+        <v>-8.109999999999999</v>
       </c>
       <c r="L77" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M77" s="38" t="inlineStr">
@@ -5825,31 +5825,31 @@
         <v>14624.61</v>
       </c>
       <c r="E78" s="37" t="n">
-        <v>22434.15</v>
+        <v>22668.15</v>
       </c>
       <c r="F78" s="37" t="n">
-        <v>3233.5</v>
+        <v>3467.5</v>
       </c>
       <c r="G78" s="36" t="n">
-        <v>1.534</v>
+        <v>1.55</v>
       </c>
       <c r="H78" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I78" s="36" t="n">
-        <v>1.5309</v>
+        <v>1.5476</v>
       </c>
       <c r="J78" s="39" t="n">
-        <v>-0.002</v>
+        <v>-0.0054</v>
       </c>
       <c r="K78" s="8" t="n">
-        <v>-45.34</v>
+        <v>-35.1</v>
       </c>
       <c r="L78" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M78" s="38" t="inlineStr">
@@ -5894,31 +5894,31 @@
         <v>16626.05</v>
       </c>
       <c r="E79" s="37" t="n">
-        <v>22007.9</v>
+        <v>22253.97</v>
       </c>
       <c r="F79" s="37" t="n">
-        <v>-693.3099999999999</v>
+        <v>-447.24</v>
       </c>
       <c r="G79" s="36" t="n">
-        <v>1.3237</v>
+        <v>1.3385</v>
       </c>
       <c r="H79" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I79" s="36" t="n">
-        <v>1.3133</v>
+        <v>1.3367</v>
       </c>
       <c r="J79" s="39" t="n">
-        <v>-0.007900000000000001</v>
+        <v>-0.0018</v>
       </c>
       <c r="K79" s="8" t="n">
-        <v>-172.91</v>
+        <v>-29.93</v>
       </c>
       <c r="L79" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 16:00</t>
         </is>
       </c>
       <c r="M79" s="38" t="inlineStr">
@@ -5963,31 +5963,31 @@
         <v>16778.47</v>
       </c>
       <c r="E80" s="37" t="n">
-        <v>21493.22</v>
+        <v>21442.88</v>
       </c>
       <c r="F80" s="37" t="n">
-        <v>2291.94</v>
+        <v>2241.6</v>
       </c>
       <c r="G80" s="36" t="n">
-        <v>1.281</v>
+        <v>1.278</v>
       </c>
       <c r="H80" s="38" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I80" s="36" t="n">
-        <v>1.2405</v>
+        <v>1.2484</v>
       </c>
       <c r="J80" s="39" t="n">
-        <v>-0.0316</v>
+        <v>-0.0123</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>-679.53</v>
+        <v>-496.64</v>
       </c>
       <c r="L80" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M80" s="38" t="inlineStr">
@@ -6032,31 +6032,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E81" s="37" t="n">
-        <v>15914.78</v>
+        <v>16153.03</v>
       </c>
       <c r="F81" s="37" t="n">
-        <v>3114.34</v>
+        <v>3352.59</v>
       </c>
       <c r="G81" s="36" t="n">
-        <v>1.67</v>
+        <v>1.695</v>
       </c>
       <c r="H81" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I81" s="36" t="n">
-        <v>1.6732</v>
+        <v>1.6963</v>
       </c>
       <c r="J81" s="39" t="n">
-        <v>0.0019</v>
+        <v>-0.0075</v>
       </c>
       <c r="K81" s="9" t="n">
-        <v>30.5</v>
+        <v>12.39</v>
       </c>
       <c r="L81" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M81" s="38" t="inlineStr">
@@ -6101,31 +6101,31 @@
         <v>13403.92</v>
       </c>
       <c r="E82" s="37" t="n">
-        <v>7461.96</v>
+        <v>7546.41</v>
       </c>
       <c r="F82" s="37" t="n">
-        <v>1061.59</v>
+        <v>1146.04</v>
       </c>
       <c r="G82" s="36" t="n">
-        <v>0.5567</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H82" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I82" s="36" t="n">
-        <v>0.5586</v>
+        <v>0.5628</v>
       </c>
       <c r="J82" s="39" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K82" s="9" t="n">
-        <v>25.47</v>
+        <v>-0.0124</v>
+      </c>
+      <c r="K82" s="8" t="n">
+        <v>-2.68</v>
       </c>
       <c r="L82" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M82" s="38" t="inlineStr">
@@ -6170,31 +6170,31 @@
         <v>3289.25</v>
       </c>
       <c r="E83" s="37" t="n">
-        <v>6881.77</v>
+        <v>6750.2</v>
       </c>
       <c r="F83" s="37" t="n">
-        <v>481.55</v>
+        <v>349.98</v>
       </c>
       <c r="G83" s="36" t="n">
-        <v>2.0922</v>
+        <v>2.0522</v>
       </c>
       <c r="H83" s="38" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I83" s="36" t="n">
-        <v>2.0895</v>
+        <v>1.9999</v>
       </c>
       <c r="J83" s="39" t="n">
-        <v>-0.0013</v>
+        <v>-0.0005</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>-8.880000000000001</v>
+        <v>-172.03</v>
       </c>
       <c r="L83" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M83" s="38" t="inlineStr">
@@ -6239,31 +6239,31 @@
         <v>37267.45</v>
       </c>
       <c r="E84" s="37" t="n">
-        <v>9167.790000000001</v>
+        <v>9615</v>
       </c>
       <c r="F84" s="37" t="n">
-        <v>-10032.4</v>
+        <v>-9585.190000000001</v>
       </c>
       <c r="G84" s="36" t="n">
-        <v>0.246</v>
+        <v>0.258</v>
       </c>
       <c r="H84" s="38" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I84" s="36" t="n">
-        <v>0.247</v>
+        <v>0.254</v>
       </c>
       <c r="J84" s="39" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="K84" s="9" t="n">
-        <v>37.27</v>
+        <v>-0.0155</v>
+      </c>
+      <c r="K84" s="8" t="n">
+        <v>-149.07</v>
       </c>
       <c r="L84" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:04</t>
         </is>
       </c>
       <c r="M84" s="38" t="inlineStr">
@@ -6308,31 +6308,31 @@
         <v>3299.64</v>
       </c>
       <c r="E85" s="37" t="n">
-        <v>6375.23</v>
+        <v>6491.05</v>
       </c>
       <c r="F85" s="37" t="n">
-        <v>-25.08</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="G85" s="36" t="n">
-        <v>1.9321</v>
+        <v>1.9672</v>
       </c>
       <c r="H85" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I85" s="36" t="n">
-        <v>1.9371</v>
+        <v>1.9653</v>
       </c>
       <c r="J85" s="39" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K85" s="9" t="n">
-        <v>16.5</v>
+        <v>-0.0074</v>
+      </c>
+      <c r="K85" s="8" t="n">
+        <v>-6.27</v>
       </c>
       <c r="L85" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M85" s="38" t="inlineStr">
@@ -6377,31 +6377,31 @@
         <v>8925.34</v>
       </c>
       <c r="E86" s="37" t="n">
-        <v>7042.09</v>
+        <v>7408.03</v>
       </c>
       <c r="F86" s="37" t="n">
-        <v>641.73</v>
+        <v>1007.67</v>
       </c>
       <c r="G86" s="36" t="n">
-        <v>0.789</v>
+        <v>0.83</v>
       </c>
       <c r="H86" s="38" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="I86" s="36" t="n">
-        <v>0.798</v>
+        <v>0.826</v>
       </c>
       <c r="J86" s="39" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="K86" s="9" t="n">
-        <v>80.33</v>
+        <v>-0.0048</v>
+      </c>
+      <c r="K86" s="8" t="n">
+        <v>-35.7</v>
       </c>
       <c r="L86" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M86" s="38" t="inlineStr">
@@ -6446,31 +6446,31 @@
         <v>1553.77</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>2023.01</v>
+        <v>2026.12</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>-183.19</v>
+        <v>-180.08</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>1.302</v>
+        <v>1.304</v>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>1.2968</v>
+        <v>1.3033</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>-0.004</v>
+        <v>-0.0067</v>
       </c>
       <c r="K87" s="8" t="n">
-        <v>-8.08</v>
+        <v>-1.09</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6515,31 +6515,31 @@
         <v>1325.41</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>2005.35</v>
+        <v>2022.58</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>-187.15</v>
+        <v>-169.92</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>1.513</v>
+        <v>1.526</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.5085</v>
+        <v>1.5263</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K88" s="8" t="n">
-        <v>-5.96</v>
+        <v>-0.005</v>
+      </c>
+      <c r="K88" s="9" t="n">
+        <v>0.4</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6584,31 +6584,31 @@
         <v>1797.43</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>1658.67</v>
+        <v>1684.37</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>-32.17</v>
+        <v>-6.47</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>0.9228</v>
+        <v>0.9371</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>0.9254</v>
+        <v>0.9371</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>0.0029</v>
+        <v>-0.0038</v>
       </c>
       <c r="K89" s="9" t="n">
-        <v>4.67</v>
+        <v>0</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6653,31 +6653,31 @@
         <v>1026.71</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>1325.89</v>
+        <v>1343.66</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>-50.21</v>
+        <v>-32.44</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>1.2914</v>
+        <v>1.3087</v>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>1.281</v>
+        <v>1.3088</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>-0.0081</v>
-      </c>
-      <c r="K90" s="8" t="n">
-        <v>-10.68</v>
+        <v>-0.0018</v>
+      </c>
+      <c r="K90" s="9" t="n">
+        <v>0.1</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 16:00</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6722,31 +6722,31 @@
         <v>485.77</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>992.91</v>
+        <v>996.36</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>-45.76</v>
+        <v>-42.31</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>2.044</v>
+        <v>2.0511</v>
       </c>
       <c r="H91" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>2.0341</v>
+        <v>2.0507</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>-0.0048</v>
+        <v>-0.0083</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>-4.81</v>
+        <v>-0.19</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M91" s="6" t="inlineStr">
@@ -6791,31 +6791,31 @@
         <v>528.99</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>935.25</v>
+        <v>941.4400000000001</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>-16.5</v>
+        <v>-10.32</v>
       </c>
       <c r="G92" s="4" t="n">
-        <v>1.768</v>
+        <v>1.7797</v>
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>1.7611</v>
+        <v>1.7797</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>-0.0039</v>
-      </c>
-      <c r="K92" s="8" t="n">
-        <v>-3.65</v>
+        <v>-0.007900000000000001</v>
+      </c>
+      <c r="K92" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M92" s="6" t="inlineStr">
@@ -6860,31 +6860,31 @@
         <v>594.27</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>644.0700000000001</v>
+        <v>643.95</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>-55.39</v>
+        <v>-55.5</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>1.0838</v>
+        <v>1.0836</v>
       </c>
       <c r="H93" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>1.0809</v>
+        <v>1.0836</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>-0.0027</v>
-      </c>
-      <c r="K93" s="8" t="n">
-        <v>-1.72</v>
+        <v>-0.0063</v>
+      </c>
+      <c r="K93" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M93" s="6" t="inlineStr">
@@ -6929,31 +6929,31 @@
         <v>426.97</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>416.12</v>
+        <v>422.06</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>6.75</v>
+        <v>12.68</v>
       </c>
       <c r="G94" s="4" t="n">
-        <v>0.9746</v>
+        <v>0.9885</v>
       </c>
       <c r="H94" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I94" s="4" t="n">
-        <v>0.9674</v>
+        <v>0.9886</v>
       </c>
       <c r="J94" s="7" t="n">
-        <v>-0.0074</v>
-      </c>
-      <c r="K94" s="8" t="n">
-        <v>-3.07</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K94" s="9" t="n">
+        <v>0.04</v>
       </c>
       <c r="L94" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M94" s="6" t="inlineStr">
@@ -6998,17 +6998,17 @@
         <v>378.03</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>409.22</v>
+        <v>406.04</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>-29.22</v>
+        <v>-32.4</v>
       </c>
       <c r="G95" s="4" t="n">
-        <v>1.0825</v>
+        <v>1.0741</v>
       </c>
       <c r="H95" s="6" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I95" s="4" t="n">
@@ -7067,31 +7067,31 @@
         <v>111.78</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>279.45</v>
+        <v>273.86</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>23.26</v>
+        <v>17.67</v>
       </c>
       <c r="G96" s="4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H96" s="6" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I96" s="4" t="n">
-        <v>2.3953</v>
+        <v>2.3613</v>
       </c>
       <c r="J96" s="7" t="n">
-        <v>-0.0419</v>
+        <v>-0.0145</v>
       </c>
       <c r="K96" s="8" t="n">
-        <v>-11.7</v>
+        <v>-9.91</v>
       </c>
       <c r="L96" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M96" s="6" t="inlineStr">
@@ -7136,31 +7136,31 @@
         <v>215.44</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>275.98</v>
+        <v>275.33</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>17.73</v>
+        <v>17.08</v>
       </c>
       <c r="G97" s="4" t="n">
-        <v>1.281</v>
+        <v>1.278</v>
       </c>
       <c r="H97" s="6" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I97" s="4" t="n">
-        <v>1.2405</v>
+        <v>1.2484</v>
       </c>
       <c r="J97" s="7" t="n">
-        <v>-0.0316</v>
+        <v>-0.0123</v>
       </c>
       <c r="K97" s="8" t="n">
-        <v>-8.73</v>
+        <v>-6.38</v>
       </c>
       <c r="L97" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M97" s="6" t="inlineStr">
@@ -7219,17 +7219,17 @@
         </is>
       </c>
       <c r="I98" s="4" t="n">
-        <v>1.2151</v>
+        <v>1.2128</v>
       </c>
       <c r="J98" s="7" t="n">
-        <v>-0.0024</v>
+        <v>-0.0043</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>-0.41</v>
+        <v>-0.74</v>
       </c>
       <c r="L98" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M98" s="6" t="inlineStr">
@@ -7274,31 +7274,31 @@
         <v>140.72</v>
       </c>
       <c r="E99" s="5" t="n">
-        <v>123.92</v>
+        <v>125.23</v>
       </c>
       <c r="F99" s="5" t="n">
-        <v>7.32</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="G99" s="4" t="n">
-        <v>0.8806</v>
+        <v>0.8899</v>
       </c>
       <c r="H99" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I99" s="4" t="n">
-        <v>0.88</v>
+        <v>0.8898</v>
       </c>
       <c r="J99" s="7" t="n">
-        <v>-0.0007</v>
+        <v>-0.0025</v>
       </c>
       <c r="K99" s="8" t="n">
-        <v>-0.08</v>
+        <v>-0.01</v>
       </c>
       <c r="L99" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M99" s="6" t="inlineStr">
@@ -7343,31 +7343,31 @@
         <v>57.97</v>
       </c>
       <c r="E100" s="5" t="n">
-        <v>93.98</v>
+        <v>92</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>-3.51</v>
+        <v>-5.49</v>
       </c>
       <c r="G100" s="4" t="n">
-        <v>1.6211</v>
+        <v>1.587</v>
       </c>
       <c r="H100" s="6" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I100" s="4" t="n">
-        <v>1.5529</v>
+        <v>1.5224</v>
       </c>
       <c r="J100" s="7" t="n">
-        <v>-0.0421</v>
+        <v>-0.0164</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>-3.95</v>
+        <v>-3.74</v>
       </c>
       <c r="L100" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M100" s="6" t="inlineStr">
@@ -7412,31 +7412,31 @@
         <v>25.8</v>
       </c>
       <c r="E101" s="5" t="n">
-        <v>31.75</v>
+        <v>31.8</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>-5.33</v>
+        <v>-5.28</v>
       </c>
       <c r="G101" s="4" t="n">
-        <v>1.2307</v>
+        <v>1.2327</v>
       </c>
       <c r="H101" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I101" s="4" t="n">
-        <v>1.2258</v>
+        <v>1.2325</v>
       </c>
       <c r="J101" s="7" t="n">
-        <v>-0.004</v>
+        <v>-0.0067</v>
       </c>
       <c r="K101" s="8" t="n">
-        <v>-0.13</v>
+        <v>-0.01</v>
       </c>
       <c r="L101" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M101" s="6" t="inlineStr">
@@ -7487,25 +7487,25 @@
         <v>0</v>
       </c>
       <c r="G102" s="4" t="n">
-        <v>0.8527</v>
+        <v>0.8715000000000001</v>
       </c>
       <c r="H102" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I102" s="4" t="n">
-        <v>0.8452</v>
+        <v>0.8716</v>
       </c>
       <c r="J102" s="7" t="n">
-        <v>-0.008800000000000001</v>
+        <v>0.0105</v>
       </c>
       <c r="K102" s="9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L102" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M102" s="6" t="inlineStr">
@@ -7556,25 +7556,25 @@
         <v>0</v>
       </c>
       <c r="G103" s="4" t="n">
-        <v>1.2734</v>
+        <v>1.2736</v>
       </c>
       <c r="H103" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I103" s="4" t="n">
         <v>1.2735</v>
       </c>
       <c r="J103" s="7" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="K103" s="9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L103" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M103" s="6" t="inlineStr">
@@ -7625,25 +7625,25 @@
         <v>-0</v>
       </c>
       <c r="G104" s="4" t="n">
-        <v>0.9112</v>
+        <v>0.9191</v>
       </c>
       <c r="H104" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I104" s="4" t="n">
-        <v>0.9098000000000001</v>
+        <v>0.9164</v>
       </c>
       <c r="J104" s="7" t="n">
-        <v>-0.0015</v>
+        <v>-0.0057</v>
       </c>
       <c r="K104" s="9" t="n">
         <v>-0</v>
       </c>
       <c r="L104" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M104" s="6" t="inlineStr">
@@ -7688,31 +7688,31 @@
         <v>1588.12</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>1938.62</v>
+        <v>1938.78</v>
       </c>
       <c r="F105" s="5" t="n">
-        <v>5.24</v>
+        <v>5.4</v>
       </c>
       <c r="G105" s="4" t="n">
-        <v>1.2207</v>
+        <v>1.2208</v>
       </c>
       <c r="H105" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I105" s="4" t="n">
-        <v>1.2207</v>
+        <v>1.2206</v>
       </c>
       <c r="J105" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" s="9" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K105" s="8" t="n">
+        <v>-0.32</v>
       </c>
       <c r="L105" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M105" s="6" t="inlineStr">
@@ -7757,31 +7757,31 @@
         <v>876.9</v>
       </c>
       <c r="E106" s="5" t="n">
-        <v>950.91</v>
+        <v>952.23</v>
       </c>
       <c r="F106" s="5" t="n">
-        <v>-15.78</v>
+        <v>-14.47</v>
       </c>
       <c r="G106" s="4" t="n">
-        <v>1.0844</v>
+        <v>1.0859</v>
       </c>
       <c r="H106" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I106" s="4" t="n">
-        <v>1.084</v>
+        <v>1.0859</v>
       </c>
       <c r="J106" s="7" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="K106" s="8" t="n">
-        <v>-0.35</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K106" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L106" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M106" s="6" t="inlineStr">
@@ -7826,31 +7826,31 @@
         <v>883.55</v>
       </c>
       <c r="E107" s="5" t="n">
-        <v>946.99</v>
+        <v>948.49</v>
       </c>
       <c r="F107" s="5" t="n">
-        <v>-19.7</v>
+        <v>-18.2</v>
       </c>
       <c r="G107" s="4" t="n">
-        <v>1.0718</v>
+        <v>1.0735</v>
       </c>
       <c r="H107" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I107" s="4" t="n">
-        <v>1.0717</v>
+        <v>1.073</v>
       </c>
       <c r="J107" s="7" t="n">
-        <v>-0.0001</v>
+        <v>-0.0005</v>
       </c>
       <c r="K107" s="8" t="n">
-        <v>-0.09</v>
+        <v>-0.44</v>
       </c>
       <c r="L107" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M107" s="6" t="inlineStr">
@@ -7895,31 +7895,31 @@
         <v>355.34</v>
       </c>
       <c r="E108" s="5" t="n">
-        <v>478.54</v>
+        <v>478.79</v>
       </c>
       <c r="F108" s="5" t="n">
-        <v>-4.8</v>
+        <v>-4.55</v>
       </c>
       <c r="G108" s="4" t="n">
+        <v>1.3474</v>
+      </c>
+      <c r="H108" s="6" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="I108" s="4" t="n">
         <v>1.3467</v>
       </c>
-      <c r="H108" s="6" t="inlineStr">
-        <is>
-          <t>2020-04-01</t>
-        </is>
-      </c>
-      <c r="I108" s="4" t="n">
-        <v>1.3466</v>
-      </c>
       <c r="J108" s="7" t="n">
-        <v>-0.0001</v>
+        <v>-0.0004</v>
       </c>
       <c r="K108" s="8" t="n">
-        <v>-0.04</v>
+        <v>-0.25</v>
       </c>
       <c r="L108" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M108" s="6" t="inlineStr">
@@ -7964,31 +7964,31 @@
         <v>304.75</v>
       </c>
       <c r="E109" s="5" t="n">
-        <v>471.45</v>
+        <v>471.75</v>
       </c>
       <c r="F109" s="5" t="n">
-        <v>-11.89</v>
+        <v>-11.58</v>
       </c>
       <c r="G109" s="4" t="n">
-        <v>1.547</v>
+        <v>1.548</v>
       </c>
       <c r="H109" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I109" s="4" t="n">
-        <v>1.547</v>
+        <v>1.5517</v>
       </c>
       <c r="J109" s="7" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="K109" s="9" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L109" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M109" s="6" t="inlineStr">
@@ -8033,31 +8033,31 @@
         <v>1454.39</v>
       </c>
       <c r="E110" s="5" t="n">
-        <v>1893.62</v>
+        <v>1896.52</v>
       </c>
       <c r="F110" s="5" t="n">
-        <v>-180.2</v>
+        <v>-177.29</v>
       </c>
       <c r="G110" s="4" t="n">
-        <v>1.302</v>
+        <v>1.304</v>
       </c>
       <c r="H110" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I110" s="4" t="n">
-        <v>1.2968</v>
+        <v>1.3033</v>
       </c>
       <c r="J110" s="7" t="n">
-        <v>-0.004</v>
+        <v>-0.0067</v>
       </c>
       <c r="K110" s="8" t="n">
-        <v>-7.56</v>
+        <v>-1.02</v>
       </c>
       <c r="L110" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M110" s="6" t="inlineStr">
@@ -8102,31 +8102,31 @@
         <v>1210.44</v>
       </c>
       <c r="E111" s="5" t="n">
-        <v>1831.4</v>
+        <v>1847.13</v>
       </c>
       <c r="F111" s="5" t="n">
-        <v>-166.8</v>
+        <v>-151.06</v>
       </c>
       <c r="G111" s="4" t="n">
-        <v>1.513</v>
+        <v>1.526</v>
       </c>
       <c r="H111" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I111" s="4" t="n">
-        <v>1.5085</v>
+        <v>1.5263</v>
       </c>
       <c r="J111" s="7" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K111" s="8" t="n">
-        <v>-5.45</v>
+        <v>-0.005</v>
+      </c>
+      <c r="K111" s="9" t="n">
+        <v>0.36</v>
       </c>
       <c r="L111" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M111" s="6" t="inlineStr">
@@ -8171,31 +8171,31 @@
         <v>1697.75</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>1566.68</v>
+        <v>1590.96</v>
       </c>
       <c r="F112" s="5" t="n">
-        <v>-29.37</v>
+        <v>-5.09</v>
       </c>
       <c r="G112" s="4" t="n">
-        <v>0.9228</v>
+        <v>0.9371</v>
       </c>
       <c r="H112" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I112" s="4" t="n">
-        <v>0.9254</v>
+        <v>0.9371</v>
       </c>
       <c r="J112" s="7" t="n">
-        <v>0.0029</v>
+        <v>-0.0038</v>
       </c>
       <c r="K112" s="9" t="n">
-        <v>4.41</v>
+        <v>0</v>
       </c>
       <c r="L112" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M112" s="6" t="inlineStr">
@@ -8240,31 +8240,31 @@
         <v>952.26</v>
       </c>
       <c r="E113" s="5" t="n">
-        <v>1229.75</v>
+        <v>1246.22</v>
       </c>
       <c r="F113" s="5" t="n">
-        <v>-52.28</v>
+        <v>-35.8</v>
       </c>
       <c r="G113" s="4" t="n">
-        <v>1.2914</v>
+        <v>1.3087</v>
       </c>
       <c r="H113" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I113" s="4" t="n">
-        <v>1.281</v>
+        <v>1.3088</v>
       </c>
       <c r="J113" s="7" t="n">
-        <v>-0.0081</v>
-      </c>
-      <c r="K113" s="8" t="n">
-        <v>-9.9</v>
+        <v>-0.0018</v>
+      </c>
+      <c r="K113" s="9" t="n">
+        <v>0.1</v>
       </c>
       <c r="L113" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 16:00</t>
         </is>
       </c>
       <c r="M113" s="6" t="inlineStr">
@@ -8309,31 +8309,31 @@
         <v>456.18</v>
       </c>
       <c r="E114" s="5" t="n">
-        <v>932.4299999999999</v>
+        <v>935.67</v>
       </c>
       <c r="F114" s="5" t="n">
-        <v>-36.77</v>
+        <v>-33.53</v>
       </c>
       <c r="G114" s="4" t="n">
-        <v>2.044</v>
+        <v>2.0511</v>
       </c>
       <c r="H114" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I114" s="4" t="n">
-        <v>2.0341</v>
+        <v>2.0507</v>
       </c>
       <c r="J114" s="7" t="n">
-        <v>-0.0048</v>
+        <v>-0.0083</v>
       </c>
       <c r="K114" s="8" t="n">
-        <v>-4.52</v>
+        <v>-0.18</v>
       </c>
       <c r="L114" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M114" s="6" t="inlineStr">
@@ -8378,31 +8378,31 @@
         <v>492.58</v>
       </c>
       <c r="E115" s="5" t="n">
-        <v>870.88</v>
+        <v>876.64</v>
       </c>
       <c r="F115" s="5" t="n">
-        <v>-14.09</v>
+        <v>-8.32</v>
       </c>
       <c r="G115" s="4" t="n">
-        <v>1.768</v>
+        <v>1.7797</v>
       </c>
       <c r="H115" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I115" s="4" t="n">
-        <v>1.7611</v>
+        <v>1.7797</v>
       </c>
       <c r="J115" s="7" t="n">
-        <v>-0.0039</v>
-      </c>
-      <c r="K115" s="8" t="n">
-        <v>-3.4</v>
+        <v>-0.007900000000000001</v>
+      </c>
+      <c r="K115" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L115" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M115" s="6" t="inlineStr">
@@ -8447,31 +8447,31 @@
         <v>482.97</v>
       </c>
       <c r="E116" s="5" t="n">
-        <v>523.4400000000001</v>
+        <v>523.35</v>
       </c>
       <c r="F116" s="5" t="n">
-        <v>-49.7</v>
+        <v>-49.79</v>
       </c>
       <c r="G116" s="4" t="n">
-        <v>1.0838</v>
+        <v>1.0836</v>
       </c>
       <c r="H116" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I116" s="4" t="n">
-        <v>1.0809</v>
+        <v>1.0836</v>
       </c>
       <c r="J116" s="7" t="n">
-        <v>-0.0027</v>
-      </c>
-      <c r="K116" s="8" t="n">
-        <v>-1.4</v>
+        <v>-0.0063</v>
+      </c>
+      <c r="K116" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L116" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M116" s="6" t="inlineStr">
@@ -8516,17 +8516,17 @@
         <v>353.32</v>
       </c>
       <c r="E117" s="5" t="n">
-        <v>382.47</v>
+        <v>379.5</v>
       </c>
       <c r="F117" s="5" t="n">
-        <v>-29.4</v>
+        <v>-32.36</v>
       </c>
       <c r="G117" s="4" t="n">
-        <v>1.0825</v>
+        <v>1.0741</v>
       </c>
       <c r="H117" s="6" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I117" s="4" t="n">
@@ -8585,31 +8585,31 @@
         <v>390.82</v>
       </c>
       <c r="E118" s="5" t="n">
-        <v>380.89</v>
+        <v>386.33</v>
       </c>
       <c r="F118" s="5" t="n">
-        <v>5.75</v>
+        <v>11.18</v>
       </c>
       <c r="G118" s="4" t="n">
-        <v>0.9746</v>
+        <v>0.9885</v>
       </c>
       <c r="H118" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I118" s="4" t="n">
-        <v>0.9674</v>
+        <v>0.9886</v>
       </c>
       <c r="J118" s="7" t="n">
-        <v>-0.0074</v>
-      </c>
-      <c r="K118" s="8" t="n">
-        <v>-2.81</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K118" s="9" t="n">
+        <v>0.04</v>
       </c>
       <c r="L118" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M118" s="6" t="inlineStr">
@@ -8654,31 +8654,31 @@
         <v>90.23</v>
       </c>
       <c r="E119" s="5" t="n">
-        <v>115.58</v>
+        <v>115.31</v>
       </c>
       <c r="F119" s="5" t="n">
-        <v>5.5</v>
+        <v>5.22</v>
       </c>
       <c r="G119" s="4" t="n">
-        <v>1.281</v>
+        <v>1.278</v>
       </c>
       <c r="H119" s="6" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I119" s="4" t="n">
-        <v>1.2405</v>
+        <v>1.2484</v>
       </c>
       <c r="J119" s="7" t="n">
-        <v>-0.0316</v>
+        <v>-0.0123</v>
       </c>
       <c r="K119" s="8" t="n">
-        <v>-3.65</v>
+        <v>-2.67</v>
       </c>
       <c r="L119" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M119" s="6" t="inlineStr">
@@ -8723,31 +8723,31 @@
         <v>38.03</v>
       </c>
       <c r="E120" s="5" t="n">
-        <v>95.08</v>
+        <v>93.17</v>
       </c>
       <c r="F120" s="5" t="n">
-        <v>8.550000000000001</v>
+        <v>6.64</v>
       </c>
       <c r="G120" s="4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H120" s="6" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I120" s="4" t="n">
-        <v>2.3953</v>
+        <v>2.3613</v>
       </c>
       <c r="J120" s="7" t="n">
-        <v>-0.0419</v>
+        <v>-0.0145</v>
       </c>
       <c r="K120" s="8" t="n">
-        <v>-3.98</v>
+        <v>-3.37</v>
       </c>
       <c r="L120" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M120" s="6" t="inlineStr">
@@ -8792,31 +8792,31 @@
         <v>47.5</v>
       </c>
       <c r="E121" s="5" t="n">
-        <v>77</v>
+        <v>75.38</v>
       </c>
       <c r="F121" s="5" t="n">
-        <v>-5.49</v>
+        <v>-7.11</v>
       </c>
       <c r="G121" s="4" t="n">
-        <v>1.6211</v>
+        <v>1.587</v>
       </c>
       <c r="H121" s="6" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I121" s="4" t="n">
-        <v>1.5529</v>
+        <v>1.5224</v>
       </c>
       <c r="J121" s="7" t="n">
-        <v>-0.0421</v>
+        <v>-0.0164</v>
       </c>
       <c r="K121" s="8" t="n">
-        <v>-3.24</v>
+        <v>-3.07</v>
       </c>
       <c r="L121" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M121" s="6" t="inlineStr">
@@ -8875,17 +8875,17 @@
         </is>
       </c>
       <c r="I122" s="4" t="n">
-        <v>1.2151</v>
+        <v>1.2128</v>
       </c>
       <c r="J122" s="7" t="n">
-        <v>-0.0024</v>
+        <v>-0.0043</v>
       </c>
       <c r="K122" s="8" t="n">
-        <v>-0.18</v>
+        <v>-0.32</v>
       </c>
       <c r="L122" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M122" s="6" t="inlineStr">
@@ -8930,31 +8930,31 @@
         <v>38.25</v>
       </c>
       <c r="E123" s="5" t="n">
-        <v>33.68</v>
+        <v>34.04</v>
       </c>
       <c r="F123" s="5" t="n">
-        <v>0.36</v>
+        <v>0.72</v>
       </c>
       <c r="G123" s="4" t="n">
-        <v>0.8806</v>
+        <v>0.8899</v>
       </c>
       <c r="H123" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I123" s="4" t="n">
-        <v>0.88</v>
+        <v>0.8898</v>
       </c>
       <c r="J123" s="7" t="n">
-        <v>-0.0007</v>
-      </c>
-      <c r="K123" s="8" t="n">
-        <v>-0.02</v>
+        <v>-0.0025</v>
+      </c>
+      <c r="K123" s="9" t="n">
+        <v>-0</v>
       </c>
       <c r="L123" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M123" s="6" t="inlineStr">
@@ -8999,31 +8999,31 @@
         <v>25.8</v>
       </c>
       <c r="E124" s="5" t="n">
-        <v>31.75</v>
+        <v>31.8</v>
       </c>
       <c r="F124" s="5" t="n">
-        <v>-5.33</v>
+        <v>-5.28</v>
       </c>
       <c r="G124" s="4" t="n">
-        <v>1.2307</v>
+        <v>1.2327</v>
       </c>
       <c r="H124" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I124" s="4" t="n">
-        <v>1.2258</v>
+        <v>1.2325</v>
       </c>
       <c r="J124" s="7" t="n">
-        <v>-0.004</v>
+        <v>-0.0067</v>
       </c>
       <c r="K124" s="8" t="n">
-        <v>-0.13</v>
+        <v>-0.01</v>
       </c>
       <c r="L124" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M124" s="6" t="inlineStr">
@@ -9074,25 +9074,25 @@
         <v>0</v>
       </c>
       <c r="G125" s="4" t="n">
-        <v>0.8527</v>
+        <v>0.8715000000000001</v>
       </c>
       <c r="H125" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I125" s="4" t="n">
-        <v>0.8452</v>
+        <v>0.8716</v>
       </c>
       <c r="J125" s="7" t="n">
-        <v>-0.008800000000000001</v>
+        <v>0.0105</v>
       </c>
       <c r="K125" s="9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L125" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M125" s="6" t="inlineStr">
@@ -9143,25 +9143,25 @@
         <v>0</v>
       </c>
       <c r="G126" s="4" t="n">
-        <v>1.2734</v>
+        <v>1.2736</v>
       </c>
       <c r="H126" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I126" s="4" t="n">
         <v>1.2735</v>
       </c>
       <c r="J126" s="7" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="K126" s="9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L126" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M126" s="6" t="inlineStr">
@@ -9212,25 +9212,25 @@
         <v>-0</v>
       </c>
       <c r="G127" s="4" t="n">
-        <v>0.9112</v>
+        <v>0.9191</v>
       </c>
       <c r="H127" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I127" s="4" t="n">
-        <v>0.9098000000000001</v>
+        <v>0.9164</v>
       </c>
       <c r="J127" s="7" t="n">
-        <v>-0.0015</v>
+        <v>-0.0057</v>
       </c>
       <c r="K127" s="9" t="n">
         <v>-0</v>
       </c>
       <c r="L127" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M127" s="6" t="inlineStr">
@@ -9275,31 +9275,31 @@
         <v>274071.1</v>
       </c>
       <c r="E128" s="5" t="n">
-        <v>334558.59</v>
+        <v>334586</v>
       </c>
       <c r="F128" s="5" t="n">
-        <v>1479.98</v>
+        <v>1507.39</v>
       </c>
       <c r="G128" s="4" t="n">
-        <v>1.2207</v>
+        <v>1.2208</v>
       </c>
       <c r="H128" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I128" s="4" t="n">
-        <v>1.2207</v>
+        <v>1.2206</v>
       </c>
       <c r="J128" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" s="9" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K128" s="8" t="n">
+        <v>-54.81</v>
       </c>
       <c r="L128" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M128" s="6" t="inlineStr">
@@ -9344,31 +9344,31 @@
         <v>153211.84</v>
       </c>
       <c r="E129" s="5" t="n">
-        <v>166142.92</v>
+        <v>166372.74</v>
       </c>
       <c r="F129" s="5" t="n">
-        <v>-1884.51</v>
+        <v>-1654.69</v>
       </c>
       <c r="G129" s="4" t="n">
-        <v>1.0844</v>
+        <v>1.0859</v>
       </c>
       <c r="H129" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I129" s="4" t="n">
-        <v>1.084</v>
+        <v>1.0859</v>
       </c>
       <c r="J129" s="7" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="K129" s="8" t="n">
-        <v>-61.28</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K129" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L129" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M129" s="6" t="inlineStr">
@@ -9413,31 +9413,31 @@
         <v>154864.26</v>
       </c>
       <c r="E130" s="5" t="n">
-        <v>165983.51</v>
+        <v>166246.78</v>
       </c>
       <c r="F130" s="5" t="n">
-        <v>-2756.58</v>
+        <v>-2493.31</v>
       </c>
       <c r="G130" s="4" t="n">
-        <v>1.0718</v>
+        <v>1.0735</v>
       </c>
       <c r="H130" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I130" s="4" t="n">
-        <v>1.0717</v>
+        <v>1.073</v>
       </c>
       <c r="J130" s="7" t="n">
-        <v>-0.0001</v>
+        <v>-0.0005</v>
       </c>
       <c r="K130" s="8" t="n">
-        <v>-15.49</v>
+        <v>-77.43000000000001</v>
       </c>
       <c r="L130" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M130" s="6" t="inlineStr">
@@ -9482,31 +9482,31 @@
         <v>61673.29</v>
       </c>
       <c r="E131" s="5" t="n">
-        <v>83055.42</v>
+        <v>83098.59</v>
       </c>
       <c r="F131" s="5" t="n">
-        <v>-542.72</v>
+        <v>-499.55</v>
       </c>
       <c r="G131" s="4" t="n">
+        <v>1.3474</v>
+      </c>
+      <c r="H131" s="6" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="I131" s="4" t="n">
         <v>1.3467</v>
       </c>
-      <c r="H131" s="6" t="inlineStr">
-        <is>
-          <t>2020-04-01</t>
-        </is>
-      </c>
-      <c r="I131" s="4" t="n">
-        <v>1.3466</v>
-      </c>
       <c r="J131" s="7" t="n">
-        <v>-0.0001</v>
+        <v>-0.0004</v>
       </c>
       <c r="K131" s="8" t="n">
-        <v>-6.17</v>
+        <v>-43.17</v>
       </c>
       <c r="L131" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M131" s="6" t="inlineStr">
@@ -9551,31 +9551,31 @@
         <v>53422.76</v>
       </c>
       <c r="E132" s="5" t="n">
-        <v>82645.00999999999</v>
+        <v>82698.42999999999</v>
       </c>
       <c r="F132" s="5" t="n">
-        <v>-1543.92</v>
+        <v>-1490.5</v>
       </c>
       <c r="G132" s="4" t="n">
-        <v>1.547</v>
+        <v>1.548</v>
       </c>
       <c r="H132" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I132" s="4" t="n">
-        <v>1.547</v>
+        <v>1.5517</v>
       </c>
       <c r="J132" s="7" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="K132" s="9" t="n">
-        <v>0</v>
+        <v>197.66</v>
       </c>
       <c r="L132" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M132" s="6" t="inlineStr">
@@ -9626,25 +9626,25 @@
         <v>0</v>
       </c>
       <c r="G133" s="4" t="n">
-        <v>2.1905</v>
+        <v>2.1974</v>
       </c>
       <c r="H133" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I133" s="4" t="n">
-        <v>2.1905</v>
+        <v>2.1994</v>
       </c>
       <c r="J133" s="7" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="K133" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L133" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M133" s="6" t="inlineStr">
@@ -9695,25 +9695,25 @@
         <v>0</v>
       </c>
       <c r="G134" s="4" t="n">
-        <v>1.5783</v>
+        <v>1.5807</v>
       </c>
       <c r="H134" s="6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I134" s="4" t="n">
-        <v>1.577</v>
+        <v>1.5779</v>
       </c>
       <c r="J134" s="7" t="n">
-        <v>-0.0008</v>
+        <v>-0.0013</v>
       </c>
       <c r="K134" s="9" t="n">
         <v>-0</v>
       </c>
       <c r="L134" s="6" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M134" s="6" t="inlineStr">
@@ -9758,31 +9758,31 @@
         <v>9368.450000000001</v>
       </c>
       <c r="E135" s="37" t="n">
-        <v>10311.85</v>
+        <v>10483.3</v>
       </c>
       <c r="F135" s="37" t="n">
-        <v>520.89</v>
+        <v>692.33</v>
       </c>
       <c r="G135" s="36" t="n">
-        <v>1.1007</v>
+        <v>1.119</v>
       </c>
       <c r="H135" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I135" s="36" t="n">
-        <v>1.1038</v>
+        <v>1.1185</v>
       </c>
       <c r="J135" s="39" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K135" s="9" t="n">
-        <v>29.04</v>
+        <v>-0.0075</v>
+      </c>
+      <c r="K135" s="8" t="n">
+        <v>-4.68</v>
       </c>
       <c r="L135" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M135" s="38" t="inlineStr">
@@ -9827,31 +9827,31 @@
         <v>10068.96</v>
       </c>
       <c r="E136" s="37" t="n">
-        <v>9444.68</v>
+        <v>9515.17</v>
       </c>
       <c r="F136" s="37" t="n">
-        <v>244.68</v>
+        <v>315.16</v>
       </c>
       <c r="G136" s="36" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.945</v>
       </c>
       <c r="H136" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I136" s="36" t="n">
-        <v>0.9352</v>
+        <v>0.9452</v>
       </c>
       <c r="J136" s="39" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K136" s="8" t="n">
-        <v>-28.19</v>
+        <v>-0.005</v>
+      </c>
+      <c r="K136" s="9" t="n">
+        <v>2.01</v>
       </c>
       <c r="L136" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M136" s="38" t="inlineStr">
@@ -9896,31 +9896,31 @@
         <v>6096.21</v>
       </c>
       <c r="E137" s="37" t="n">
-        <v>5941.37</v>
+        <v>6026.1</v>
       </c>
       <c r="F137" s="37" t="n">
-        <v>741.3</v>
+        <v>826.04</v>
       </c>
       <c r="G137" s="36" t="n">
-        <v>0.9746</v>
+        <v>0.9885</v>
       </c>
       <c r="H137" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I137" s="36" t="n">
-        <v>0.9674</v>
+        <v>0.9886</v>
       </c>
       <c r="J137" s="39" t="n">
-        <v>-0.0074</v>
-      </c>
-      <c r="K137" s="8" t="n">
-        <v>-43.89</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K137" s="9" t="n">
+        <v>0.61</v>
       </c>
       <c r="L137" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M137" s="38" t="inlineStr">
@@ -9965,31 +9965,31 @@
         <v>6187.76</v>
       </c>
       <c r="E138" s="37" t="n">
-        <v>5630.86</v>
+        <v>5757.09</v>
       </c>
       <c r="F138" s="37" t="n">
-        <v>1344.6</v>
+        <v>1470.83</v>
       </c>
       <c r="G138" s="36" t="n">
-        <v>0.91</v>
+        <v>0.9304</v>
       </c>
       <c r="H138" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I138" s="36" t="n">
-        <v>0.9029</v>
+        <v>0.9306</v>
       </c>
       <c r="J138" s="39" t="n">
-        <v>-0.0078</v>
-      </c>
-      <c r="K138" s="8" t="n">
-        <v>-43.93</v>
+        <v>0.01</v>
+      </c>
+      <c r="K138" s="9" t="n">
+        <v>1.24</v>
       </c>
       <c r="L138" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M138" s="38" t="inlineStr">
@@ -10034,31 +10034,31 @@
         <v>2760.12</v>
       </c>
       <c r="E139" s="37" t="n">
-        <v>4234.02</v>
+        <v>4278.19</v>
       </c>
       <c r="F139" s="37" t="n">
-        <v>634</v>
+        <v>678.16</v>
       </c>
       <c r="G139" s="36" t="n">
-        <v>1.534</v>
+        <v>1.55</v>
       </c>
       <c r="H139" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I139" s="36" t="n">
-        <v>1.5309</v>
+        <v>1.5476</v>
       </c>
       <c r="J139" s="39" t="n">
-        <v>-0.002</v>
+        <v>-0.0054</v>
       </c>
       <c r="K139" s="8" t="n">
-        <v>-8.56</v>
+        <v>-6.62</v>
       </c>
       <c r="L139" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M139" s="38" t="inlineStr">
@@ -10103,31 +10103,31 @@
         <v>1981.84</v>
       </c>
       <c r="E140" s="37" t="n">
-        <v>3460.29</v>
+        <v>3476.15</v>
       </c>
       <c r="F140" s="37" t="n">
-        <v>269.13</v>
+        <v>284.99</v>
       </c>
       <c r="G140" s="36" t="n">
-        <v>1.746</v>
+        <v>1.754</v>
       </c>
       <c r="H140" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I140" s="36" t="n">
-        <v>1.7496</v>
+        <v>1.7539</v>
       </c>
       <c r="J140" s="39" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="K140" s="9" t="n">
-        <v>7.13</v>
+        <v>-0.0018</v>
+      </c>
+      <c r="K140" s="8" t="n">
+        <v>-0.2</v>
       </c>
       <c r="L140" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M140" s="38" t="inlineStr">
@@ -10172,31 +10172,31 @@
         <v>2046.97</v>
       </c>
       <c r="E141" s="37" t="n">
-        <v>3418.44</v>
+        <v>3469.61</v>
       </c>
       <c r="F141" s="37" t="n">
-        <v>706.2</v>
+        <v>757.38</v>
       </c>
       <c r="G141" s="36" t="n">
-        <v>1.67</v>
+        <v>1.695</v>
       </c>
       <c r="H141" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I141" s="36" t="n">
-        <v>1.6732</v>
+        <v>1.6963</v>
       </c>
       <c r="J141" s="39" t="n">
-        <v>0.0019</v>
+        <v>-0.0075</v>
       </c>
       <c r="K141" s="9" t="n">
-        <v>6.55</v>
+        <v>2.66</v>
       </c>
       <c r="L141" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M141" s="38" t="inlineStr">
@@ -10241,31 +10241,31 @@
         <v>5949.77</v>
       </c>
       <c r="E142" s="37" t="n">
-        <v>3312.24</v>
+        <v>3349.72</v>
       </c>
       <c r="F142" s="37" t="n">
-        <v>111.86</v>
+        <v>149.34</v>
       </c>
       <c r="G142" s="36" t="n">
-        <v>0.5567</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H142" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I142" s="36" t="n">
-        <v>0.5586</v>
+        <v>0.5628</v>
       </c>
       <c r="J142" s="39" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K142" s="9" t="n">
-        <v>11.3</v>
+        <v>-0.0124</v>
+      </c>
+      <c r="K142" s="8" t="n">
+        <v>-1.19</v>
       </c>
       <c r="L142" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M142" s="38" t="inlineStr">
@@ -10310,31 +10310,31 @@
         <v>3988.79</v>
       </c>
       <c r="E143" s="37" t="n">
-        <v>3122.42</v>
+        <v>3157.53</v>
       </c>
       <c r="F143" s="37" t="n">
-        <v>296.77</v>
+        <v>331.87</v>
       </c>
       <c r="G143" s="36" t="n">
-        <v>0.7828000000000001</v>
+        <v>0.7916</v>
       </c>
       <c r="H143" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I143" s="36" t="n">
-        <v>0.7838000000000001</v>
+        <v>0.7913</v>
       </c>
       <c r="J143" s="39" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="K143" s="9" t="n">
-        <v>3.99</v>
+        <v>-0.0103</v>
+      </c>
+      <c r="K143" s="8" t="n">
+        <v>-1.2</v>
       </c>
       <c r="L143" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:03</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M143" s="38" t="inlineStr">
@@ -10379,17 +10379,17 @@
         <v>2730.84</v>
       </c>
       <c r="E144" s="37" t="n">
-        <v>2722.65</v>
+        <v>2613.41</v>
       </c>
       <c r="F144" s="37" t="n">
-        <v>-77.56</v>
+        <v>-186.79</v>
       </c>
       <c r="G144" s="36" t="n">
-        <v>0.997</v>
+        <v>0.957</v>
       </c>
       <c r="H144" s="38" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I144" s="36" t="n">
@@ -10448,31 +10448,31 @@
         <v>1630.08</v>
       </c>
       <c r="E145" s="37" t="n">
-        <v>1962.45</v>
+        <v>1967.02</v>
       </c>
       <c r="F145" s="37" t="n">
-        <v>362.37</v>
+        <v>366.93</v>
       </c>
       <c r="G145" s="36" t="n">
-        <v>1.2039</v>
+        <v>1.2067</v>
       </c>
       <c r="H145" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I145" s="36" t="n">
-        <v>1.204</v>
+        <v>1.2103</v>
       </c>
       <c r="J145" s="39" t="n">
-        <v>0.0001</v>
+        <v>-0.0013</v>
       </c>
       <c r="K145" s="9" t="n">
-        <v>0.16</v>
+        <v>5.87</v>
       </c>
       <c r="L145" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M145" s="38" t="inlineStr">
@@ -10517,31 +10517,31 @@
         <v>1407.29</v>
       </c>
       <c r="E146" s="37" t="n">
-        <v>1802.74</v>
+        <v>1798.52</v>
       </c>
       <c r="F146" s="37" t="n">
-        <v>202.65</v>
+        <v>198.43</v>
       </c>
       <c r="G146" s="36" t="n">
-        <v>1.281</v>
+        <v>1.278</v>
       </c>
       <c r="H146" s="38" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I146" s="36" t="n">
-        <v>1.2405</v>
+        <v>1.2484</v>
       </c>
       <c r="J146" s="39" t="n">
-        <v>-0.0316</v>
+        <v>-0.0123</v>
       </c>
       <c r="K146" s="8" t="n">
-        <v>-57</v>
+        <v>-41.66</v>
       </c>
       <c r="L146" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M146" s="38" t="inlineStr">
@@ -10586,31 +10586,31 @@
         <v>1267.08</v>
       </c>
       <c r="E147" s="37" t="n">
-        <v>1254.41</v>
+        <v>1256.82</v>
       </c>
       <c r="F147" s="37" t="n">
-        <v>54.36</v>
+        <v>56.77</v>
       </c>
       <c r="G147" s="36" t="n">
-        <v>0.99</v>
+        <v>0.9919</v>
       </c>
       <c r="H147" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I147" s="36" t="n">
-        <v>0.988</v>
+        <v>0.9916</v>
       </c>
       <c r="J147" s="39" t="n">
-        <v>-0.002</v>
+        <v>-0.008399999999999999</v>
       </c>
       <c r="K147" s="8" t="n">
-        <v>-2.53</v>
+        <v>-0.38</v>
       </c>
       <c r="L147" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M147" s="38" t="inlineStr">
@@ -10655,31 +10655,31 @@
         <v>1546.42</v>
       </c>
       <c r="E148" s="37" t="n">
-        <v>1243.48</v>
+        <v>1265.59</v>
       </c>
       <c r="F148" s="37" t="n">
-        <v>43.45</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="G148" s="36" t="n">
-        <v>0.8041</v>
+        <v>0.8184</v>
       </c>
       <c r="H148" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I148" s="36" t="n">
-        <v>0.8028999999999999</v>
+        <v>0.8186</v>
       </c>
       <c r="J148" s="39" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="K148" s="8" t="n">
-        <v>-1.86</v>
+        <v>-0.0054</v>
+      </c>
+      <c r="K148" s="9" t="n">
+        <v>0.31</v>
       </c>
       <c r="L148" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M148" s="38" t="inlineStr">
@@ -10724,31 +10724,31 @@
         <v>1338.46</v>
       </c>
       <c r="E149" s="37" t="n">
-        <v>1234.19</v>
+        <v>1245.57</v>
       </c>
       <c r="F149" s="37" t="n">
-        <v>34.13</v>
+        <v>45.51</v>
       </c>
       <c r="G149" s="36" t="n">
-        <v>0.9221</v>
+        <v>0.9306</v>
       </c>
       <c r="H149" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I149" s="36" t="n">
-        <v>0.9209000000000001</v>
+        <v>0.9305</v>
       </c>
       <c r="J149" s="39" t="n">
-        <v>-0.0013</v>
+        <v>-0.0039</v>
       </c>
       <c r="K149" s="8" t="n">
-        <v>-1.61</v>
+        <v>-0.13</v>
       </c>
       <c r="L149" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M149" s="38" t="inlineStr">
@@ -10793,31 +10793,31 @@
         <v>889.71</v>
       </c>
       <c r="E150" s="37" t="n">
-        <v>1177.71</v>
+        <v>1190.88</v>
       </c>
       <c r="F150" s="37" t="n">
-        <v>-22.33</v>
+        <v>-9.16</v>
       </c>
       <c r="G150" s="36" t="n">
-        <v>1.3237</v>
+        <v>1.3385</v>
       </c>
       <c r="H150" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I150" s="36" t="n">
-        <v>1.3133</v>
+        <v>1.3367</v>
       </c>
       <c r="J150" s="39" t="n">
-        <v>-0.007900000000000001</v>
+        <v>-0.0018</v>
       </c>
       <c r="K150" s="8" t="n">
-        <v>-9.25</v>
+        <v>-1.6</v>
       </c>
       <c r="L150" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:06</t>
+          <t>2020-04-03 16:00</t>
         </is>
       </c>
       <c r="M150" s="38" t="inlineStr">
@@ -10862,31 +10862,31 @@
         <v>4541.16</v>
       </c>
       <c r="E151" s="37" t="n">
-        <v>1117.13</v>
+        <v>1171.62</v>
       </c>
       <c r="F151" s="37" t="n">
-        <v>-883.26</v>
+        <v>-828.76</v>
       </c>
       <c r="G151" s="36" t="n">
-        <v>0.246</v>
+        <v>0.258</v>
       </c>
       <c r="H151" s="38" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I151" s="36" t="n">
-        <v>0.247</v>
+        <v>0.254</v>
       </c>
       <c r="J151" s="39" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="K151" s="9" t="n">
-        <v>4.54</v>
+        <v>-0.0155</v>
+      </c>
+      <c r="K151" s="8" t="n">
+        <v>-18.16</v>
       </c>
       <c r="L151" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:04</t>
         </is>
       </c>
       <c r="M151" s="38" t="inlineStr">
@@ -10931,31 +10931,31 @@
         <v>413.27</v>
       </c>
       <c r="E152" s="37" t="n">
-        <v>798.48</v>
+        <v>812.98</v>
       </c>
       <c r="F152" s="37" t="n">
-        <v>-1.53</v>
+        <v>12.98</v>
       </c>
       <c r="G152" s="36" t="n">
-        <v>1.9321</v>
+        <v>1.9672</v>
       </c>
       <c r="H152" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I152" s="36" t="n">
-        <v>1.9371</v>
+        <v>1.9653</v>
       </c>
       <c r="J152" s="39" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K152" s="9" t="n">
-        <v>2.07</v>
+        <v>-0.0074</v>
+      </c>
+      <c r="K152" s="8" t="n">
+        <v>-0.79</v>
       </c>
       <c r="L152" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M152" s="38" t="inlineStr">
@@ -11000,31 +11000,31 @@
         <v>380.85</v>
       </c>
       <c r="E153" s="37" t="n">
-        <v>796.8099999999999</v>
+        <v>781.58</v>
       </c>
       <c r="F153" s="37" t="n">
-        <v>-3.2</v>
+        <v>-18.43</v>
       </c>
       <c r="G153" s="36" t="n">
-        <v>2.0922</v>
+        <v>2.0522</v>
       </c>
       <c r="H153" s="38" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="I153" s="36" t="n">
-        <v>2.0895</v>
+        <v>1.9999</v>
       </c>
       <c r="J153" s="39" t="n">
-        <v>-0.0013</v>
+        <v>-0.0005</v>
       </c>
       <c r="K153" s="8" t="n">
-        <v>-1.03</v>
+        <v>-19.92</v>
       </c>
       <c r="L153" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 04:00</t>
+          <t>2020-04-04 04:00</t>
         </is>
       </c>
       <c r="M153" s="38" t="inlineStr">
@@ -11069,31 +11069,31 @@
         <v>496.13</v>
       </c>
       <c r="E154" s="37" t="n">
-        <v>498.11</v>
+        <v>499.95</v>
       </c>
       <c r="F154" s="37" t="n">
-        <v>98.08</v>
+        <v>99.92</v>
       </c>
       <c r="G154" s="36" t="n">
-        <v>1.004</v>
+        <v>1.0077</v>
       </c>
       <c r="H154" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I154" s="36" t="n">
         <v>1.0074</v>
       </c>
       <c r="J154" s="39" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K154" s="9" t="n">
-        <v>1.69</v>
+        <v>-0.0147</v>
+      </c>
+      <c r="K154" s="8" t="n">
+        <v>-0.15</v>
       </c>
       <c r="L154" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M154" s="38" t="inlineStr">
@@ -11138,31 +11138,31 @@
         <v>366.9</v>
       </c>
       <c r="E155" s="37" t="n">
-        <v>483.02</v>
+        <v>486.62</v>
       </c>
       <c r="F155" s="37" t="n">
-        <v>159.75</v>
+        <v>163.34</v>
       </c>
       <c r="G155" s="36" t="n">
-        <v>1.3165</v>
+        <v>1.3263</v>
       </c>
       <c r="H155" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I155" s="36" t="n">
-        <v>1.3125</v>
+        <v>1.3255</v>
       </c>
       <c r="J155" s="39" t="n">
-        <v>-0.0031</v>
+        <v>0.0055</v>
       </c>
       <c r="K155" s="8" t="n">
-        <v>-1.47</v>
+        <v>-0.29</v>
       </c>
       <c r="L155" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:04</t>
+          <t>2020-04-03 15:30</t>
         </is>
       </c>
       <c r="M155" s="38" t="inlineStr">
@@ -11207,31 +11207,31 @@
         <v>325.61</v>
       </c>
       <c r="E156" s="37" t="n">
-        <v>401.74</v>
+        <v>405.68</v>
       </c>
       <c r="F156" s="37" t="n">
-        <v>1.73</v>
+        <v>5.67</v>
       </c>
       <c r="G156" s="36" t="n">
-        <v>1.2338</v>
+        <v>1.2459</v>
       </c>
       <c r="H156" s="38" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="I156" s="36" t="n">
-        <v>1.2319</v>
+        <v>1.246</v>
       </c>
       <c r="J156" s="39" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="K156" s="8" t="n">
-        <v>-0.62</v>
+        <v>-0.0054</v>
+      </c>
+      <c r="K156" s="9" t="n">
+        <v>0.03</v>
       </c>
       <c r="L156" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:05</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M156" s="38" t="inlineStr">
@@ -11276,31 +11276,31 @@
         <v>557.83</v>
       </c>
       <c r="E157" s="37" t="n">
-        <v>440.13</v>
+        <v>463</v>
       </c>
       <c r="F157" s="37" t="n">
-        <v>40.11</v>
+        <v>62.98</v>
       </c>
       <c r="G157" s="36" t="n">
-        <v>0.789</v>
+        <v>0.83</v>
       </c>
       <c r="H157" s="38" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="I157" s="36" t="n">
-        <v>0.798</v>
+        <v>0.826</v>
       </c>
       <c r="J157" s="39" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="K157" s="9" t="n">
-        <v>5.02</v>
+        <v>-0.0048</v>
+      </c>
+      <c r="K157" s="8" t="n">
+        <v>-2.23</v>
       </c>
       <c r="L157" s="38" t="inlineStr">
         <is>
-          <t>2020-04-02 10:07</t>
+          <t>2020-04-03 15:00</t>
         </is>
       </c>
       <c r="M157" s="38" t="inlineStr">

--- a/scripts/output/202004/全家/全家整体收益估算.xlsx
+++ b/scripts/output/202004/全家/全家整体收益估算.xlsx
@@ -575,37 +575,37 @@
         <v>519671</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.4209</v>
+        <v>1.4188</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>3980.9</v>
+        <v>4063.69</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>5230.9</v>
+        <v>5351.88</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-425.56</v>
+        <v>-413.68</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.314</v>
+        <v>1.317</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.3135</v>
+        <v>1.3162</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0011</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-1.99</v>
+        <v>-3.25</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -644,37 +644,37 @@
         <v>90010</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.6502</v>
+        <v>1.6481</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>3303.75</v>
+        <v>3368.21</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>5074.56</v>
+        <v>5193.78</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-377.29</v>
+        <v>-357.37</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.536</v>
+        <v>1.542</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.5362</v>
+        <v>1.5414</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0025</v>
-      </c>
-      <c r="K3" s="9" t="n">
-        <v>0.66</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>-2.02</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -719,31 +719,31 @@
         <v>4586.65</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4381.17</v>
+        <v>4496.75</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68.34</v>
+        <v>183.92</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.9552</v>
+        <v>0.9804</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9553</v>
+        <v>0.9802999999999999</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="n">
-        <v>0.46</v>
+        <v>0.0105</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>-0.46</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -788,31 +788,31 @@
         <v>2551.86</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3487.37</v>
+        <v>3472.06</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67.37</v>
+        <v>52.06</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.3666</v>
+        <v>1.3606</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.3855</v>
+        <v>1.3508</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>48.23</v>
+        <v>-0.0054</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>-25.01</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2020-04-09 16:00</t>
+          <t>2020-04-16 16:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -857,31 +857,31 @@
         <v>1220.14</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2540.09</v>
+        <v>2543.87</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-61.86</v>
+        <v>-58.08</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>2.0818</v>
+        <v>2.0849</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.082</v>
+        <v>2.0847</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>0.24</v>
+        <v>-0.0035</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>-0.24</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -926,31 +926,31 @@
         <v>1363.37</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2455.29</v>
+        <v>2464.97</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3</v>
+        <v>12.68</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>1.8009</v>
+        <v>1.808</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>1.8009</v>
+        <v>1.8079</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0008</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>0</v>
+        <v>-0.0031</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>-0.14</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -989,37 +989,37 @@
         <v>1594</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1.1759</v>
+        <v>1.1705</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1535.38</v>
+        <v>1629.81</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1660.51</v>
+        <v>1768.34</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-144.94</v>
+        <v>-139.35</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.0815</v>
+        <v>1.085</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.0815</v>
+        <v>1.0849</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0068</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>0</v>
+        <v>-0.0026</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>-0.16</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,64 +1051,64 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>易方达中概互联50ETF联接人民币A</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>968</v>
+        <v>6327</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.9589</v>
+        <v>1.1593</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1067.42</v>
+        <v>974.46</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1071.69</v>
+        <v>1099.58</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>48.14</v>
+        <v>-30.11</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1.004</v>
+        <v>1.1284</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>1.0041</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0063</v>
+        <v>0</v>
       </c>
       <c r="K9" s="9" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N9" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O9" s="6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P9" s="6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q9" s="6" t="inlineStr">
@@ -1120,64 +1120,64 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>易方达中概互联50ETF联接人民币A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>6327</v>
+        <v>968</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1.1619</v>
+        <v>0.9589</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>952.1799999999999</v>
+        <v>1067.42</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1043.02</v>
+        <v>1095.49</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-63.32</v>
+        <v>71.94</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1.0954</v>
+        <v>1.0263</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0</v>
+        <v>1.0262</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>0</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>-0.11</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N10" s="6" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O10" s="6" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P10" s="6" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q10" s="6" t="inlineStr">
@@ -1196,37 +1196,37 @@
         <v>164906</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>1.1985</v>
+        <v>1.217</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>549.2</v>
+        <v>597.96</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>715.61</v>
+        <v>800.0700000000001</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>57.39</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.303</v>
+        <v>1.338</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.2941</v>
+        <v>1.3313</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0091</v>
+        <v>0.001</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-4.89</v>
+        <v>-4.01</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1271,31 +1271,31 @@
         <v>253.87</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>663.11</v>
+        <v>690.78</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>80.73</v>
+        <v>108.4</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>2.612</v>
+        <v>2.721</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>2.6309</v>
+        <v>2.7639</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0045</v>
+        <v>0.0158</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>4.8</v>
+        <v>10.89</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1340,31 +1340,31 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>311.13</v>
+        <v>311.37</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.13</v>
+        <v>-1.88</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1.255</v>
+        <v>1.256</v>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.2525</v>
+        <v>1.257</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>-0.002</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>-0.62</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>0.25</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1396,64 +1396,64 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>招商中证白酒指数</t>
+          <t>易方达标普信息科技</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>161725</v>
+        <v>161128</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>0.8312</v>
+        <v>1.7056</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>300.61</v>
+        <v>164.83</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>278.91</v>
+        <v>287.02</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29.04</v>
+        <v>5.88</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>0.9278</v>
+        <v>1.7413</v>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I14" s="4" t="n">
-        <v>0.9278999999999999</v>
+        <v>1.7436</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0013</v>
       </c>
       <c r="K14" s="9" t="n">
-        <v>0.03</v>
+        <v>0.38</v>
       </c>
       <c r="L14" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="N14" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="O14" s="6" t="inlineStr">
         <is>
-          <t>全指消费</t>
+          <t>信息科技</t>
         </is>
       </c>
       <c r="P14" s="6" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>315</t>
         </is>
       </c>
       <c r="Q14" s="6" t="inlineStr">
@@ -1465,64 +1465,64 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>易方达标普信息科技</t>
+          <t>招商中证白酒指数</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>161128</v>
+        <v>161725</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1.6977</v>
+        <v>0.8312</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>150.78</v>
+        <v>300.61</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>257</v>
+        <v>279.27</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.03</v>
+        <v>29.4</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>1.7045</v>
+        <v>0.929</v>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>1.688</v>
+        <v>0.9291</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>-0.0121</v>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>-2.49</v>
+        <v>-0.0095</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>0.03</v>
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M15" s="6" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N15" s="6" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O15" s="6" t="inlineStr">
         <is>
-          <t>信息科技</t>
+          <t>全指消费</t>
         </is>
       </c>
       <c r="P15" s="6" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>148</t>
         </is>
       </c>
       <c r="Q15" s="6" t="inlineStr">
@@ -1541,37 +1541,37 @@
         <v>110003</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>1.7006</v>
+        <v>1.7014</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>64.27</v>
+        <v>128.92</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>109.23</v>
+        <v>220.87</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>1.6995</v>
+        <v>1.7132</v>
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I16" s="4" t="n">
-        <v>1.6999</v>
+        <v>1.7184</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>-0.0037</v>
+        <v>0.0013</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>0.03</v>
+        <v>0.67</v>
       </c>
       <c r="L16" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M16" s="6" t="inlineStr">
@@ -1616,31 +1616,31 @@
         <v>64.5</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>80.11</v>
+        <v>80.29000000000001</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-12.6</v>
+        <v>-12.42</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>1.242</v>
+        <v>1.2448</v>
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I17" s="4" t="n">
-        <v>1.242</v>
+        <v>1.2444</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>-0.0011</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>0</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>-0.03</v>
       </c>
       <c r="L17" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M17" s="6" t="inlineStr">
@@ -1691,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>0.9172</v>
+        <v>0.9562</v>
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I18" s="4" t="n">
-        <v>0.9172</v>
+        <v>0.9557</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>0.0104</v>
+        <v>0.0146</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L18" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M18" s="6" t="inlineStr">
@@ -1760,15 +1760,15 @@
         <v>0</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>1.2776</v>
+        <v>1.2781</v>
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>1.2777</v>
+        <v>1.2782</v>
       </c>
       <c r="J19" s="7" t="n">
         <v>0.0002</v>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="L19" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M19" s="6" t="inlineStr">
@@ -1829,25 +1829,25 @@
         <v>-0</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>0.9263</v>
+        <v>0.929</v>
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I20" s="4" t="n">
-        <v>0.9238</v>
+        <v>0.9335</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>-0.0047</v>
+        <v>0.0029</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L20" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M20" s="6" t="inlineStr">
@@ -1892,31 +1892,31 @@
         <v>38345.9</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>46916.21</v>
+        <v>46954.55</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>444.81</v>
+        <v>483.16</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>1.2235</v>
+        <v>1.2245</v>
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I21" s="4" t="n">
-        <v>1.223</v>
+        <v>1.2243</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>-0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-19.17</v>
+        <v>-7.67</v>
       </c>
       <c r="L21" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M21" s="6" t="inlineStr">
@@ -1961,31 +1961,31 @@
         <v>29071.68</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31411.95</v>
+        <v>31528.24</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>543.64</v>
+        <v>659.9299999999999</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>1.0805</v>
+        <v>1.0845</v>
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I22" s="4" t="n">
-        <v>1.0782</v>
+        <v>1.0856</v>
       </c>
       <c r="J22" s="7" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="K22" s="8" t="n">
-        <v>-66.86</v>
+        <v>0.0022</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>31.98</v>
       </c>
       <c r="L22" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M22" s="6" t="inlineStr">
@@ -2030,31 +2030,31 @@
         <v>10080.25</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15795.75</v>
+        <v>15916.71</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>135.08</v>
+        <v>256.04</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>1.567</v>
+        <v>1.579</v>
       </c>
       <c r="H23" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I23" s="4" t="n">
-        <v>1.5676</v>
+        <v>1.5739</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>-0.0009</v>
-      </c>
-      <c r="K23" s="9" t="n">
-        <v>6.05</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>-51.41</v>
       </c>
       <c r="L23" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M23" s="6" t="inlineStr">
@@ -2099,31 +2099,31 @@
         <v>11580.99</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15740.88</v>
+        <v>15769.83</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>177.19</v>
+        <v>206.14</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>1.3592</v>
+        <v>1.3617</v>
       </c>
       <c r="H24" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I24" s="4" t="n">
-        <v>1.3585</v>
+        <v>1.3614</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>-8.109999999999999</v>
+        <v>-3.47</v>
       </c>
       <c r="L24" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M24" s="6" t="inlineStr">
@@ -2155,44 +2155,44 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>鹏扬泓利债券C</t>
+          <t>南方宝元债券C</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>6060</v>
+        <v>6585</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>1.0843</v>
+        <v>2.2219</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>14369.85</v>
+        <v>7072.09</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15684.69</v>
+        <v>15729.04</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>103.46</v>
+        <v>15.56</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>1.0915</v>
+        <v>2.2241</v>
       </c>
       <c r="H25" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I25" s="4" t="n">
-        <v>1.0921</v>
+        <v>2.2233</v>
       </c>
       <c r="J25" s="7" t="n">
-        <v>-0.0009</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <v>8.619999999999999</v>
+        <v>0.0004</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>-5.66</v>
       </c>
       <c r="L25" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M25" s="6" t="inlineStr">
@@ -2207,12 +2207,12 @@
       </c>
       <c r="O25" s="6" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>偏股</t>
         </is>
       </c>
       <c r="P25" s="6" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Q25" s="6" t="inlineStr">
@@ -2224,44 +2224,44 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>南方宝元债券C</t>
+          <t>鹏扬泓利债券C</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>6585</v>
+        <v>6060</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>2.2219</v>
+        <v>1.0843</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>7072.09</v>
+        <v>14369.85</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15654.07</v>
+        <v>15722.05</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-59.41</v>
+        <v>140.82</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>2.2135</v>
+        <v>1.0941</v>
       </c>
       <c r="H26" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I26" s="4" t="n">
-        <v>2.2166</v>
+        <v>1.0939</v>
       </c>
       <c r="J26" s="7" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K26" s="9" t="n">
-        <v>21.92</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>-2.87</v>
       </c>
       <c r="L26" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M26" s="6" t="inlineStr">
@@ -2276,12 +2276,12 @@
       </c>
       <c r="O26" s="6" t="inlineStr">
         <is>
-          <t>偏股</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="P26" s="6" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>412</t>
         </is>
       </c>
       <c r="Q26" s="6" t="inlineStr">
@@ -2306,31 +2306,31 @@
         <v>9821.860000000001</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15625.6</v>
+        <v>15712.03</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-22.59</v>
+        <v>63.84</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>1.5909</v>
+        <v>1.5997</v>
       </c>
       <c r="H27" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I27" s="4" t="n">
-        <v>1.5895</v>
+        <v>1.5969</v>
       </c>
       <c r="J27" s="7" t="n">
-        <v>-0.0005</v>
+        <v>0.0002</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-13.75</v>
+        <v>-27.5</v>
       </c>
       <c r="L27" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M27" s="6" t="inlineStr">
@@ -2375,31 +2375,31 @@
         <v>16731.88</v>
       </c>
       <c r="E28" s="13" t="n">
-        <v>9354.790000000001</v>
+        <v>9654.290000000001</v>
       </c>
       <c r="F28" s="13" t="n">
-        <v>-2645.31</v>
+        <v>-2345.81</v>
       </c>
       <c r="G28" s="12" t="n">
-        <v>0.5591</v>
+        <v>0.577</v>
       </c>
       <c r="H28" s="14" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I28" s="12" t="n">
-        <v>0.5591</v>
+        <v>0.5770999999999999</v>
       </c>
       <c r="J28" s="15" t="n">
-        <v>-0.0137</v>
+        <v>0.0086</v>
       </c>
       <c r="K28" s="9" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M28" s="14" t="inlineStr">
@@ -2444,31 +2444,31 @@
         <v>13896</v>
       </c>
       <c r="E29" s="19" t="n">
-        <v>10797.19</v>
+        <v>10741.61</v>
       </c>
       <c r="F29" s="19" t="n">
-        <v>2348.42</v>
+        <v>2292.84</v>
       </c>
       <c r="G29" s="18" t="n">
-        <v>0.777</v>
+        <v>0.773</v>
       </c>
       <c r="H29" s="20" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I29" s="18" t="n">
-        <v>0.783</v>
+        <v>0.766</v>
       </c>
       <c r="J29" s="21" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="K29" s="9" t="n">
-        <v>83.38</v>
+        <v>-0.0091</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>-97.27</v>
       </c>
       <c r="L29" s="20" t="inlineStr">
         <is>
-          <t>2020-04-13 15:04</t>
+          <t>2020-04-16 15:04</t>
         </is>
       </c>
       <c r="M29" s="20" t="inlineStr">
@@ -2513,21 +2513,21 @@
         <v>3000</v>
       </c>
       <c r="E30" s="19" t="n">
-        <v>2817</v>
+        <v>2829</v>
       </c>
       <c r="F30" s="19" t="n">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="G30" s="18" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="H30" s="20" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I30" s="18" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J30" s="21" t="n">
         <v>-0.0032</v>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="L30" s="20" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M30" s="20" t="inlineStr">
@@ -2582,31 +2582,31 @@
         <v>9600</v>
       </c>
       <c r="E31" s="19" t="n">
-        <v>12921.6</v>
+        <v>12950.4</v>
       </c>
       <c r="F31" s="19" t="n">
-        <v>422.4</v>
+        <v>451.2</v>
       </c>
       <c r="G31" s="18" t="n">
-        <v>1.346</v>
+        <v>1.349</v>
       </c>
       <c r="H31" s="20" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I31" s="18" t="n">
         <v>1.344</v>
       </c>
       <c r="J31" s="21" t="n">
-        <v>-0.0015</v>
+        <v>-0.0037</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>-19.2</v>
+        <v>-48</v>
       </c>
       <c r="L31" s="20" t="inlineStr">
         <is>
-          <t>2020-04-13 15:04</t>
+          <t>2020-04-16 15:04</t>
         </is>
       </c>
       <c r="M31" s="20" t="inlineStr">
@@ -2651,31 +2651,31 @@
         <v>12000</v>
       </c>
       <c r="E32" s="19" t="n">
-        <v>11076</v>
+        <v>11352</v>
       </c>
       <c r="F32" s="19" t="n">
-        <v>1092</v>
+        <v>1368</v>
       </c>
       <c r="G32" s="18" t="n">
-        <v>0.923</v>
+        <v>0.946</v>
       </c>
       <c r="H32" s="20" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I32" s="18" t="n">
-        <v>0.916</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>-0.0076</v>
+        <v>-0.0095</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>-84</v>
+        <v>-108</v>
       </c>
       <c r="L32" s="20" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M32" s="20" t="inlineStr">
@@ -2720,31 +2720,31 @@
         <v>3300</v>
       </c>
       <c r="E33" s="19" t="n">
-        <v>2488.2</v>
+        <v>2511.3</v>
       </c>
       <c r="F33" s="19" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="G33" s="18" t="n">
-        <v>0.754</v>
+        <v>0.761</v>
       </c>
       <c r="H33" s="20" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I33" s="18" t="n">
-        <v>0.743</v>
+        <v>0.767</v>
       </c>
       <c r="J33" s="21" t="n">
-        <v>-0.0146</v>
-      </c>
-      <c r="K33" s="8" t="n">
-        <v>-36.3</v>
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>19.8</v>
       </c>
       <c r="L33" s="20" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M33" s="20" t="inlineStr">
@@ -2789,31 +2789,31 @@
         <v>3100</v>
       </c>
       <c r="E34" s="19" t="n">
-        <v>2504.8</v>
+        <v>2520.3</v>
       </c>
       <c r="F34" s="19" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="G34" s="18" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H34" s="20" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I34" s="18" t="n">
-        <v>0.788</v>
+        <v>0.825</v>
       </c>
       <c r="J34" s="21" t="n">
-        <v>-0.0248</v>
-      </c>
-      <c r="K34" s="8" t="n">
-        <v>-62</v>
+        <v>0.0148</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>37.2</v>
       </c>
       <c r="L34" s="20" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M34" s="20" t="inlineStr">
@@ -2858,31 +2858,31 @@
         <v>2700</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>7392.6</v>
+        <v>7427.7</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>1206.9</v>
+        <v>1242</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>2.738</v>
+        <v>2.751</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>2.726</v>
+        <v>2.753</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>-0.0044</v>
-      </c>
-      <c r="K35" s="8" t="n">
-        <v>-32.4</v>
+        <v>0.0007</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>5.4</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
@@ -2927,31 +2927,31 @@
         <v>9100</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>34252.4</v>
+        <v>34425.3</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>3448.9</v>
+        <v>3621.8</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>3.764</v>
+        <v>3.783</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>3.743</v>
+        <v>3.785</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0056</v>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>-191.1</v>
+        <v>0.0005</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>18.2</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2996,31 +2996,31 @@
         <v>37600</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>212515.2</v>
+        <v>214432.8</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>2669.6</v>
+        <v>4587.2</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>5.652</v>
+        <v>5.703</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>5.594</v>
+        <v>5.748</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.0103</v>
-      </c>
-      <c r="K37" s="8" t="n">
-        <v>-2180.8</v>
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>1692</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3065,31 +3065,31 @@
         <v>33800</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>25485.2</v>
+        <v>25721.8</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>-4157.4</v>
+        <v>-3920.8</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>0.754</v>
+        <v>0.761</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>0.743</v>
+        <v>0.767</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.0146</v>
-      </c>
-      <c r="K38" s="8" t="n">
-        <v>-371.8</v>
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>202.8</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3134,31 +3134,31 @@
         <v>32700</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>30705.3</v>
+        <v>30868.8</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>5101.2</v>
+        <v>5264.7</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.929</v>
+        <v>0.952</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0106</v>
-      </c>
-      <c r="K39" s="8" t="n">
-        <v>-327</v>
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>261.6</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3203,31 +3203,31 @@
         <v>34100</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>27552.8</v>
+        <v>27723.3</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-2080.1</v>
+        <v>-1909.6</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.788</v>
+        <v>0.825</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.0248</v>
-      </c>
-      <c r="K40" s="8" t="n">
-        <v>-682</v>
+        <v>0.0148</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>409.2</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3272,31 +3272,31 @@
         <v>2300</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>8443.299999999999</v>
+        <v>8514.6</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>3224.6</v>
+        <v>3295.9</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>3.671</v>
+        <v>3.702</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>3.67</v>
+        <v>3.73</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0003</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>-2.3</v>
+        <v>0.0076</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>64.40000000000001</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3341,31 +3341,31 @@
         <v>9600</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>15072</v>
+        <v>15456</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>3859.2</v>
+        <v>4243.2</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.578</v>
+        <v>1.626</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>0.0051</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="K42" s="9" t="n">
-        <v>76.8</v>
+        <v>153.6</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2020-04-13 15:04</t>
+          <t>2020-04-16 15:04</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3410,31 +3410,31 @@
         <v>4157.52</v>
       </c>
       <c r="E43" s="31" t="n">
-        <v>8238.540000000001</v>
+        <v>8485.91</v>
       </c>
       <c r="F43" s="31" t="n">
-        <v>234.48</v>
+        <v>481.86</v>
       </c>
       <c r="G43" s="30" t="n">
-        <v>1.9816</v>
+        <v>2.0411</v>
       </c>
       <c r="H43" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I43" s="30" t="n">
-        <v>1.9858</v>
+        <v>2.0369</v>
       </c>
       <c r="J43" s="33" t="n">
-        <v>-0.0072</v>
-      </c>
-      <c r="K43" s="9" t="n">
-        <v>17.46</v>
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="K43" s="8" t="n">
+        <v>-17.46</v>
       </c>
       <c r="L43" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M43" s="32" t="inlineStr">
@@ -3479,31 +3479,31 @@
         <v>9722</v>
       </c>
       <c r="E44" s="31" t="n">
-        <v>5435.57</v>
+        <v>5609.59</v>
       </c>
       <c r="F44" s="31" t="n">
-        <v>99.16</v>
+        <v>273.19</v>
       </c>
       <c r="G44" s="30" t="n">
-        <v>0.5591</v>
+        <v>0.577</v>
       </c>
       <c r="H44" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I44" s="30" t="n">
-        <v>0.5591</v>
+        <v>0.5770999999999999</v>
       </c>
       <c r="J44" s="33" t="n">
-        <v>-0.0137</v>
+        <v>0.0086</v>
       </c>
       <c r="K44" s="9" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="L44" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M44" s="32" t="inlineStr">
@@ -3548,31 +3548,31 @@
         <v>4943.96</v>
       </c>
       <c r="E45" s="31" t="n">
-        <v>4963.74</v>
+        <v>5073.99</v>
       </c>
       <c r="F45" s="31" t="n">
-        <v>294.66</v>
+        <v>404.91</v>
       </c>
       <c r="G45" s="30" t="n">
-        <v>1.004</v>
+        <v>1.0263</v>
       </c>
       <c r="H45" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I45" s="30" t="n">
-        <v>1.0041</v>
+        <v>1.0262</v>
       </c>
       <c r="J45" s="33" t="n">
-        <v>-0.0063</v>
-      </c>
-      <c r="K45" s="9" t="n">
-        <v>0.49</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>-0.49</v>
       </c>
       <c r="L45" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M45" s="32" t="inlineStr">
@@ -3617,31 +3617,31 @@
         <v>7379.54</v>
       </c>
       <c r="E46" s="31" t="n">
-        <v>4223.31</v>
+        <v>4338.43</v>
       </c>
       <c r="F46" s="31" t="n">
-        <v>221.39</v>
+        <v>336.51</v>
       </c>
       <c r="G46" s="30" t="n">
-        <v>0.5723</v>
+        <v>0.5879</v>
       </c>
       <c r="H46" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>0.5722</v>
+        <v>0.5879</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>-0.0072</v>
-      </c>
-      <c r="K46" s="8" t="n">
-        <v>-0.74</v>
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3686,31 +3686,31 @@
         <v>4074.72</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>3875.06</v>
+        <v>3895.43</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>-127.13</v>
+        <v>-106.76</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>0.951</v>
+        <v>0.956</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>0.9506</v>
+        <v>0.9552</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>-0.0025</v>
+        <v>-0.0029</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>-1.63</v>
+        <v>-3.26</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3755,31 +3755,31 @@
         <v>4550.55</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>3565.36</v>
+        <v>3729.63</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>230.26</v>
+        <v>394.53</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>0.7835</v>
+        <v>0.8196</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>0.7828000000000001</v>
+        <v>0.8198</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0242</v>
-      </c>
-      <c r="K48" s="8" t="n">
-        <v>-3.19</v>
+        <v>0.0143</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>0.91</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3824,31 +3824,31 @@
         <v>809.28</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>788.16</v>
+        <v>810.01</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>121.15</v>
+        <v>143</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>0.9739</v>
+        <v>1.0009</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.9742</v>
+        <v>1.0011</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0063</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="K49" s="9" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3893,31 +3893,31 @@
         <v>611.53</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>607.86</v>
+        <v>613.4299999999999</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>-59.13</v>
+        <v>-53.57</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>0.994</v>
+        <v>1.0031</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>0.9938</v>
+        <v>1.0029</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0062</v>
+        <v>0.0015</v>
       </c>
       <c r="K50" s="8" t="n">
         <v>-0.12</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3962,31 +3962,31 @@
         <v>473.85</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>480.39</v>
+        <v>486.36</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>13.5</v>
+        <v>19.48</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>1.0138</v>
+        <v>1.0264</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>1.0138</v>
+        <v>1.0372</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>-0.0067</v>
+        <v>0.0105</v>
       </c>
       <c r="K51" s="9" t="n">
-        <v>0</v>
+        <v>5.12</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4037,25 +4037,25 @@
         <v>0</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.9597</v>
+        <v>2.0403</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.9594</v>
+        <v>2.0406</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.013</v>
+        <v>0.0148</v>
       </c>
       <c r="K52" s="9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.0569</v>
+        <v>1.1009</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.0573</v>
+        <v>1.1013</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.013</v>
+        <v>0.0148</v>
       </c>
       <c r="K53" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4169,17 +4169,17 @@
         <v>4147.87</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>4309.64</v>
+        <v>4210.09</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>307.77</v>
+        <v>208.22</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.039</v>
+        <v>1.015</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
@@ -4238,31 +4238,31 @@
         <v>342.8</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>768.87</v>
+        <v>765.85</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>101.88</v>
+        <v>98.86</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>2.2429</v>
+        <v>2.2341</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>2.2421</v>
+        <v>2.2828</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="K55" s="8" t="n">
-        <v>-0.27</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="9" t="n">
+        <v>16.69</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4307,31 +4307,31 @@
         <v>1483.88</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>2055.62</v>
+        <v>2036.92</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>54.61</v>
+        <v>35.91</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.3853</v>
+        <v>1.3727</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.4034</v>
+        <v>1.3669</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="K56" s="9" t="n">
-        <v>26.86</v>
+        <v>-0.0055</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>-8.609999999999999</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2020-04-09 16:00</t>
+          <t>2020-04-16 16:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4376,31 +4376,31 @@
         <v>576.8</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>751.5700000000001</v>
+        <v>771.76</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>84.56</v>
+        <v>104.75</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.303</v>
+        <v>1.338</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.2941</v>
+        <v>1.3313</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0091</v>
+        <v>0.001</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>-5.13</v>
+        <v>-3.86</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4445,31 +4445,31 @@
         <v>5299.96</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>1303.79</v>
+        <v>1324.99</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>-696.9400000000001</v>
+        <v>-675.74</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>0.248</v>
+        <v>0.25</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0081</v>
+        <v>0</v>
       </c>
       <c r="K58" s="9" t="n">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:04</t>
+          <t>2020-04-16 15:04</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4514,31 +4514,31 @@
         <v>1026.5</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>797.59</v>
+        <v>793.48</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>130.57</v>
+        <v>126.46</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>0.777</v>
+        <v>0.773</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>0.783</v>
+        <v>0.766</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="K59" s="9" t="n">
-        <v>6.16</v>
+        <v>-0.0091</v>
+      </c>
+      <c r="K59" s="8" t="n">
+        <v>-7.19</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:04</t>
+          <t>2020-04-16 15:04</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
@@ -4583,31 +4583,31 @@
         <v>930.1900000000001</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>757.17</v>
+        <v>759.04</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>90.14</v>
+        <v>92</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-14</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.821</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>0.0086</v>
-      </c>
-      <c r="K60" s="9" t="n">
-        <v>6.51</v>
+        <v>-0.0012</v>
+      </c>
+      <c r="K60" s="8" t="n">
+        <v>-0.93</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4652,31 +4652,31 @@
         <v>1564.33</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>3099.88</v>
+        <v>3192.95</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>99.8</v>
+        <v>192.88</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>1.9816</v>
+        <v>2.0411</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.9858</v>
+        <v>2.0369</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0072</v>
-      </c>
-      <c r="K61" s="9" t="n">
-        <v>6.57</v>
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="K61" s="8" t="n">
+        <v>-6.57</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4721,31 +4721,31 @@
         <v>3083.26</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>2932.18</v>
+        <v>2947.6</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-67.83</v>
+        <v>-52.42</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.951</v>
+        <v>0.956</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.9506</v>
+        <v>0.9552</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0025</v>
+        <v>-0.0029</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>-1.23</v>
+        <v>-2.47</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4790,31 +4790,31 @@
         <v>1812.7</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>1037.41</v>
+        <v>1065.69</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>37.34</v>
+        <v>65.62</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.5723</v>
+        <v>0.5879</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.5722</v>
+        <v>0.5879</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.0072</v>
-      </c>
-      <c r="K63" s="8" t="n">
-        <v>-0.18</v>
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4859,31 +4859,31 @@
         <v>1059.17</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>996.04</v>
+        <v>1006</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-3.92</v>
+        <v>6.04</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.9404</v>
+        <v>0.9498</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9405</v>
+        <v>0.9498</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0037</v>
+        <v>0.0013</v>
       </c>
       <c r="K64" s="9" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4928,31 +4928,31 @@
         <v>916.83</v>
       </c>
       <c r="E65" s="31" t="n">
-        <v>911.33</v>
+        <v>919.67</v>
       </c>
       <c r="F65" s="31" t="n">
-        <v>-88.66</v>
+        <v>-80.31</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>0.994</v>
+        <v>1.0031</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.9938</v>
+        <v>1.0029</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>-0.0062</v>
+        <v>0.0015</v>
       </c>
       <c r="K65" s="8" t="n">
         <v>-0.18</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4997,31 +4997,31 @@
         <v>822.11</v>
       </c>
       <c r="E66" s="31" t="n">
-        <v>644.12</v>
+        <v>673.8</v>
       </c>
       <c r="F66" s="31" t="n">
-        <v>-25.9</v>
+        <v>3.78</v>
       </c>
       <c r="G66" s="30" t="n">
-        <v>0.7835</v>
+        <v>0.8196</v>
       </c>
       <c r="H66" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I66" s="30" t="n">
-        <v>0.7828000000000001</v>
+        <v>0.8198</v>
       </c>
       <c r="J66" s="33" t="n">
-        <v>-0.0242</v>
-      </c>
-      <c r="K66" s="8" t="n">
-        <v>-0.58</v>
+        <v>0.0143</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>0.16</v>
       </c>
       <c r="L66" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M66" s="32" t="inlineStr">
@@ -5066,31 +5066,31 @@
         <v>1423.86</v>
       </c>
       <c r="E67" s="31" t="n">
-        <v>1972.47</v>
+        <v>1954.53</v>
       </c>
       <c r="F67" s="31" t="n">
-        <v>-27.48</v>
+        <v>-45.42</v>
       </c>
       <c r="G67" s="30" t="n">
-        <v>1.3853</v>
+        <v>1.3727</v>
       </c>
       <c r="H67" s="32" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I67" s="30" t="n">
-        <v>1.4034</v>
+        <v>1.3669</v>
       </c>
       <c r="J67" s="33" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="K67" s="9" t="n">
-        <v>25.77</v>
+        <v>-0.0055</v>
+      </c>
+      <c r="K67" s="8" t="n">
+        <v>-8.26</v>
       </c>
       <c r="L67" s="32" t="inlineStr">
         <is>
-          <t>2020-04-09 16:00</t>
+          <t>2020-04-16 16:00</t>
         </is>
       </c>
       <c r="M67" s="32" t="inlineStr">
@@ -5135,31 +5135,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E68" s="31" t="n">
-        <v>1172.47</v>
+        <v>1203.96</v>
       </c>
       <c r="F68" s="31" t="n">
-        <v>172.5</v>
+        <v>203.99</v>
       </c>
       <c r="G68" s="30" t="n">
-        <v>1.303</v>
+        <v>1.338</v>
       </c>
       <c r="H68" s="32" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I68" s="30" t="n">
-        <v>1.2941</v>
+        <v>1.3313</v>
       </c>
       <c r="J68" s="33" t="n">
-        <v>-0.0091</v>
+        <v>0.001</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>-8.01</v>
+        <v>-6.03</v>
       </c>
       <c r="L68" s="32" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M68" s="32" t="inlineStr">
@@ -5204,17 +5204,17 @@
         <v>2047.94</v>
       </c>
       <c r="E69" s="31" t="n">
-        <v>2127.81</v>
+        <v>2078.66</v>
       </c>
       <c r="F69" s="31" t="n">
-        <v>127.79</v>
+        <v>78.64</v>
       </c>
       <c r="G69" s="30" t="n">
-        <v>1.039</v>
+        <v>1.015</v>
       </c>
       <c r="H69" s="32" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I69" s="30" t="n">
@@ -5273,31 +5273,31 @@
         <v>438.17</v>
       </c>
       <c r="E70" s="31" t="n">
-        <v>982.77</v>
+        <v>978.92</v>
       </c>
       <c r="F70" s="31" t="n">
-        <v>-17.22</v>
+        <v>-21.08</v>
       </c>
       <c r="G70" s="30" t="n">
-        <v>2.2429</v>
+        <v>2.2341</v>
       </c>
       <c r="H70" s="32" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I70" s="30" t="n">
-        <v>2.2421</v>
+        <v>2.2828</v>
       </c>
       <c r="J70" s="33" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="K70" s="8" t="n">
-        <v>-0.35</v>
+        <v>0</v>
+      </c>
+      <c r="K70" s="9" t="n">
+        <v>21.34</v>
       </c>
       <c r="L70" s="32" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M70" s="32" t="inlineStr">
@@ -5342,31 +5342,31 @@
         <v>7734.05</v>
       </c>
       <c r="E71" s="31" t="n">
-        <v>1902.58</v>
+        <v>1933.51</v>
       </c>
       <c r="F71" s="31" t="n">
-        <v>-1097.46</v>
+        <v>-1066.53</v>
       </c>
       <c r="G71" s="30" t="n">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
       <c r="H71" s="32" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I71" s="30" t="n">
-        <v>0.248</v>
+        <v>0.25</v>
       </c>
       <c r="J71" s="33" t="n">
-        <v>0.0081</v>
+        <v>0</v>
       </c>
       <c r="K71" s="9" t="n">
-        <v>15.47</v>
+        <v>0</v>
       </c>
       <c r="L71" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:04</t>
+          <t>2020-04-16 15:04</t>
         </is>
       </c>
       <c r="M71" s="32" t="inlineStr">
@@ -5411,31 +5411,31 @@
         <v>1394.58</v>
       </c>
       <c r="E72" s="31" t="n">
-        <v>1135.19</v>
+        <v>1137.98</v>
       </c>
       <c r="F72" s="31" t="n">
-        <v>135.13</v>
+        <v>137.92</v>
       </c>
       <c r="G72" s="30" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H72" s="32" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-14</t>
         </is>
       </c>
       <c r="I72" s="30" t="n">
-        <v>0.821</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="J72" s="33" t="n">
-        <v>0.0086</v>
-      </c>
-      <c r="K72" s="9" t="n">
-        <v>9.76</v>
+        <v>-0.0012</v>
+      </c>
+      <c r="K72" s="8" t="n">
+        <v>-1.39</v>
       </c>
       <c r="L72" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M72" s="32" t="inlineStr">
@@ -5480,31 +5480,31 @@
         <v>917.23</v>
       </c>
       <c r="E73" s="31" t="n">
-        <v>1248.07</v>
+        <v>1268.71</v>
       </c>
       <c r="F73" s="31" t="n">
-        <v>248.11</v>
+        <v>268.75</v>
       </c>
       <c r="G73" s="30" t="n">
-        <v>1.3607</v>
+        <v>1.3832</v>
       </c>
       <c r="H73" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I73" s="30" t="n">
-        <v>1.3664</v>
+        <v>1.3679</v>
       </c>
       <c r="J73" s="33" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="K73" s="9" t="n">
-        <v>5.23</v>
+        <v>-0.0008</v>
+      </c>
+      <c r="K73" s="8" t="n">
+        <v>-14.03</v>
       </c>
       <c r="L73" s="32" t="inlineStr">
         <is>
-          <t>2020-04-14 02:30</t>
+          <t>2020-04-17 02:29</t>
         </is>
       </c>
       <c r="M73" s="32" t="inlineStr">
@@ -5549,31 +5549,31 @@
         <v>595.47</v>
       </c>
       <c r="E74" s="31" t="n">
-        <v>1051</v>
+        <v>1056.36</v>
       </c>
       <c r="F74" s="31" t="n">
-        <v>51.03</v>
+        <v>56.39</v>
       </c>
       <c r="G74" s="30" t="n">
-        <v>1.765</v>
+        <v>1.774</v>
       </c>
       <c r="H74" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I74" s="30" t="n">
-        <v>1.7636</v>
+        <v>1.7736</v>
       </c>
       <c r="J74" s="33" t="n">
-        <v>-0.0042</v>
+        <v>0.0021</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>-0.83</v>
+        <v>-0.24</v>
       </c>
       <c r="L74" s="32" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M74" s="32" t="inlineStr">
@@ -5618,31 +5618,31 @@
         <v>72337.78999999999</v>
       </c>
       <c r="E75" s="37" t="n">
-        <v>68793.24000000001</v>
+        <v>69154.92999999999</v>
       </c>
       <c r="F75" s="37" t="n">
-        <v>2466.72</v>
+        <v>2828.41</v>
       </c>
       <c r="G75" s="36" t="n">
-        <v>0.951</v>
+        <v>0.956</v>
       </c>
       <c r="H75" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I75" s="36" t="n">
-        <v>0.9506</v>
+        <v>0.9552</v>
       </c>
       <c r="J75" s="39" t="n">
-        <v>-0.0025</v>
+        <v>-0.0029</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>-28.94</v>
+        <v>-57.87</v>
       </c>
       <c r="L75" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M75" s="38" t="inlineStr">
@@ -5687,31 +5687,31 @@
         <v>63490</v>
       </c>
       <c r="E76" s="37" t="n">
-        <v>63743.96</v>
+        <v>65159.79</v>
       </c>
       <c r="F76" s="37" t="n">
-        <v>5542.68</v>
+        <v>6958.5</v>
       </c>
       <c r="G76" s="36" t="n">
-        <v>1.004</v>
+        <v>1.0263</v>
       </c>
       <c r="H76" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I76" s="36" t="n">
-        <v>1.0041</v>
+        <v>1.0262</v>
       </c>
       <c r="J76" s="39" t="n">
-        <v>-0.0063</v>
-      </c>
-      <c r="K76" s="9" t="n">
-        <v>6.35</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K76" s="8" t="n">
+        <v>-6.35</v>
       </c>
       <c r="L76" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M76" s="38" t="inlineStr">
@@ -5756,17 +5756,17 @@
         <v>41627.14</v>
       </c>
       <c r="E77" s="37" t="n">
-        <v>43250.6</v>
+        <v>42251.55</v>
       </c>
       <c r="F77" s="37" t="n">
-        <v>1448.62</v>
+        <v>449.57</v>
       </c>
       <c r="G77" s="36" t="n">
-        <v>1.039</v>
+        <v>1.015</v>
       </c>
       <c r="H77" s="38" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I77" s="36" t="n">
@@ -5825,31 +5825,31 @@
         <v>32370.29</v>
       </c>
       <c r="E78" s="37" t="n">
-        <v>39015.91</v>
+        <v>39329.9</v>
       </c>
       <c r="F78" s="37" t="n">
-        <v>7014.64</v>
+        <v>7328.63</v>
       </c>
       <c r="G78" s="36" t="n">
-        <v>1.2053</v>
+        <v>1.215</v>
       </c>
       <c r="H78" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I78" s="36" t="n">
-        <v>1.2116</v>
+        <v>1.2133</v>
       </c>
       <c r="J78" s="39" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K78" s="9" t="n">
-        <v>203.93</v>
+        <v>0.0027</v>
+      </c>
+      <c r="K78" s="8" t="n">
+        <v>-55.03</v>
       </c>
       <c r="L78" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M78" s="38" t="inlineStr">
@@ -5894,31 +5894,31 @@
         <v>41014.88</v>
       </c>
       <c r="E79" s="37" t="n">
-        <v>39944.39</v>
+        <v>41051.79</v>
       </c>
       <c r="F79" s="37" t="n">
-        <v>9384.200000000001</v>
+        <v>10491.61</v>
       </c>
       <c r="G79" s="36" t="n">
-        <v>0.9739</v>
+        <v>1.0009</v>
       </c>
       <c r="H79" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I79" s="36" t="n">
-        <v>0.9742</v>
+        <v>1.0011</v>
       </c>
       <c r="J79" s="39" t="n">
-        <v>0.0063</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="K79" s="9" t="n">
-        <v>12.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L79" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M79" s="38" t="inlineStr">
@@ -5963,31 +5963,31 @@
         <v>20086.63</v>
       </c>
       <c r="E80" s="37" t="n">
-        <v>35452.9</v>
+        <v>35633.68</v>
       </c>
       <c r="F80" s="37" t="n">
-        <v>3452.89</v>
+        <v>3633.67</v>
       </c>
       <c r="G80" s="36" t="n">
-        <v>1.765</v>
+        <v>1.774</v>
       </c>
       <c r="H80" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I80" s="36" t="n">
-        <v>1.7636</v>
+        <v>1.7736</v>
       </c>
       <c r="J80" s="39" t="n">
-        <v>-0.0042</v>
+        <v>0.0021</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>-28.12</v>
+        <v>-8.029999999999999</v>
       </c>
       <c r="L80" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M80" s="38" t="inlineStr">
@@ -6032,31 +6032,31 @@
         <v>27031.68</v>
       </c>
       <c r="E81" s="37" t="n">
-        <v>26869.49</v>
+        <v>27115.48</v>
       </c>
       <c r="F81" s="37" t="n">
-        <v>1267.79</v>
+        <v>1513.77</v>
       </c>
       <c r="G81" s="36" t="n">
-        <v>0.994</v>
+        <v>1.0031</v>
       </c>
       <c r="H81" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I81" s="36" t="n">
-        <v>0.9938</v>
+        <v>1.0029</v>
       </c>
       <c r="J81" s="39" t="n">
-        <v>-0.0062</v>
+        <v>0.0015</v>
       </c>
       <c r="K81" s="8" t="n">
         <v>-5.41</v>
       </c>
       <c r="L81" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M81" s="38" t="inlineStr">
@@ -6101,31 +6101,31 @@
         <v>14624.61</v>
       </c>
       <c r="E82" s="37" t="n">
-        <v>22931.39</v>
+        <v>23223.88</v>
       </c>
       <c r="F82" s="37" t="n">
-        <v>3730.74</v>
+        <v>4023.23</v>
       </c>
       <c r="G82" s="36" t="n">
-        <v>1.568</v>
+        <v>1.588</v>
       </c>
       <c r="H82" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I82" s="36" t="n">
-        <v>1.5687</v>
+        <v>1.587</v>
       </c>
       <c r="J82" s="39" t="n">
-        <v>-0.004</v>
-      </c>
-      <c r="K82" s="9" t="n">
-        <v>10.24</v>
+        <v>0.0012</v>
+      </c>
+      <c r="K82" s="8" t="n">
+        <v>-14.62</v>
       </c>
       <c r="L82" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M82" s="38" t="inlineStr">
@@ -6170,31 +6170,31 @@
         <v>16626.05</v>
       </c>
       <c r="E83" s="37" t="n">
-        <v>23032.07</v>
+        <v>22822.58</v>
       </c>
       <c r="F83" s="37" t="n">
-        <v>330.86</v>
+        <v>121.37</v>
       </c>
       <c r="G83" s="36" t="n">
-        <v>1.3853</v>
+        <v>1.3727</v>
       </c>
       <c r="H83" s="38" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I83" s="36" t="n">
-        <v>1.4034</v>
+        <v>1.3669</v>
       </c>
       <c r="J83" s="39" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="K83" s="9" t="n">
-        <v>300.93</v>
+        <v>-0.0055</v>
+      </c>
+      <c r="K83" s="8" t="n">
+        <v>-96.43000000000001</v>
       </c>
       <c r="L83" s="38" t="inlineStr">
         <is>
-          <t>2020-04-09 16:00</t>
+          <t>2020-04-16 16:00</t>
         </is>
       </c>
       <c r="M83" s="38" t="inlineStr">
@@ -6239,31 +6239,31 @@
         <v>16778.47</v>
       </c>
       <c r="E84" s="37" t="n">
-        <v>21862.35</v>
+        <v>22449.59</v>
       </c>
       <c r="F84" s="37" t="n">
-        <v>2661.07</v>
+        <v>3248.31</v>
       </c>
       <c r="G84" s="36" t="n">
-        <v>1.303</v>
+        <v>1.338</v>
       </c>
       <c r="H84" s="38" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I84" s="36" t="n">
-        <v>1.2941</v>
+        <v>1.3313</v>
       </c>
       <c r="J84" s="39" t="n">
-        <v>-0.0091</v>
+        <v>0.001</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>-149.33</v>
+        <v>-112.42</v>
       </c>
       <c r="L84" s="38" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M84" s="38" t="inlineStr">
@@ -6308,31 +6308,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E85" s="37" t="n">
-        <v>16391.27</v>
+        <v>16762.94</v>
       </c>
       <c r="F85" s="37" t="n">
-        <v>3590.83</v>
+        <v>3962.49</v>
       </c>
       <c r="G85" s="36" t="n">
-        <v>1.72</v>
+        <v>1.759</v>
       </c>
       <c r="H85" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I85" s="36" t="n">
-        <v>1.7155</v>
+        <v>1.7633</v>
       </c>
       <c r="J85" s="39" t="n">
-        <v>-0.0072</v>
-      </c>
-      <c r="K85" s="8" t="n">
-        <v>-42.88</v>
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="K85" s="9" t="n">
+        <v>40.98</v>
       </c>
       <c r="L85" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M85" s="38" t="inlineStr">
@@ -6377,31 +6377,31 @@
         <v>13403.92</v>
       </c>
       <c r="E86" s="37" t="n">
-        <v>7494.13</v>
+        <v>7734.06</v>
       </c>
       <c r="F86" s="37" t="n">
-        <v>1093.76</v>
+        <v>1333.69</v>
       </c>
       <c r="G86" s="36" t="n">
-        <v>0.5591</v>
+        <v>0.577</v>
       </c>
       <c r="H86" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I86" s="36" t="n">
-        <v>0.5591</v>
+        <v>0.5770999999999999</v>
       </c>
       <c r="J86" s="39" t="n">
-        <v>-0.0137</v>
+        <v>0.0086</v>
       </c>
       <c r="K86" s="9" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L86" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M86" s="38" t="inlineStr">
@@ -6446,31 +6446,31 @@
         <v>3289.25</v>
       </c>
       <c r="E87" s="37" t="n">
-        <v>7377.46</v>
+        <v>7348.51</v>
       </c>
       <c r="F87" s="37" t="n">
-        <v>977.24</v>
+        <v>948.29</v>
       </c>
       <c r="G87" s="36" t="n">
-        <v>2.2429</v>
+        <v>2.2341</v>
       </c>
       <c r="H87" s="38" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I87" s="36" t="n">
-        <v>2.2421</v>
+        <v>2.2828</v>
       </c>
       <c r="J87" s="39" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="K87" s="8" t="n">
-        <v>-2.63</v>
+        <v>0</v>
+      </c>
+      <c r="K87" s="9" t="n">
+        <v>160.19</v>
       </c>
       <c r="L87" s="38" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M87" s="38" t="inlineStr">
@@ -6515,31 +6515,31 @@
         <v>37267.45</v>
       </c>
       <c r="E88" s="37" t="n">
-        <v>9167.790000000001</v>
+        <v>9316.860000000001</v>
       </c>
       <c r="F88" s="37" t="n">
-        <v>-10032.4</v>
+        <v>-9883.33</v>
       </c>
       <c r="G88" s="36" t="n">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
       <c r="H88" s="38" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I88" s="36" t="n">
-        <v>0.248</v>
+        <v>0.25</v>
       </c>
       <c r="J88" s="39" t="n">
-        <v>0.0081</v>
+        <v>0</v>
       </c>
       <c r="K88" s="9" t="n">
-        <v>74.53</v>
+        <v>0</v>
       </c>
       <c r="L88" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:04</t>
+          <t>2020-04-16 15:04</t>
         </is>
       </c>
       <c r="M88" s="38" t="inlineStr">
@@ -6584,31 +6584,31 @@
         <v>3299.64</v>
       </c>
       <c r="E89" s="37" t="n">
-        <v>6538.57</v>
+        <v>6734.9</v>
       </c>
       <c r="F89" s="37" t="n">
-        <v>138.25</v>
+        <v>334.58</v>
       </c>
       <c r="G89" s="36" t="n">
-        <v>1.9816</v>
+        <v>2.0411</v>
       </c>
       <c r="H89" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I89" s="36" t="n">
-        <v>1.9858</v>
+        <v>2.0369</v>
       </c>
       <c r="J89" s="39" t="n">
-        <v>-0.0072</v>
-      </c>
-      <c r="K89" s="9" t="n">
-        <v>13.86</v>
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="K89" s="8" t="n">
+        <v>-13.86</v>
       </c>
       <c r="L89" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M89" s="38" t="inlineStr">
@@ -6653,31 +6653,31 @@
         <v>8925.34</v>
       </c>
       <c r="E90" s="37" t="n">
-        <v>7265.23</v>
+        <v>7283.08</v>
       </c>
       <c r="F90" s="37" t="n">
-        <v>864.87</v>
+        <v>882.72</v>
       </c>
       <c r="G90" s="36" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H90" s="38" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-14</t>
         </is>
       </c>
       <c r="I90" s="36" t="n">
-        <v>0.821</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="J90" s="39" t="n">
-        <v>0.0086</v>
-      </c>
-      <c r="K90" s="9" t="n">
-        <v>62.48</v>
+        <v>-0.0012</v>
+      </c>
+      <c r="K90" s="8" t="n">
+        <v>-8.93</v>
       </c>
       <c r="L90" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M90" s="38" t="inlineStr">
@@ -6716,37 +6716,37 @@
         <v>519671</v>
       </c>
       <c r="C91" s="4" t="n">
-        <v>1.4178</v>
+        <v>1.4157</v>
       </c>
       <c r="D91" s="5" t="n">
-        <v>1586.43</v>
+        <v>1619.55</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>2084.57</v>
+        <v>2132.95</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>-164.67</v>
+        <v>-159.85</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>1.314</v>
+        <v>1.317</v>
       </c>
       <c r="H91" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>1.3135</v>
+        <v>1.3162</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>-0.0011</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>-0.79</v>
+        <v>-1.3</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M91" s="6" t="inlineStr">
@@ -6785,37 +6785,37 @@
         <v>90010</v>
       </c>
       <c r="C92" s="4" t="n">
-        <v>1.6542</v>
+        <v>1.652</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>1325.41</v>
+        <v>1351.19</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>2035.83</v>
+        <v>2083.53</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>-156.66</v>
+        <v>-148.63</v>
       </c>
       <c r="G92" s="4" t="n">
-        <v>1.536</v>
+        <v>1.542</v>
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>1.5362</v>
+        <v>1.5414</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>-0.0025</v>
-      </c>
-      <c r="K92" s="9" t="n">
-        <v>0.27</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K92" s="8" t="n">
+        <v>-0.8100000000000001</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M92" s="6" t="inlineStr">
@@ -6860,31 +6860,31 @@
         <v>1797.43</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>1716.91</v>
+        <v>1762.2</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>26.06</v>
+        <v>71.36</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>0.9552</v>
+        <v>0.9804</v>
       </c>
       <c r="H93" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>0.9553</v>
+        <v>0.9802999999999999</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" s="9" t="n">
-        <v>0.18</v>
+        <v>0.0105</v>
+      </c>
+      <c r="K93" s="8" t="n">
+        <v>-0.18</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M93" s="6" t="inlineStr">
@@ -6929,31 +6929,31 @@
         <v>1051.5</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>1436.98</v>
+        <v>1430.67</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>27.55</v>
+        <v>21.24</v>
       </c>
       <c r="G94" s="4" t="n">
-        <v>1.3666</v>
+        <v>1.3606</v>
       </c>
       <c r="H94" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I94" s="4" t="n">
-        <v>1.3855</v>
+        <v>1.3508</v>
       </c>
       <c r="J94" s="7" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="K94" s="9" t="n">
-        <v>19.87</v>
+        <v>-0.0054</v>
+      </c>
+      <c r="K94" s="8" t="n">
+        <v>-10.3</v>
       </c>
       <c r="L94" s="6" t="inlineStr">
         <is>
-          <t>2020-04-09 16:00</t>
+          <t>2020-04-16 16:00</t>
         </is>
       </c>
       <c r="M94" s="6" t="inlineStr">
@@ -6998,31 +6998,31 @@
         <v>485.77</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>1011.28</v>
+        <v>1012.78</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>-27.4</v>
+        <v>-25.89</v>
       </c>
       <c r="G95" s="4" t="n">
-        <v>2.0818</v>
+        <v>2.0849</v>
       </c>
       <c r="H95" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I95" s="4" t="n">
-        <v>2.082</v>
+        <v>2.0847</v>
       </c>
       <c r="J95" s="7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K95" s="9" t="n">
-        <v>0.1</v>
+        <v>-0.0035</v>
+      </c>
+      <c r="K95" s="8" t="n">
+        <v>-0.1</v>
       </c>
       <c r="L95" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M95" s="6" t="inlineStr">
@@ -7067,31 +7067,31 @@
         <v>528.99</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>952.66</v>
+        <v>956.41</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>0.9</v>
+        <v>4.66</v>
       </c>
       <c r="G96" s="4" t="n">
-        <v>1.8009</v>
+        <v>1.808</v>
       </c>
       <c r="H96" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I96" s="4" t="n">
-        <v>1.8009</v>
+        <v>1.8079</v>
       </c>
       <c r="J96" s="7" t="n">
-        <v>-0.0008</v>
-      </c>
-      <c r="K96" s="9" t="n">
-        <v>0</v>
+        <v>-0.0031</v>
+      </c>
+      <c r="K96" s="8" t="n">
+        <v>-0.05</v>
       </c>
       <c r="L96" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M96" s="6" t="inlineStr">
@@ -7130,37 +7130,37 @@
         <v>1594</v>
       </c>
       <c r="C97" s="4" t="n">
-        <v>1.1719</v>
+        <v>1.1669</v>
       </c>
       <c r="D97" s="5" t="n">
-        <v>631.0700000000001</v>
+        <v>668.84</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>682.5</v>
+        <v>725.6900000000001</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>-57.05</v>
+        <v>-54.78</v>
       </c>
       <c r="G97" s="4" t="n">
-        <v>1.0815</v>
+        <v>1.085</v>
       </c>
       <c r="H97" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I97" s="4" t="n">
-        <v>1.0815</v>
+        <v>1.0849</v>
       </c>
       <c r="J97" s="7" t="n">
-        <v>-0.0068</v>
-      </c>
-      <c r="K97" s="9" t="n">
-        <v>0</v>
+        <v>-0.0026</v>
+      </c>
+      <c r="K97" s="8" t="n">
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L97" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M97" s="6" t="inlineStr">
@@ -7199,23 +7199,23 @@
         <v>6327</v>
       </c>
       <c r="C98" s="4" t="n">
-        <v>1.1598</v>
+        <v>1.1573</v>
       </c>
       <c r="D98" s="5" t="n">
-        <v>387.21</v>
+        <v>396.12</v>
       </c>
       <c r="E98" s="5" t="n">
-        <v>424.15</v>
+        <v>446.98</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>-24.94</v>
+        <v>-11.45</v>
       </c>
       <c r="G98" s="4" t="n">
-        <v>1.0954</v>
+        <v>1.1284</v>
       </c>
       <c r="H98" s="6" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I98" s="4" t="n">
@@ -7274,31 +7274,31 @@
         <v>426.97</v>
       </c>
       <c r="E99" s="5" t="n">
-        <v>428.68</v>
+        <v>438.2</v>
       </c>
       <c r="F99" s="5" t="n">
-        <v>19.3</v>
+        <v>28.82</v>
       </c>
       <c r="G99" s="4" t="n">
-        <v>1.004</v>
+        <v>1.0263</v>
       </c>
       <c r="H99" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I99" s="4" t="n">
-        <v>1.0041</v>
+        <v>1.0262</v>
       </c>
       <c r="J99" s="7" t="n">
-        <v>-0.0063</v>
-      </c>
-      <c r="K99" s="9" t="n">
-        <v>0.04</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K99" s="8" t="n">
+        <v>-0.04</v>
       </c>
       <c r="L99" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M99" s="6" t="inlineStr">
@@ -7337,37 +7337,37 @@
         <v>164906</v>
       </c>
       <c r="C100" s="4" t="n">
-        <v>1.1987</v>
+        <v>1.2161</v>
       </c>
       <c r="D100" s="5" t="n">
-        <v>235.02</v>
+        <v>254.52</v>
       </c>
       <c r="E100" s="5" t="n">
-        <v>306.23</v>
+        <v>340.55</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>24.51</v>
+        <v>31.03</v>
       </c>
       <c r="G100" s="4" t="n">
-        <v>1.303</v>
+        <v>1.338</v>
       </c>
       <c r="H100" s="6" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I100" s="4" t="n">
-        <v>1.2941</v>
+        <v>1.3313</v>
       </c>
       <c r="J100" s="7" t="n">
-        <v>-0.0091</v>
+        <v>0.001</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>-2.09</v>
+        <v>-1.71</v>
       </c>
       <c r="L100" s="6" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M100" s="6" t="inlineStr">
@@ -7412,31 +7412,31 @@
         <v>111.78</v>
       </c>
       <c r="E101" s="5" t="n">
-        <v>291.97</v>
+        <v>304.15</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>35.78</v>
+        <v>47.96</v>
       </c>
       <c r="G101" s="4" t="n">
-        <v>2.612</v>
+        <v>2.721</v>
       </c>
       <c r="H101" s="6" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I101" s="4" t="n">
-        <v>2.6309</v>
+        <v>2.7639</v>
       </c>
       <c r="J101" s="7" t="n">
-        <v>0.0045</v>
+        <v>0.0158</v>
       </c>
       <c r="K101" s="9" t="n">
-        <v>2.11</v>
+        <v>4.8</v>
       </c>
       <c r="L101" s="6" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M101" s="6" t="inlineStr">
@@ -7481,31 +7481,31 @@
         <v>142.1</v>
       </c>
       <c r="E102" s="5" t="n">
-        <v>178.34</v>
+        <v>178.48</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>-4.12</v>
+        <v>-3.98</v>
       </c>
       <c r="G102" s="4" t="n">
-        <v>1.255</v>
+        <v>1.256</v>
       </c>
       <c r="H102" s="6" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I102" s="4" t="n">
-        <v>1.2525</v>
+        <v>1.257</v>
       </c>
       <c r="J102" s="7" t="n">
-        <v>-0.002</v>
-      </c>
-      <c r="K102" s="8" t="n">
-        <v>-0.36</v>
+        <v>0</v>
+      </c>
+      <c r="K102" s="9" t="n">
+        <v>0.14</v>
       </c>
       <c r="L102" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M102" s="6" t="inlineStr">
@@ -7550,31 +7550,31 @@
         <v>140.72</v>
       </c>
       <c r="E103" s="5" t="n">
-        <v>130.56</v>
+        <v>130.73</v>
       </c>
       <c r="F103" s="5" t="n">
-        <v>13.96</v>
+        <v>14.13</v>
       </c>
       <c r="G103" s="4" t="n">
-        <v>0.9278</v>
+        <v>0.929</v>
       </c>
       <c r="H103" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I103" s="4" t="n">
-        <v>0.9278999999999999</v>
+        <v>0.9291</v>
       </c>
       <c r="J103" s="7" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0095</v>
       </c>
       <c r="K103" s="9" t="n">
         <v>0.01</v>
       </c>
       <c r="L103" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M103" s="6" t="inlineStr">
@@ -7613,37 +7613,37 @@
         <v>161128</v>
       </c>
       <c r="C104" s="4" t="n">
-        <v>1.6817</v>
+        <v>1.6918</v>
       </c>
       <c r="D104" s="5" t="n">
-        <v>63.82</v>
+        <v>69.44</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>108.78</v>
+        <v>120.92</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>1.46</v>
+        <v>3.44</v>
       </c>
       <c r="G104" s="4" t="n">
-        <v>1.7045</v>
+        <v>1.7413</v>
       </c>
       <c r="H104" s="6" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I104" s="4" t="n">
-        <v>1.688</v>
+        <v>1.7436</v>
       </c>
       <c r="J104" s="7" t="n">
-        <v>-0.0121</v>
-      </c>
-      <c r="K104" s="8" t="n">
-        <v>-1.05</v>
+        <v>0.0013</v>
+      </c>
+      <c r="K104" s="9" t="n">
+        <v>0.16</v>
       </c>
       <c r="L104" s="6" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M104" s="6" t="inlineStr">
@@ -7682,37 +7682,37 @@
         <v>110003</v>
       </c>
       <c r="C105" s="4" t="n">
-        <v>1.7012</v>
+        <v>1.7017</v>
       </c>
       <c r="D105" s="5" t="n">
-        <v>25.7</v>
+        <v>51.56</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>43.68</v>
+        <v>88.33</v>
       </c>
       <c r="F105" s="5" t="n">
-        <v>-0.04</v>
+        <v>0.59</v>
       </c>
       <c r="G105" s="4" t="n">
-        <v>1.6995</v>
+        <v>1.7132</v>
       </c>
       <c r="H105" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I105" s="4" t="n">
-        <v>1.6999</v>
+        <v>1.7184</v>
       </c>
       <c r="J105" s="7" t="n">
-        <v>-0.0037</v>
+        <v>0.0013</v>
       </c>
       <c r="K105" s="9" t="n">
-        <v>0.01</v>
+        <v>0.27</v>
       </c>
       <c r="L105" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M105" s="6" t="inlineStr">
@@ -7757,31 +7757,31 @@
         <v>25.8</v>
       </c>
       <c r="E106" s="5" t="n">
-        <v>32.04</v>
+        <v>32.12</v>
       </c>
       <c r="F106" s="5" t="n">
-        <v>-5.04</v>
+        <v>-4.96</v>
       </c>
       <c r="G106" s="4" t="n">
-        <v>1.242</v>
+        <v>1.2448</v>
       </c>
       <c r="H106" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I106" s="4" t="n">
-        <v>1.242</v>
+        <v>1.2444</v>
       </c>
       <c r="J106" s="7" t="n">
-        <v>-0.0011</v>
-      </c>
-      <c r="K106" s="9" t="n">
-        <v>0</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K106" s="8" t="n">
+        <v>-0.01</v>
       </c>
       <c r="L106" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M106" s="6" t="inlineStr">
@@ -7832,25 +7832,25 @@
         <v>0</v>
       </c>
       <c r="G107" s="4" t="n">
-        <v>0.9172</v>
+        <v>0.9562</v>
       </c>
       <c r="H107" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I107" s="4" t="n">
-        <v>0.9172</v>
+        <v>0.9557</v>
       </c>
       <c r="J107" s="7" t="n">
-        <v>0.0104</v>
+        <v>0.0146</v>
       </c>
       <c r="K107" s="9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L107" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M107" s="6" t="inlineStr">
@@ -7901,15 +7901,15 @@
         <v>0</v>
       </c>
       <c r="G108" s="4" t="n">
-        <v>1.2776</v>
+        <v>1.2781</v>
       </c>
       <c r="H108" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I108" s="4" t="n">
-        <v>1.2777</v>
+        <v>1.2782</v>
       </c>
       <c r="J108" s="7" t="n">
         <v>0.0002</v>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="L108" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M108" s="6" t="inlineStr">
@@ -7970,25 +7970,25 @@
         <v>-0</v>
       </c>
       <c r="G109" s="4" t="n">
-        <v>0.9263</v>
+        <v>0.929</v>
       </c>
       <c r="H109" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I109" s="4" t="n">
-        <v>0.9238</v>
+        <v>0.9335</v>
       </c>
       <c r="J109" s="7" t="n">
-        <v>-0.0047</v>
+        <v>0.0029</v>
       </c>
       <c r="K109" s="9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L109" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M109" s="6" t="inlineStr">
@@ -8033,31 +8033,31 @@
         <v>1588.12</v>
       </c>
       <c r="E110" s="5" t="n">
-        <v>1943.06</v>
+        <v>1944.65</v>
       </c>
       <c r="F110" s="5" t="n">
-        <v>9.69</v>
+        <v>11.28</v>
       </c>
       <c r="G110" s="4" t="n">
-        <v>1.2235</v>
+        <v>1.2245</v>
       </c>
       <c r="H110" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I110" s="4" t="n">
-        <v>1.223</v>
+        <v>1.2243</v>
       </c>
       <c r="J110" s="7" t="n">
-        <v>-0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K110" s="8" t="n">
-        <v>-0.79</v>
+        <v>-0.32</v>
       </c>
       <c r="L110" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M110" s="6" t="inlineStr">
@@ -8102,31 +8102,31 @@
         <v>876.9</v>
       </c>
       <c r="E111" s="5" t="n">
-        <v>957.14</v>
+        <v>959.42</v>
       </c>
       <c r="F111" s="5" t="n">
-        <v>-9.56</v>
+        <v>-7.28</v>
       </c>
       <c r="G111" s="4" t="n">
-        <v>1.0915</v>
+        <v>1.0941</v>
       </c>
       <c r="H111" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I111" s="4" t="n">
-        <v>1.0921</v>
+        <v>1.0939</v>
       </c>
       <c r="J111" s="7" t="n">
-        <v>-0.0009</v>
-      </c>
-      <c r="K111" s="9" t="n">
-        <v>0.53</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K111" s="8" t="n">
+        <v>-0.18</v>
       </c>
       <c r="L111" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M111" s="6" t="inlineStr">
@@ -8171,31 +8171,31 @@
         <v>883.55</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>954.6799999999999</v>
+        <v>958.21</v>
       </c>
       <c r="F112" s="5" t="n">
-        <v>-12.02</v>
+        <v>-8.48</v>
       </c>
       <c r="G112" s="4" t="n">
-        <v>1.0805</v>
+        <v>1.0845</v>
       </c>
       <c r="H112" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I112" s="4" t="n">
-        <v>1.0782</v>
+        <v>1.0856</v>
       </c>
       <c r="J112" s="7" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="K112" s="8" t="n">
-        <v>-2.03</v>
+        <v>0.0022</v>
+      </c>
+      <c r="K112" s="9" t="n">
+        <v>0.97</v>
       </c>
       <c r="L112" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M112" s="6" t="inlineStr">
@@ -8240,31 +8240,31 @@
         <v>355.34</v>
       </c>
       <c r="E113" s="5" t="n">
-        <v>482.98</v>
+        <v>483.87</v>
       </c>
       <c r="F113" s="5" t="n">
-        <v>-0.36</v>
+        <v>0.53</v>
       </c>
       <c r="G113" s="4" t="n">
-        <v>1.3592</v>
+        <v>1.3617</v>
       </c>
       <c r="H113" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I113" s="4" t="n">
-        <v>1.3585</v>
+        <v>1.3614</v>
       </c>
       <c r="J113" s="7" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K113" s="8" t="n">
-        <v>-0.25</v>
+        <v>-0.11</v>
       </c>
       <c r="L113" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M113" s="6" t="inlineStr">
@@ -8309,31 +8309,31 @@
         <v>304.75</v>
       </c>
       <c r="E114" s="5" t="n">
-        <v>477.54</v>
+        <v>481.2</v>
       </c>
       <c r="F114" s="5" t="n">
-        <v>-5.79</v>
+        <v>-2.13</v>
       </c>
       <c r="G114" s="4" t="n">
-        <v>1.567</v>
+        <v>1.579</v>
       </c>
       <c r="H114" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I114" s="4" t="n">
-        <v>1.5676</v>
+        <v>1.5739</v>
       </c>
       <c r="J114" s="7" t="n">
-        <v>-0.0009</v>
-      </c>
-      <c r="K114" s="9" t="n">
-        <v>0.18</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K114" s="8" t="n">
+        <v>-1.55</v>
       </c>
       <c r="L114" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M114" s="6" t="inlineStr">
@@ -8378,31 +8378,31 @@
         <v>1487.05</v>
       </c>
       <c r="E115" s="5" t="n">
-        <v>1953.98</v>
+        <v>1958.44</v>
       </c>
       <c r="F115" s="5" t="n">
-        <v>-162.83</v>
+        <v>-158.37</v>
       </c>
       <c r="G115" s="4" t="n">
-        <v>1.314</v>
+        <v>1.317</v>
       </c>
       <c r="H115" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I115" s="4" t="n">
-        <v>1.3135</v>
+        <v>1.3162</v>
       </c>
       <c r="J115" s="7" t="n">
-        <v>-0.0011</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K115" s="8" t="n">
-        <v>-0.74</v>
+        <v>-1.19</v>
       </c>
       <c r="L115" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M115" s="6" t="inlineStr">
@@ -8447,31 +8447,31 @@
         <v>1210.44</v>
       </c>
       <c r="E116" s="5" t="n">
-        <v>1859.24</v>
+        <v>1866.5</v>
       </c>
       <c r="F116" s="5" t="n">
-        <v>-138.96</v>
+        <v>-131.7</v>
       </c>
       <c r="G116" s="4" t="n">
-        <v>1.536</v>
+        <v>1.542</v>
       </c>
       <c r="H116" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I116" s="4" t="n">
-        <v>1.5362</v>
+        <v>1.5414</v>
       </c>
       <c r="J116" s="7" t="n">
-        <v>-0.0025</v>
-      </c>
-      <c r="K116" s="9" t="n">
-        <v>0.24</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K116" s="8" t="n">
+        <v>-0.73</v>
       </c>
       <c r="L116" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M116" s="6" t="inlineStr">
@@ -8516,31 +8516,31 @@
         <v>1697.75</v>
       </c>
       <c r="E117" s="5" t="n">
-        <v>1621.69</v>
+        <v>1664.47</v>
       </c>
       <c r="F117" s="5" t="n">
-        <v>25.64</v>
+        <v>68.42</v>
       </c>
       <c r="G117" s="4" t="n">
-        <v>0.9552</v>
+        <v>0.9804</v>
       </c>
       <c r="H117" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I117" s="4" t="n">
-        <v>0.9553</v>
+        <v>0.9802999999999999</v>
       </c>
       <c r="J117" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" s="9" t="n">
-        <v>0.17</v>
+        <v>0.0105</v>
+      </c>
+      <c r="K117" s="8" t="n">
+        <v>-0.17</v>
       </c>
       <c r="L117" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M117" s="6" t="inlineStr">
@@ -8585,31 +8585,31 @@
         <v>977.05</v>
       </c>
       <c r="E118" s="5" t="n">
-        <v>1335.24</v>
+        <v>1329.37</v>
       </c>
       <c r="F118" s="5" t="n">
-        <v>19.83</v>
+        <v>13.97</v>
       </c>
       <c r="G118" s="4" t="n">
-        <v>1.3666</v>
+        <v>1.3606</v>
       </c>
       <c r="H118" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I118" s="4" t="n">
-        <v>1.3855</v>
+        <v>1.3508</v>
       </c>
       <c r="J118" s="7" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="K118" s="9" t="n">
-        <v>18.47</v>
+        <v>-0.0054</v>
+      </c>
+      <c r="K118" s="8" t="n">
+        <v>-9.58</v>
       </c>
       <c r="L118" s="6" t="inlineStr">
         <is>
-          <t>2020-04-09 16:00</t>
+          <t>2020-04-16 16:00</t>
         </is>
       </c>
       <c r="M118" s="6" t="inlineStr">
@@ -8654,31 +8654,31 @@
         <v>456.18</v>
       </c>
       <c r="E119" s="5" t="n">
-        <v>949.6799999999999</v>
+        <v>951.09</v>
       </c>
       <c r="F119" s="5" t="n">
-        <v>-19.52</v>
+        <v>-18.11</v>
       </c>
       <c r="G119" s="4" t="n">
-        <v>2.0818</v>
+        <v>2.0849</v>
       </c>
       <c r="H119" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I119" s="4" t="n">
-        <v>2.082</v>
+        <v>2.0847</v>
       </c>
       <c r="J119" s="7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K119" s="9" t="n">
-        <v>0.09</v>
+        <v>-0.0035</v>
+      </c>
+      <c r="K119" s="8" t="n">
+        <v>-0.09</v>
       </c>
       <c r="L119" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M119" s="6" t="inlineStr">
@@ -8723,31 +8723,31 @@
         <v>492.58</v>
       </c>
       <c r="E120" s="5" t="n">
-        <v>887.09</v>
+        <v>890.58</v>
       </c>
       <c r="F120" s="5" t="n">
-        <v>2.12</v>
+        <v>5.62</v>
       </c>
       <c r="G120" s="4" t="n">
-        <v>1.8009</v>
+        <v>1.808</v>
       </c>
       <c r="H120" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I120" s="4" t="n">
-        <v>1.8009</v>
+        <v>1.8079</v>
       </c>
       <c r="J120" s="7" t="n">
-        <v>-0.0008</v>
-      </c>
-      <c r="K120" s="9" t="n">
-        <v>0</v>
+        <v>-0.0031</v>
+      </c>
+      <c r="K120" s="8" t="n">
+        <v>-0.05</v>
       </c>
       <c r="L120" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M120" s="6" t="inlineStr">
@@ -8792,31 +8792,31 @@
         <v>519.77</v>
       </c>
       <c r="E121" s="5" t="n">
-        <v>562.13</v>
+        <v>563.95</v>
       </c>
       <c r="F121" s="5" t="n">
-        <v>-51.15</v>
+        <v>-49.33</v>
       </c>
       <c r="G121" s="4" t="n">
-        <v>1.0815</v>
+        <v>1.085</v>
       </c>
       <c r="H121" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I121" s="4" t="n">
-        <v>1.0815</v>
+        <v>1.0849</v>
       </c>
       <c r="J121" s="7" t="n">
-        <v>-0.0068</v>
-      </c>
-      <c r="K121" s="9" t="n">
-        <v>0</v>
+        <v>-0.0026</v>
+      </c>
+      <c r="K121" s="8" t="n">
+        <v>-0.05</v>
       </c>
       <c r="L121" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M121" s="6" t="inlineStr">
@@ -8855,23 +8855,23 @@
         <v>6327</v>
       </c>
       <c r="C122" s="4" t="n">
-        <v>1.1657</v>
+        <v>1.1638</v>
       </c>
       <c r="D122" s="5" t="n">
         <v>362.5</v>
       </c>
       <c r="E122" s="5" t="n">
-        <v>397.08</v>
+        <v>409.05</v>
       </c>
       <c r="F122" s="5" t="n">
-        <v>-25.48</v>
+        <v>-12.83</v>
       </c>
       <c r="G122" s="4" t="n">
-        <v>1.0954</v>
+        <v>1.1284</v>
       </c>
       <c r="H122" s="6" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I122" s="4" t="n">
@@ -8930,31 +8930,31 @@
         <v>390.82</v>
       </c>
       <c r="E123" s="5" t="n">
-        <v>392.38</v>
+        <v>401.1</v>
       </c>
       <c r="F123" s="5" t="n">
-        <v>17.24</v>
+        <v>25.95</v>
       </c>
       <c r="G123" s="4" t="n">
-        <v>1.004</v>
+        <v>1.0263</v>
       </c>
       <c r="H123" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I123" s="4" t="n">
-        <v>1.0041</v>
+        <v>1.0262</v>
       </c>
       <c r="J123" s="7" t="n">
-        <v>-0.0063</v>
-      </c>
-      <c r="K123" s="9" t="n">
-        <v>0.04</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K123" s="8" t="n">
+        <v>-0.04</v>
       </c>
       <c r="L123" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M123" s="6" t="inlineStr">
@@ -8993,37 +8993,37 @@
         <v>164906</v>
       </c>
       <c r="C124" s="4" t="n">
-        <v>1.2201</v>
+        <v>1.2329</v>
       </c>
       <c r="D124" s="5" t="n">
         <v>109.81</v>
       </c>
       <c r="E124" s="5" t="n">
-        <v>143.08</v>
+        <v>146.93</v>
       </c>
       <c r="F124" s="5" t="n">
-        <v>9.1</v>
+        <v>11.54</v>
       </c>
       <c r="G124" s="4" t="n">
-        <v>1.303</v>
+        <v>1.338</v>
       </c>
       <c r="H124" s="6" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I124" s="4" t="n">
-        <v>1.2941</v>
+        <v>1.3313</v>
       </c>
       <c r="J124" s="7" t="n">
-        <v>-0.0091</v>
+        <v>0.001</v>
       </c>
       <c r="K124" s="8" t="n">
-        <v>-0.98</v>
+        <v>-0.74</v>
       </c>
       <c r="L124" s="6" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M124" s="6" t="inlineStr">
@@ -9068,31 +9068,31 @@
         <v>38.03</v>
       </c>
       <c r="E125" s="5" t="n">
-        <v>99.33</v>
+        <v>103.48</v>
       </c>
       <c r="F125" s="5" t="n">
-        <v>12.8</v>
+        <v>16.95</v>
       </c>
       <c r="G125" s="4" t="n">
-        <v>2.612</v>
+        <v>2.721</v>
       </c>
       <c r="H125" s="6" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I125" s="4" t="n">
-        <v>2.6309</v>
+        <v>2.7639</v>
       </c>
       <c r="J125" s="7" t="n">
-        <v>0.0045</v>
+        <v>0.0158</v>
       </c>
       <c r="K125" s="9" t="n">
-        <v>0.72</v>
+        <v>1.63</v>
       </c>
       <c r="L125" s="6" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M125" s="6" t="inlineStr">
@@ -9131,37 +9131,37 @@
         <v>161128</v>
       </c>
       <c r="C126" s="4" t="n">
-        <v>1.7366</v>
+        <v>1.7335</v>
       </c>
       <c r="D126" s="5" t="n">
         <v>53.35</v>
       </c>
       <c r="E126" s="5" t="n">
-        <v>90.94</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F126" s="5" t="n">
-        <v>-1.71</v>
+        <v>0.42</v>
       </c>
       <c r="G126" s="4" t="n">
-        <v>1.7045</v>
+        <v>1.7413</v>
       </c>
       <c r="H126" s="6" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I126" s="4" t="n">
-        <v>1.688</v>
+        <v>1.7436</v>
       </c>
       <c r="J126" s="7" t="n">
-        <v>-0.0121</v>
-      </c>
-      <c r="K126" s="8" t="n">
-        <v>-0.88</v>
+        <v>0.0013</v>
+      </c>
+      <c r="K126" s="9" t="n">
+        <v>0.12</v>
       </c>
       <c r="L126" s="6" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M126" s="6" t="inlineStr">
@@ -9206,31 +9206,31 @@
         <v>62.09</v>
       </c>
       <c r="E127" s="5" t="n">
-        <v>77.92</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="F127" s="5" t="n">
-        <v>-2.12</v>
+        <v>-2.06</v>
       </c>
       <c r="G127" s="4" t="n">
-        <v>1.255</v>
+        <v>1.256</v>
       </c>
       <c r="H127" s="6" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I127" s="4" t="n">
-        <v>1.2525</v>
+        <v>1.257</v>
       </c>
       <c r="J127" s="7" t="n">
-        <v>-0.002</v>
-      </c>
-      <c r="K127" s="8" t="n">
-        <v>-0.16</v>
+        <v>0</v>
+      </c>
+      <c r="K127" s="9" t="n">
+        <v>0.06</v>
       </c>
       <c r="L127" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M127" s="6" t="inlineStr">
@@ -9275,31 +9275,31 @@
         <v>25.7</v>
       </c>
       <c r="E128" s="5" t="n">
-        <v>43.68</v>
+        <v>44.03</v>
       </c>
       <c r="F128" s="5" t="n">
-        <v>-0.04</v>
+        <v>0.31</v>
       </c>
       <c r="G128" s="4" t="n">
-        <v>1.6995</v>
+        <v>1.7132</v>
       </c>
       <c r="H128" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I128" s="4" t="n">
-        <v>1.6999</v>
+        <v>1.7184</v>
       </c>
       <c r="J128" s="7" t="n">
-        <v>-0.0037</v>
+        <v>0.0013</v>
       </c>
       <c r="K128" s="9" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="L128" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M128" s="6" t="inlineStr">
@@ -9344,31 +9344,31 @@
         <v>38.25</v>
       </c>
       <c r="E129" s="5" t="n">
-        <v>35.49</v>
+        <v>35.53</v>
       </c>
       <c r="F129" s="5" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="G129" s="4" t="n">
-        <v>0.9278</v>
+        <v>0.929</v>
       </c>
       <c r="H129" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I129" s="4" t="n">
-        <v>0.9278999999999999</v>
+        <v>0.9291</v>
       </c>
       <c r="J129" s="7" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0095</v>
       </c>
       <c r="K129" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L129" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M129" s="6" t="inlineStr">
@@ -9413,31 +9413,31 @@
         <v>25.8</v>
       </c>
       <c r="E130" s="5" t="n">
-        <v>32.04</v>
+        <v>32.12</v>
       </c>
       <c r="F130" s="5" t="n">
-        <v>-5.04</v>
+        <v>-4.96</v>
       </c>
       <c r="G130" s="4" t="n">
-        <v>1.242</v>
+        <v>1.2448</v>
       </c>
       <c r="H130" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I130" s="4" t="n">
-        <v>1.242</v>
+        <v>1.2444</v>
       </c>
       <c r="J130" s="7" t="n">
-        <v>-0.0011</v>
-      </c>
-      <c r="K130" s="9" t="n">
-        <v>0</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K130" s="8" t="n">
+        <v>-0.01</v>
       </c>
       <c r="L130" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M130" s="6" t="inlineStr">
@@ -9488,25 +9488,25 @@
         <v>0</v>
       </c>
       <c r="G131" s="4" t="n">
-        <v>0.9172</v>
+        <v>0.9562</v>
       </c>
       <c r="H131" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I131" s="4" t="n">
-        <v>0.9172</v>
+        <v>0.9557</v>
       </c>
       <c r="J131" s="7" t="n">
-        <v>0.0104</v>
+        <v>0.0146</v>
       </c>
       <c r="K131" s="9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L131" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M131" s="6" t="inlineStr">
@@ -9557,15 +9557,15 @@
         <v>0</v>
       </c>
       <c r="G132" s="4" t="n">
-        <v>1.2776</v>
+        <v>1.2781</v>
       </c>
       <c r="H132" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I132" s="4" t="n">
-        <v>1.2777</v>
+        <v>1.2782</v>
       </c>
       <c r="J132" s="7" t="n">
         <v>0.0002</v>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="L132" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M132" s="6" t="inlineStr">
@@ -9626,25 +9626,25 @@
         <v>-0</v>
       </c>
       <c r="G133" s="4" t="n">
-        <v>0.9263</v>
+        <v>0.929</v>
       </c>
       <c r="H133" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I133" s="4" t="n">
-        <v>0.9238</v>
+        <v>0.9335</v>
       </c>
       <c r="J133" s="7" t="n">
-        <v>-0.0047</v>
+        <v>0.0029</v>
       </c>
       <c r="K133" s="9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L133" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M133" s="6" t="inlineStr">
@@ -9689,31 +9689,31 @@
         <v>204702.46</v>
       </c>
       <c r="E134" s="5" t="n">
-        <v>250453.46</v>
+        <v>250658.16</v>
       </c>
       <c r="F134" s="5" t="n">
-        <v>1678.56</v>
+        <v>1883.26</v>
       </c>
       <c r="G134" s="4" t="n">
-        <v>1.2235</v>
+        <v>1.2245</v>
       </c>
       <c r="H134" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I134" s="4" t="n">
-        <v>1.223</v>
+        <v>1.2243</v>
       </c>
       <c r="J134" s="7" t="n">
-        <v>-0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K134" s="8" t="n">
-        <v>-102.35</v>
+        <v>-40.94</v>
       </c>
       <c r="L134" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M134" s="6" t="inlineStr">
@@ -9758,31 +9758,31 @@
         <v>155193.38</v>
       </c>
       <c r="E135" s="5" t="n">
-        <v>167686.45</v>
+        <v>168307.22</v>
       </c>
       <c r="F135" s="5" t="n">
-        <v>-1412.26</v>
+        <v>-791.49</v>
       </c>
       <c r="G135" s="4" t="n">
-        <v>1.0805</v>
+        <v>1.0845</v>
       </c>
       <c r="H135" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I135" s="4" t="n">
-        <v>1.0782</v>
+        <v>1.0856</v>
       </c>
       <c r="J135" s="7" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="K135" s="8" t="n">
-        <v>-356.94</v>
+        <v>0.0022</v>
+      </c>
+      <c r="K135" s="9" t="n">
+        <v>170.71</v>
       </c>
       <c r="L135" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M135" s="6" t="inlineStr">
@@ -9827,31 +9827,31 @@
         <v>53807.75</v>
       </c>
       <c r="E136" s="5" t="n">
-        <v>84316.74000000001</v>
+        <v>84962.44</v>
       </c>
       <c r="F136" s="5" t="n">
-        <v>-473.51</v>
+        <v>172.18</v>
       </c>
       <c r="G136" s="4" t="n">
-        <v>1.567</v>
+        <v>1.579</v>
       </c>
       <c r="H136" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I136" s="4" t="n">
-        <v>1.5676</v>
+        <v>1.5739</v>
       </c>
       <c r="J136" s="7" t="n">
-        <v>-0.0009</v>
-      </c>
-      <c r="K136" s="9" t="n">
-        <v>32.28</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K136" s="8" t="n">
+        <v>-274.42</v>
       </c>
       <c r="L136" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M136" s="6" t="inlineStr">
@@ -9896,31 +9896,31 @@
         <v>61822.59</v>
       </c>
       <c r="E137" s="5" t="n">
-        <v>84029.25999999999</v>
+        <v>84183.82000000001</v>
       </c>
       <c r="F137" s="5" t="n">
-        <v>228.74</v>
+        <v>383.3</v>
       </c>
       <c r="G137" s="4" t="n">
-        <v>1.3592</v>
+        <v>1.3617</v>
       </c>
       <c r="H137" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I137" s="4" t="n">
-        <v>1.3585</v>
+        <v>1.3614</v>
       </c>
       <c r="J137" s="7" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K137" s="8" t="n">
-        <v>-43.28</v>
+        <v>-18.55</v>
       </c>
       <c r="L137" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M137" s="6" t="inlineStr">
@@ -9965,31 +9965,31 @@
         <v>76710.81</v>
       </c>
       <c r="E138" s="5" t="n">
-        <v>83729.85000000001</v>
+        <v>83929.3</v>
       </c>
       <c r="F138" s="5" t="n">
-        <v>-398.9</v>
+        <v>-199.45</v>
       </c>
       <c r="G138" s="4" t="n">
-        <v>1.0915</v>
+        <v>1.0941</v>
       </c>
       <c r="H138" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I138" s="4" t="n">
-        <v>1.0921</v>
+        <v>1.0939</v>
       </c>
       <c r="J138" s="7" t="n">
-        <v>-0.0009</v>
-      </c>
-      <c r="K138" s="9" t="n">
-        <v>46.03</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K138" s="8" t="n">
+        <v>-15.34</v>
       </c>
       <c r="L138" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M138" s="6" t="inlineStr">
@@ -10034,31 +10034,31 @@
         <v>37702.16</v>
       </c>
       <c r="E139" s="5" t="n">
-        <v>83453.73</v>
+        <v>83853.37</v>
       </c>
       <c r="F139" s="5" t="n">
-        <v>-361.94</v>
+        <v>37.7</v>
       </c>
       <c r="G139" s="4" t="n">
-        <v>2.2135</v>
+        <v>2.2241</v>
       </c>
       <c r="H139" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I139" s="4" t="n">
-        <v>2.2166</v>
+        <v>2.2233</v>
       </c>
       <c r="J139" s="7" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K139" s="9" t="n">
-        <v>116.88</v>
+        <v>0.0004</v>
+      </c>
+      <c r="K139" s="8" t="n">
+        <v>-30.16</v>
       </c>
       <c r="L139" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M139" s="6" t="inlineStr">
@@ -10103,31 +10103,31 @@
         <v>52379.09</v>
       </c>
       <c r="E140" s="5" t="n">
-        <v>83329.89</v>
+        <v>83790.83</v>
       </c>
       <c r="F140" s="5" t="n">
-        <v>-120.47</v>
+        <v>340.46</v>
       </c>
       <c r="G140" s="4" t="n">
-        <v>1.5909</v>
+        <v>1.5997</v>
       </c>
       <c r="H140" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I140" s="4" t="n">
-        <v>1.5895</v>
+        <v>1.5969</v>
       </c>
       <c r="J140" s="7" t="n">
-        <v>-0.0005</v>
+        <v>0.0002</v>
       </c>
       <c r="K140" s="8" t="n">
-        <v>-73.33</v>
+        <v>-146.66</v>
       </c>
       <c r="L140" s="6" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M140" s="6" t="inlineStr">
@@ -10172,31 +10172,31 @@
         <v>9368.450000000001</v>
       </c>
       <c r="E141" s="37" t="n">
-        <v>10606.02</v>
+        <v>10893.63</v>
       </c>
       <c r="F141" s="37" t="n">
-        <v>815.0599999999999</v>
+        <v>1102.67</v>
       </c>
       <c r="G141" s="36" t="n">
-        <v>1.1321</v>
+        <v>1.1628</v>
       </c>
       <c r="H141" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I141" s="36" t="n">
-        <v>1.132</v>
+        <v>1.1629</v>
       </c>
       <c r="J141" s="39" t="n">
-        <v>-0.0072</v>
-      </c>
-      <c r="K141" s="8" t="n">
-        <v>-0.9399999999999999</v>
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="K141" s="9" t="n">
+        <v>0.9399999999999999</v>
       </c>
       <c r="L141" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M141" s="38" t="inlineStr">
@@ -10241,31 +10241,31 @@
         <v>10068.96</v>
       </c>
       <c r="E142" s="37" t="n">
-        <v>9575.58</v>
+        <v>9625.93</v>
       </c>
       <c r="F142" s="37" t="n">
-        <v>375.57</v>
+        <v>425.92</v>
       </c>
       <c r="G142" s="36" t="n">
-        <v>0.951</v>
+        <v>0.956</v>
       </c>
       <c r="H142" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I142" s="36" t="n">
-        <v>0.9506</v>
+        <v>0.9552</v>
       </c>
       <c r="J142" s="39" t="n">
-        <v>-0.0025</v>
+        <v>-0.0029</v>
       </c>
       <c r="K142" s="8" t="n">
-        <v>-4.03</v>
+        <v>-8.06</v>
       </c>
       <c r="L142" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M142" s="38" t="inlineStr">
@@ -10310,31 +10310,31 @@
         <v>6096.21</v>
       </c>
       <c r="E143" s="37" t="n">
-        <v>6120.59</v>
+        <v>6256.54</v>
       </c>
       <c r="F143" s="37" t="n">
-        <v>920.53</v>
+        <v>1056.47</v>
       </c>
       <c r="G143" s="36" t="n">
-        <v>1.004</v>
+        <v>1.0263</v>
       </c>
       <c r="H143" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I143" s="36" t="n">
-        <v>1.0041</v>
+        <v>1.0262</v>
       </c>
       <c r="J143" s="39" t="n">
-        <v>-0.0063</v>
-      </c>
-      <c r="K143" s="9" t="n">
-        <v>0.61</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K143" s="8" t="n">
+        <v>-0.61</v>
       </c>
       <c r="L143" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M143" s="38" t="inlineStr">
@@ -10379,31 +10379,31 @@
         <v>6187.76</v>
       </c>
       <c r="E144" s="37" t="n">
-        <v>6026.26</v>
+        <v>6193.33</v>
       </c>
       <c r="F144" s="37" t="n">
-        <v>1740</v>
+        <v>1907.07</v>
       </c>
       <c r="G144" s="36" t="n">
-        <v>0.9739</v>
+        <v>1.0009</v>
       </c>
       <c r="H144" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I144" s="36" t="n">
-        <v>0.9742</v>
+        <v>1.0011</v>
       </c>
       <c r="J144" s="39" t="n">
-        <v>0.0063</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="K144" s="9" t="n">
-        <v>1.86</v>
+        <v>1.24</v>
       </c>
       <c r="L144" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M144" s="38" t="inlineStr">
@@ -10448,31 +10448,31 @@
         <v>2760.12</v>
       </c>
       <c r="E145" s="37" t="n">
-        <v>4327.87</v>
+        <v>4383.07</v>
       </c>
       <c r="F145" s="37" t="n">
-        <v>727.84</v>
+        <v>783.05</v>
       </c>
       <c r="G145" s="36" t="n">
-        <v>1.568</v>
+        <v>1.588</v>
       </c>
       <c r="H145" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I145" s="36" t="n">
-        <v>1.5687</v>
+        <v>1.587</v>
       </c>
       <c r="J145" s="39" t="n">
-        <v>-0.004</v>
-      </c>
-      <c r="K145" s="9" t="n">
-        <v>1.93</v>
+        <v>0.0012</v>
+      </c>
+      <c r="K145" s="8" t="n">
+        <v>-2.76</v>
       </c>
       <c r="L145" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M145" s="38" t="inlineStr">
@@ -10517,31 +10517,31 @@
         <v>1981.84</v>
       </c>
       <c r="E146" s="37" t="n">
-        <v>3497.95</v>
+        <v>3515.78</v>
       </c>
       <c r="F146" s="37" t="n">
-        <v>306.79</v>
+        <v>324.63</v>
       </c>
       <c r="G146" s="36" t="n">
-        <v>1.765</v>
+        <v>1.774</v>
       </c>
       <c r="H146" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I146" s="36" t="n">
-        <v>1.7636</v>
+        <v>1.7736</v>
       </c>
       <c r="J146" s="39" t="n">
-        <v>-0.0042</v>
+        <v>0.0021</v>
       </c>
       <c r="K146" s="8" t="n">
-        <v>-2.77</v>
+        <v>-0.79</v>
       </c>
       <c r="L146" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M146" s="38" t="inlineStr">
@@ -10586,31 +10586,31 @@
         <v>2046.97</v>
       </c>
       <c r="E147" s="37" t="n">
-        <v>3520.79</v>
+        <v>3600.62</v>
       </c>
       <c r="F147" s="37" t="n">
-        <v>808.55</v>
+        <v>888.38</v>
       </c>
       <c r="G147" s="36" t="n">
-        <v>1.72</v>
+        <v>1.759</v>
       </c>
       <c r="H147" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I147" s="36" t="n">
-        <v>1.7155</v>
+        <v>1.7633</v>
       </c>
       <c r="J147" s="39" t="n">
-        <v>-0.0072</v>
-      </c>
-      <c r="K147" s="8" t="n">
-        <v>-9.210000000000001</v>
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="K147" s="9" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="L147" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M147" s="38" t="inlineStr">
@@ -10655,31 +10655,31 @@
         <v>5949.77</v>
       </c>
       <c r="E148" s="37" t="n">
-        <v>3326.52</v>
+        <v>3433.02</v>
       </c>
       <c r="F148" s="37" t="n">
-        <v>126.14</v>
+        <v>232.64</v>
       </c>
       <c r="G148" s="36" t="n">
-        <v>0.5591</v>
+        <v>0.577</v>
       </c>
       <c r="H148" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I148" s="36" t="n">
-        <v>0.5591</v>
+        <v>0.5770999999999999</v>
       </c>
       <c r="J148" s="39" t="n">
-        <v>-0.0137</v>
+        <v>0.0086</v>
       </c>
       <c r="K148" s="9" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="L148" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M148" s="38" t="inlineStr">
@@ -10724,31 +10724,31 @@
         <v>3988.79</v>
       </c>
       <c r="E149" s="37" t="n">
-        <v>3125.22</v>
+        <v>3269.21</v>
       </c>
       <c r="F149" s="37" t="n">
-        <v>299.56</v>
+        <v>443.55</v>
       </c>
       <c r="G149" s="36" t="n">
-        <v>0.7835</v>
+        <v>0.8196</v>
       </c>
       <c r="H149" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I149" s="36" t="n">
-        <v>0.7828000000000001</v>
+        <v>0.8198</v>
       </c>
       <c r="J149" s="39" t="n">
-        <v>-0.0242</v>
-      </c>
-      <c r="K149" s="8" t="n">
-        <v>-2.79</v>
+        <v>0.0143</v>
+      </c>
+      <c r="K149" s="9" t="n">
+        <v>0.8</v>
       </c>
       <c r="L149" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M149" s="38" t="inlineStr">
@@ -10793,17 +10793,17 @@
         <v>2730.84</v>
       </c>
       <c r="E150" s="37" t="n">
-        <v>2837.34</v>
+        <v>2771.8</v>
       </c>
       <c r="F150" s="37" t="n">
-        <v>37.14</v>
+        <v>-28.4</v>
       </c>
       <c r="G150" s="36" t="n">
-        <v>1.039</v>
+        <v>1.015</v>
       </c>
       <c r="H150" s="38" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I150" s="36" t="n">
@@ -10862,31 +10862,31 @@
         <v>1630.08</v>
       </c>
       <c r="E151" s="37" t="n">
-        <v>1964.74</v>
+        <v>1980.55</v>
       </c>
       <c r="F151" s="37" t="n">
-        <v>364.65</v>
+        <v>380.46</v>
       </c>
       <c r="G151" s="36" t="n">
-        <v>1.2053</v>
+        <v>1.215</v>
       </c>
       <c r="H151" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I151" s="36" t="n">
-        <v>1.2116</v>
+        <v>1.2133</v>
       </c>
       <c r="J151" s="39" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K151" s="9" t="n">
-        <v>10.27</v>
+        <v>0.0027</v>
+      </c>
+      <c r="K151" s="8" t="n">
+        <v>-2.77</v>
       </c>
       <c r="L151" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M151" s="38" t="inlineStr">
@@ -10931,31 +10931,31 @@
         <v>1407.29</v>
       </c>
       <c r="E152" s="37" t="n">
-        <v>1833.7</v>
+        <v>1882.95</v>
       </c>
       <c r="F152" s="37" t="n">
-        <v>233.61</v>
+        <v>282.87</v>
       </c>
       <c r="G152" s="36" t="n">
-        <v>1.303</v>
+        <v>1.338</v>
       </c>
       <c r="H152" s="38" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I152" s="36" t="n">
-        <v>1.2941</v>
+        <v>1.3313</v>
       </c>
       <c r="J152" s="39" t="n">
-        <v>-0.0091</v>
+        <v>0.001</v>
       </c>
       <c r="K152" s="8" t="n">
-        <v>-12.52</v>
+        <v>-9.43</v>
       </c>
       <c r="L152" s="38" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M152" s="38" t="inlineStr">
@@ -11000,31 +11000,31 @@
         <v>1267.08</v>
       </c>
       <c r="E153" s="37" t="n">
-        <v>1259.48</v>
+        <v>1271.01</v>
       </c>
       <c r="F153" s="37" t="n">
-        <v>59.43</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="G153" s="36" t="n">
-        <v>0.994</v>
+        <v>1.0031</v>
       </c>
       <c r="H153" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I153" s="36" t="n">
-        <v>0.9938</v>
+        <v>1.0029</v>
       </c>
       <c r="J153" s="39" t="n">
-        <v>-0.0062</v>
+        <v>0.0015</v>
       </c>
       <c r="K153" s="8" t="n">
         <v>-0.25</v>
       </c>
       <c r="L153" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M153" s="38" t="inlineStr">
@@ -11069,31 +11069,31 @@
         <v>1546.42</v>
       </c>
       <c r="E154" s="37" t="n">
-        <v>1281.05</v>
+        <v>1307.81</v>
       </c>
       <c r="F154" s="37" t="n">
-        <v>81.03</v>
+        <v>107.79</v>
       </c>
       <c r="G154" s="36" t="n">
-        <v>0.8284</v>
+        <v>0.8457</v>
       </c>
       <c r="H154" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I154" s="36" t="n">
-        <v>0.8285</v>
+        <v>0.8457</v>
       </c>
       <c r="J154" s="39" t="n">
-        <v>-0.009900000000000001</v>
+        <v>0.0073</v>
       </c>
       <c r="K154" s="9" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L154" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M154" s="38" t="inlineStr">
@@ -11138,31 +11138,31 @@
         <v>1338.46</v>
       </c>
       <c r="E155" s="37" t="n">
-        <v>1258.69</v>
+        <v>1271.27</v>
       </c>
       <c r="F155" s="37" t="n">
-        <v>58.62</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="G155" s="36" t="n">
-        <v>0.9404</v>
+        <v>0.9498</v>
       </c>
       <c r="H155" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I155" s="36" t="n">
-        <v>0.9405</v>
+        <v>0.9498</v>
       </c>
       <c r="J155" s="39" t="n">
-        <v>-0.0037</v>
+        <v>0.0013</v>
       </c>
       <c r="K155" s="9" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L155" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M155" s="38" t="inlineStr">
@@ -11207,31 +11207,31 @@
         <v>889.71</v>
       </c>
       <c r="E156" s="37" t="n">
-        <v>1232.52</v>
+        <v>1221.3</v>
       </c>
       <c r="F156" s="37" t="n">
-        <v>32.47</v>
+        <v>21.26</v>
       </c>
       <c r="G156" s="36" t="n">
-        <v>1.3853</v>
+        <v>1.3727</v>
       </c>
       <c r="H156" s="38" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I156" s="36" t="n">
-        <v>1.4034</v>
+        <v>1.3669</v>
       </c>
       <c r="J156" s="39" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="K156" s="9" t="n">
-        <v>16.1</v>
+        <v>-0.0055</v>
+      </c>
+      <c r="K156" s="8" t="n">
+        <v>-5.16</v>
       </c>
       <c r="L156" s="38" t="inlineStr">
         <is>
-          <t>2020-04-09 16:00</t>
+          <t>2020-04-16 16:00</t>
         </is>
       </c>
       <c r="M156" s="38" t="inlineStr">
@@ -11276,31 +11276,31 @@
         <v>4541.16</v>
       </c>
       <c r="E157" s="37" t="n">
-        <v>1117.13</v>
+        <v>1135.29</v>
       </c>
       <c r="F157" s="37" t="n">
-        <v>-883.26</v>
+        <v>-865.09</v>
       </c>
       <c r="G157" s="36" t="n">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
       <c r="H157" s="38" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I157" s="36" t="n">
-        <v>0.248</v>
+        <v>0.25</v>
       </c>
       <c r="J157" s="39" t="n">
-        <v>0.0081</v>
+        <v>0</v>
       </c>
       <c r="K157" s="9" t="n">
-        <v>9.08</v>
+        <v>0</v>
       </c>
       <c r="L157" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:04</t>
+          <t>2020-04-16 15:04</t>
         </is>
       </c>
       <c r="M157" s="38" t="inlineStr">
@@ -11345,31 +11345,31 @@
         <v>413.27</v>
       </c>
       <c r="E158" s="37" t="n">
-        <v>818.9400000000001</v>
+        <v>843.53</v>
       </c>
       <c r="F158" s="37" t="n">
-        <v>18.93</v>
+        <v>43.52</v>
       </c>
       <c r="G158" s="36" t="n">
-        <v>1.9816</v>
+        <v>2.0411</v>
       </c>
       <c r="H158" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I158" s="36" t="n">
-        <v>1.9858</v>
+        <v>2.0369</v>
       </c>
       <c r="J158" s="39" t="n">
-        <v>-0.0072</v>
-      </c>
-      <c r="K158" s="9" t="n">
-        <v>1.74</v>
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="K158" s="8" t="n">
+        <v>-1.74</v>
       </c>
       <c r="L158" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M158" s="38" t="inlineStr">
@@ -11414,31 +11414,31 @@
         <v>380.85</v>
       </c>
       <c r="E159" s="37" t="n">
-        <v>854.21</v>
+        <v>850.86</v>
       </c>
       <c r="F159" s="37" t="n">
-        <v>54.19</v>
+        <v>50.84</v>
       </c>
       <c r="G159" s="36" t="n">
-        <v>2.2429</v>
+        <v>2.2341</v>
       </c>
       <c r="H159" s="38" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I159" s="36" t="n">
-        <v>2.2421</v>
+        <v>2.2828</v>
       </c>
       <c r="J159" s="39" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="K159" s="8" t="n">
-        <v>-0.3</v>
+        <v>0</v>
+      </c>
+      <c r="K159" s="9" t="n">
+        <v>18.55</v>
       </c>
       <c r="L159" s="38" t="inlineStr">
         <is>
-          <t>2020-04-14 04:00</t>
+          <t>2020-04-17 04:00</t>
         </is>
       </c>
       <c r="M159" s="38" t="inlineStr">
@@ -11483,31 +11483,31 @@
         <v>496.13</v>
       </c>
       <c r="E160" s="37" t="n">
-        <v>502.98</v>
+        <v>509.23</v>
       </c>
       <c r="F160" s="37" t="n">
-        <v>102.95</v>
+        <v>109.2</v>
       </c>
       <c r="G160" s="36" t="n">
-        <v>1.0138</v>
+        <v>1.0264</v>
       </c>
       <c r="H160" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="I160" s="36" t="n">
-        <v>1.0138</v>
+        <v>1.0372</v>
       </c>
       <c r="J160" s="39" t="n">
-        <v>-0.0067</v>
+        <v>0.0105</v>
       </c>
       <c r="K160" s="9" t="n">
-        <v>0</v>
+        <v>5.36</v>
       </c>
       <c r="L160" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M160" s="38" t="inlineStr">
@@ -11552,31 +11552,31 @@
         <v>366.9</v>
       </c>
       <c r="E161" s="37" t="n">
-        <v>499.24</v>
+        <v>507.5</v>
       </c>
       <c r="F161" s="37" t="n">
-        <v>175.97</v>
+        <v>184.22</v>
       </c>
       <c r="G161" s="36" t="n">
-        <v>1.3607</v>
+        <v>1.3832</v>
       </c>
       <c r="H161" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I161" s="36" t="n">
-        <v>1.3664</v>
+        <v>1.3679</v>
       </c>
       <c r="J161" s="39" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="K161" s="9" t="n">
-        <v>2.09</v>
+        <v>-0.0008</v>
+      </c>
+      <c r="K161" s="8" t="n">
+        <v>-5.61</v>
       </c>
       <c r="L161" s="38" t="inlineStr">
         <is>
-          <t>2020-04-14 02:30</t>
+          <t>2020-04-17 02:29</t>
         </is>
       </c>
       <c r="M161" s="38" t="inlineStr">
@@ -11621,31 +11621,31 @@
         <v>325.61</v>
       </c>
       <c r="E162" s="37" t="n">
-        <v>409.85</v>
+        <v>414.92</v>
       </c>
       <c r="F162" s="37" t="n">
-        <v>9.83</v>
+        <v>14.91</v>
       </c>
       <c r="G162" s="36" t="n">
-        <v>1.2587</v>
+        <v>1.2743</v>
       </c>
       <c r="H162" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="I162" s="36" t="n">
-        <v>1.2587</v>
+        <v>1.2742</v>
       </c>
       <c r="J162" s="39" t="n">
-        <v>-0.004</v>
-      </c>
-      <c r="K162" s="9" t="n">
-        <v>0</v>
+        <v>0.0012</v>
+      </c>
+      <c r="K162" s="8" t="n">
+        <v>-0.03</v>
       </c>
       <c r="L162" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M162" s="38" t="inlineStr">
@@ -11690,31 +11690,31 @@
         <v>557.83</v>
       </c>
       <c r="E163" s="37" t="n">
-        <v>454.07</v>
+        <v>455.19</v>
       </c>
       <c r="F163" s="37" t="n">
-        <v>54.05</v>
+        <v>55.17</v>
       </c>
       <c r="G163" s="36" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H163" s="38" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-14</t>
         </is>
       </c>
       <c r="I163" s="36" t="n">
-        <v>0.821</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="J163" s="39" t="n">
-        <v>0.0086</v>
-      </c>
-      <c r="K163" s="9" t="n">
-        <v>3.9</v>
+        <v>-0.0012</v>
+      </c>
+      <c r="K163" s="8" t="n">
+        <v>-0.5600000000000001</v>
       </c>
       <c r="L163" s="38" t="inlineStr">
         <is>
-          <t>2020-04-13 15:00</t>
+          <t>2020-04-16 15:00</t>
         </is>
       </c>
       <c r="M163" s="38" t="inlineStr">
